--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（R100）申請一覧画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（R100）申請一覧画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arc100.sharepoint.com/sites/msteams_059e6f/Shared Documents/20_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1132" documentId="13_ncr:1_{E342BE51-B75E-4DC2-92AA-31E84F457ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF0DDE1-8433-42A0-B3FC-76F9A4AE7409}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6402EBB-3979-4F9C-B9A5-538E5513609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="151">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -1170,56 +1170,17 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・対象打刻ID</t>
+    <t>・対象日時</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ダコク</t>
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・対象打刻修正申請ID（打刻テーブル）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・対象日時（打刻テーブル）</t>
-    <rPh sb="1" eb="3">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・対象日時（勤怠状況表テーブル）</t>
-    <rPh sb="1" eb="3">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>キンタイジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・対象日時（勤怠状況表テーブル）</t>
-    <rPh sb="1" eb="3">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ジョウキョウヒョウ</t>
-    </rPh>
+    <t>・対象打刻修正申請ID</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1608,7 +1569,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,9 +1726,171 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1804,21 +1927,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1834,174 +1942,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2011,9 +1981,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2023,59 +1990,107 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -2098,63 +2113,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3823,10 +3781,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
@@ -4126,16 +4080,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32BC060-26D0-4541-967C-77B6A4F31875}">
   <dimension ref="A1:BY32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21:AE21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="16" max="16" width="2.69921875" customWidth="1"/>
+    <col min="16" max="16" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:77" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4216,59 +4168,59 @@
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
     </row>
-    <row r="2" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="59" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="80" t="s">
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="82"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="93"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
@@ -4305,57 +4257,57 @@
       <c r="BX2" s="2"/>
       <c r="BY2" s="2"/>
     </row>
-    <row r="3" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+    <row r="3" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="83" t="s">
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="84">
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="95">
         <v>45442</v>
       </c>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="86"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="97"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
@@ -4392,53 +4344,53 @@
       <c r="BX3" s="2"/>
       <c r="BY3" s="2"/>
     </row>
-    <row r="4" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
+    <row r="4" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="91"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="102"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
@@ -4475,53 +4427,53 @@
       <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
     </row>
-    <row r="5" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+    <row r="5" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="89"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="99"/>
+      <c r="AH5" s="99"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="99"/>
+      <c r="AK5" s="99"/>
+      <c r="AL5" s="99"/>
+      <c r="AM5" s="99"/>
+      <c r="AN5" s="99"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="100"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
@@ -4558,7 +4510,7 @@
       <c r="BX5" s="2"/>
       <c r="BY5" s="2"/>
     </row>
-    <row r="6" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -4627,7 +4579,7 @@
       <c r="BQ6" s="49"/>
       <c r="BR6" s="49"/>
     </row>
-    <row r="7" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="AP7" s="20"/>
       <c r="AW7" s="1"/>
@@ -4646,7 +4598,7 @@
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
     </row>
-    <row r="8" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
@@ -4705,7 +4657,7 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
     </row>
-    <row r="9" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="35"/>
       <c r="C9" s="36"/>
@@ -4764,7 +4716,7 @@
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
     </row>
-    <row r="10" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
@@ -4827,41 +4779,41 @@
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
       <c r="B11" s="35"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="62" t="s">
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="71" t="s">
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="62" t="s">
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="64"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="118"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
@@ -4879,46 +4831,46 @@
       <c r="AO11" s="37"/>
       <c r="AP11" s="20"/>
     </row>
-    <row r="12" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="35"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69" t="s">
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="79" t="s">
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="68" t="s">
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="93" t="s">
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="95"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="76"/>
       <c r="AD12" s="44"/>
       <c r="AE12" s="39"/>
       <c r="AF12" s="36"/>
@@ -4933,52 +4885,52 @@
       <c r="AO12" s="37"/>
       <c r="AP12" s="20"/>
     </row>
-    <row r="13" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="35"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="65" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="74" t="s">
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="65" t="s">
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="78" t="s">
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78" t="s">
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
       <c r="AH13" s="36"/>
       <c r="AJ13" s="36"/>
       <c r="AK13" s="36"/>
@@ -4988,50 +4940,50 @@
       <c r="AO13" s="37"/>
       <c r="AP13" s="20"/>
     </row>
-    <row r="14" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61" t="s">
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="70" t="s">
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="77" t="s">
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
       <c r="AC14" s="36"/>
-      <c r="AD14" s="78" t="s">
+      <c r="AD14" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
       <c r="AH14" s="36"/>
       <c r="AI14" s="36"/>
       <c r="AJ14" s="36"/>
@@ -5042,16 +4994,16 @@
       <c r="AO14" s="37"/>
       <c r="AP14" s="20"/>
     </row>
-    <row r="15" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -5069,12 +5021,12 @@
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
-      <c r="W15" s="52" t="s">
+      <c r="W15" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
       <c r="AA15" s="36"/>
       <c r="AB15" s="36"/>
       <c r="AC15" s="36"/>
@@ -5092,7 +5044,7 @@
       <c r="AO15" s="37"/>
       <c r="AP15" s="20"/>
     </row>
-    <row r="16" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -5136,7 +5088,7 @@
       <c r="AO16" s="37"/>
       <c r="AP16" s="20"/>
     </row>
-    <row r="17" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -5184,41 +5136,41 @@
       <c r="AO17" s="37"/>
       <c r="AP17" s="20"/>
     </row>
-    <row r="18" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77" t="s">
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="99" t="s">
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="77" t="s">
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
       <c r="AA18" s="36"/>
       <c r="AB18" s="36"/>
       <c r="AC18" s="36"/>
@@ -5236,48 +5188,48 @@
       <c r="AO18" s="37"/>
       <c r="AP18" s="20"/>
     </row>
-    <row r="19" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="19"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="65" t="s">
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="97" t="s">
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="S19" s="75"/>
-      <c r="T19" s="75"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="98" t="s">
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="96" t="s">
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
@@ -5289,102 +5241,102 @@
       <c r="AO19" s="37"/>
       <c r="AP19" s="20"/>
     </row>
-    <row r="20" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="65" t="s">
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="97" t="s">
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="98" t="s">
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="96" t="s">
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="36"/>
       <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="106"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
       <c r="AN20" s="36"/>
       <c r="AO20" s="37"/>
       <c r="AP20" s="20"/>
     </row>
-    <row r="21" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="100" t="s">
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="103" t="s">
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="100" t="s">
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="96" t="s">
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
       <c r="AF21" s="36"/>
       <c r="AG21" s="36"/>
       <c r="AH21" s="36"/>
@@ -5397,48 +5349,48 @@
       <c r="AO21" s="37"/>
       <c r="AP21" s="20"/>
     </row>
-    <row r="22" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="100" t="s">
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="103" t="s">
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="105"/>
-      <c r="W22" s="100" t="s">
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="96" t="s">
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="68"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="36"/>
       <c r="AH22" s="36"/>
@@ -5451,48 +5403,48 @@
       <c r="AO22" s="37"/>
       <c r="AP22" s="20"/>
     </row>
-    <row r="23" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="100" t="s">
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="103" t="s">
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="100" t="s">
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="96" t="s">
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="96"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
       <c r="AF23" s="36"/>
       <c r="AG23" s="36"/>
       <c r="AH23" s="36"/>
@@ -5508,48 +5460,48 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="110" t="s">
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="113" t="s">
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="116" t="s">
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="78" t="s">
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="AB24" s="78"/>
-      <c r="AC24" s="78"/>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="78"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
       <c r="AF24" s="36"/>
       <c r="AG24" s="36"/>
       <c r="AH24" s="36"/>
@@ -5562,48 +5514,48 @@
       <c r="AO24" s="37"/>
       <c r="AP24" s="20"/>
     </row>
-    <row r="25" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="107" t="s">
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="113" t="s">
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="116" t="s">
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="78" t="s">
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="121"/>
-      <c r="AE25" s="121"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
       <c r="AF25" s="36"/>
       <c r="AG25" s="36"/>
       <c r="AH25" s="36"/>
@@ -5616,16 +5568,16 @@
       <c r="AO25" s="37"/>
       <c r="AP25" s="20"/>
     </row>
-    <row r="26" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -5647,12 +5599,12 @@
       <c r="Y26" s="36"/>
       <c r="Z26" s="36"/>
       <c r="AA26" s="36"/>
-      <c r="AB26" s="52" t="s">
+      <c r="AB26" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
@@ -5665,7 +5617,7 @@
       <c r="AO26" s="37"/>
       <c r="AP26" s="20"/>
     </row>
-    <row r="27" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
@@ -5709,7 +5661,7 @@
       <c r="AO27" s="37"/>
       <c r="AP27" s="20"/>
     </row>
-    <row r="28" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
@@ -5753,14 +5705,14 @@
       <c r="AO28" s="37"/>
       <c r="AP28" s="20"/>
     </row>
-    <row r="29" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="95"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
@@ -5798,7 +5750,7 @@
       <c r="AO29" s="37"/>
       <c r="AP29" s="20"/>
     </row>
-    <row r="30" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19"/>
       <c r="B30" s="38"/>
       <c r="C30" s="39"/>
@@ -5842,7 +5794,7 @@
       <c r="AO30" s="40"/>
       <c r="AP30" s="20"/>
     </row>
-    <row r="31" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -5886,67 +5838,9 @@
       <c r="AO31" s="22"/>
       <c r="AP31" s="23"/>
     </row>
-    <row r="32" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AA21:AE21"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AI3:AP3"/>
-    <mergeCell ref="I5:AP5"/>
-    <mergeCell ref="I2:AC2"/>
-    <mergeCell ref="I3:AC3"/>
-    <mergeCell ref="I4:AP4"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AA12:AC12"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="W15:Z15"/>
     <mergeCell ref="A2:D5"/>
@@ -5963,6 +5857,64 @@
     <mergeCell ref="M14:Q14"/>
     <mergeCell ref="R11:V11"/>
     <mergeCell ref="R13:V13"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AI3:AP3"/>
+    <mergeCell ref="I5:AP5"/>
+    <mergeCell ref="I2:AC2"/>
+    <mergeCell ref="I3:AC3"/>
+    <mergeCell ref="I4:AP4"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AA25:AE25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5974,22 +5926,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD35BCE-DF51-41FA-9059-97006CDDD399}">
   <dimension ref="A1:BY40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ13" sqref="AQ13"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="2.69921875" style="7"/>
-    <col min="3" max="3" width="5.796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="2.69921875" style="7"/>
-    <col min="30" max="30" width="5.796875" style="7" customWidth="1"/>
-    <col min="31" max="32" width="2.69921875" style="7"/>
+    <col min="1" max="2" width="2.75" style="7"/>
+    <col min="3" max="3" width="5.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="29" width="2.75" style="7"/>
+    <col min="30" max="30" width="5.75" style="7" customWidth="1"/>
+    <col min="31" max="32" width="2.75" style="7"/>
     <col min="33" max="33" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="2.69921875" style="7"/>
+    <col min="34" max="16384" width="2.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -6070,79 +6020,79 @@
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
     </row>
-    <row r="2" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="135" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="135" t="s">
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="135" t="s">
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="136"/>
-      <c r="W2" s="135" t="s">
+      <c r="V2" s="138"/>
+      <c r="W2" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="135" t="s">
+      <c r="X2" s="138"/>
+      <c r="Y2" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="135" t="s">
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="137" t="s">
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="137"/>
-      <c r="AO2" s="137"/>
-      <c r="AP2" s="137"/>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="137"/>
-      <c r="AS2" s="137"/>
-      <c r="AT2" s="137"/>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="137"/>
-      <c r="AY2" s="137"/>
-      <c r="AZ2" s="137"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="136"/>
-    </row>
-    <row r="3" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="139"/>
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="139"/>
+      <c r="AX2" s="139"/>
+      <c r="AY2" s="139"/>
+      <c r="AZ2" s="139"/>
+      <c r="BA2" s="139"/>
+      <c r="BB2" s="138"/>
+    </row>
+    <row r="3" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="124" t="s">
         <v>43</v>
       </c>
@@ -6175,16 +6125,16 @@
         <v>45</v>
       </c>
       <c r="X3" s="130"/>
-      <c r="Y3" s="122" t="s">
+      <c r="Y3" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="123"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="133"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
@@ -6208,7 +6158,7 @@
       <c r="BA3" s="5"/>
       <c r="BB3" s="6"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A4" s="124" t="s">
         <v>46</v>
       </c>
@@ -6243,18 +6193,18 @@
         <v>45</v>
       </c>
       <c r="X4" s="130"/>
-      <c r="Y4" s="131" t="s">
+      <c r="Y4" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="131">
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="135"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="134">
         <v>20</v>
       </c>
-      <c r="AF4" s="133"/>
+      <c r="AF4" s="136"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
@@ -6278,7 +6228,7 @@
       <c r="BA4" s="5"/>
       <c r="BB4" s="6"/>
     </row>
-    <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="124" t="s">
         <v>48</v>
       </c>
@@ -6313,18 +6263,18 @@
         <v>45</v>
       </c>
       <c r="X5" s="130"/>
-      <c r="Y5" s="131" t="s">
+      <c r="Y5" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="131">
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="134">
         <v>20</v>
       </c>
-      <c r="AF5" s="133"/>
+      <c r="AF5" s="136"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
@@ -6348,7 +6298,7 @@
       <c r="BA5" s="5"/>
       <c r="BB5" s="6"/>
     </row>
-    <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="124" t="s">
         <v>51</v>
       </c>
@@ -6383,18 +6333,18 @@
         <v>45</v>
       </c>
       <c r="X6" s="130"/>
-      <c r="Y6" s="131" t="s">
+      <c r="Y6" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="131">
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="134">
         <v>20</v>
       </c>
-      <c r="AF6" s="133"/>
+      <c r="AF6" s="136"/>
       <c r="AG6" s="51"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
@@ -6418,7 +6368,7 @@
       <c r="BA6" s="5"/>
       <c r="BB6" s="6"/>
     </row>
-    <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="124" t="s">
         <v>52</v>
       </c>
@@ -6453,18 +6403,18 @@
         <v>45</v>
       </c>
       <c r="X7" s="130"/>
-      <c r="Y7" s="131" t="s">
+      <c r="Y7" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="132"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="131">
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="134">
         <v>20</v>
       </c>
-      <c r="AF7" s="133"/>
+      <c r="AF7" s="136"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -6488,7 +6438,7 @@
       <c r="BA7" s="5"/>
       <c r="BB7" s="6"/>
     </row>
-    <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="124" t="s">
         <v>53</v>
       </c>
@@ -6523,16 +6473,16 @@
         <v>45</v>
       </c>
       <c r="X8" s="130"/>
-      <c r="Y8" s="122" t="s">
+      <c r="Y8" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="134"/>
-      <c r="AD8" s="123"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="123"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="133"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
@@ -6556,7 +6506,7 @@
       <c r="BA8" s="5"/>
       <c r="BB8" s="6"/>
     </row>
-    <row r="9" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="124" t="s">
         <v>55</v>
       </c>
@@ -6591,14 +6541,14 @@
         <v>45</v>
       </c>
       <c r="X9" s="130"/>
-      <c r="Y9" s="122" t="s">
+      <c r="Y9" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="134"/>
-      <c r="AA9" s="134"/>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="123"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="133"/>
       <c r="AE9" s="30"/>
       <c r="AF9" s="31"/>
       <c r="AG9" s="4"/>
@@ -6624,7 +6574,7 @@
       <c r="BA9" s="5"/>
       <c r="BB9" s="6"/>
     </row>
-    <row r="10" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="124" t="s">
         <v>102</v>
       </c>
@@ -6659,14 +6609,14 @@
         <v>45</v>
       </c>
       <c r="X10" s="130"/>
-      <c r="Y10" s="122" t="s">
+      <c r="Y10" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="134"/>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="134"/>
-      <c r="AD10" s="123"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="133"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="4"/>
@@ -6692,7 +6642,7 @@
       <c r="BA10" s="5"/>
       <c r="BB10" s="6"/>
     </row>
-    <row r="11" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="124" t="s">
         <v>131</v>
       </c>
@@ -6727,18 +6677,18 @@
         <v>45</v>
       </c>
       <c r="X11" s="130"/>
-      <c r="Y11" s="131" t="s">
+      <c r="Y11" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="122">
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="131">
         <v>10</v>
       </c>
-      <c r="AF11" s="123"/>
+      <c r="AF11" s="133"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -6762,7 +6712,7 @@
       <c r="BA11" s="5"/>
       <c r="BB11" s="6"/>
     </row>
-    <row r="12" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="124" t="s">
         <v>132</v>
       </c>
@@ -6797,18 +6747,18 @@
         <v>45</v>
       </c>
       <c r="X12" s="130"/>
-      <c r="Y12" s="131" t="s">
+      <c r="Y12" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="133"/>
-      <c r="AE12" s="122">
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="136"/>
+      <c r="AE12" s="131">
         <v>10</v>
       </c>
-      <c r="AF12" s="123"/>
+      <c r="AF12" s="133"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -6832,7 +6782,7 @@
       <c r="BA12" s="5"/>
       <c r="BB12" s="6"/>
     </row>
-    <row r="13" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="124" t="s">
         <v>133</v>
       </c>
@@ -6867,18 +6817,18 @@
         <v>45</v>
       </c>
       <c r="X13" s="130"/>
-      <c r="Y13" s="122" t="s">
+      <c r="Y13" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="134"/>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="122">
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="133"/>
+      <c r="AE13" s="131">
         <v>10</v>
       </c>
-      <c r="AF13" s="123"/>
+      <c r="AF13" s="133"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
@@ -6902,7 +6852,7 @@
       <c r="BA13" s="5"/>
       <c r="BB13" s="6"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A14" s="124" t="s">
         <v>57</v>
       </c>
@@ -6935,16 +6885,16 @@
         <v>45</v>
       </c>
       <c r="X14" s="130"/>
-      <c r="Y14" s="122" t="s">
+      <c r="Y14" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="134"/>
-      <c r="AC14" s="134"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="123"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="133"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
@@ -6968,7 +6918,7 @@
       <c r="BA14" s="5"/>
       <c r="BB14" s="6"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A15" s="124" t="s">
         <v>59</v>
       </c>
@@ -7003,18 +6953,18 @@
         <v>45</v>
       </c>
       <c r="X15" s="130"/>
-      <c r="Y15" s="131" t="s">
+      <c r="Y15" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="133"/>
-      <c r="AE15" s="131">
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="134">
         <v>20</v>
       </c>
-      <c r="AF15" s="133"/>
+      <c r="AF15" s="136"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
@@ -7038,7 +6988,7 @@
       <c r="BA15" s="5"/>
       <c r="BB15" s="6"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A16" s="124" t="s">
         <v>60</v>
       </c>
@@ -7073,18 +7023,18 @@
         <v>45</v>
       </c>
       <c r="X16" s="130"/>
-      <c r="Y16" s="131" t="s">
+      <c r="Y16" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="133"/>
-      <c r="AE16" s="131">
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="136"/>
+      <c r="AE16" s="134">
         <v>20</v>
       </c>
-      <c r="AF16" s="133"/>
+      <c r="AF16" s="136"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
@@ -7108,7 +7058,7 @@
       <c r="BA16" s="5"/>
       <c r="BB16" s="6"/>
     </row>
-    <row r="17" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="124" t="s">
         <v>61</v>
       </c>
@@ -7143,18 +7093,18 @@
         <v>45</v>
       </c>
       <c r="X17" s="130"/>
-      <c r="Y17" s="131" t="s">
+      <c r="Y17" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="133"/>
-      <c r="AE17" s="131">
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="136"/>
+      <c r="AE17" s="134">
         <v>20</v>
       </c>
-      <c r="AF17" s="133"/>
+      <c r="AF17" s="136"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
@@ -7178,7 +7128,7 @@
       <c r="BA17" s="5"/>
       <c r="BB17" s="6"/>
     </row>
-    <row r="18" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="124" t="s">
         <v>62</v>
       </c>
@@ -7213,18 +7163,18 @@
         <v>45</v>
       </c>
       <c r="X18" s="130"/>
-      <c r="Y18" s="131" t="s">
+      <c r="Y18" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="132"/>
-      <c r="AD18" s="133"/>
-      <c r="AE18" s="131">
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="136"/>
+      <c r="AE18" s="134">
         <v>20</v>
       </c>
-      <c r="AF18" s="133"/>
+      <c r="AF18" s="136"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
@@ -7248,7 +7198,7 @@
       <c r="BA18" s="5"/>
       <c r="BB18" s="6"/>
     </row>
-    <row r="19" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="124" t="s">
         <v>63</v>
       </c>
@@ -7283,16 +7233,16 @@
         <v>45</v>
       </c>
       <c r="X19" s="130"/>
-      <c r="Y19" s="122" t="s">
+      <c r="Y19" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="134"/>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="134"/>
-      <c r="AD19" s="123"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="123"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="132"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="133"/>
+      <c r="AE19" s="131"/>
+      <c r="AF19" s="133"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
@@ -7316,7 +7266,7 @@
       <c r="BA19" s="5"/>
       <c r="BB19" s="6"/>
     </row>
-    <row r="20" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="124" t="s">
         <v>64</v>
       </c>
@@ -7351,16 +7301,16 @@
         <v>45</v>
       </c>
       <c r="X20" s="130"/>
-      <c r="Y20" s="122" t="s">
+      <c r="Y20" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="134"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="123"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="123"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+      <c r="AB20" s="132"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="133"/>
+      <c r="AE20" s="131"/>
+      <c r="AF20" s="133"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
@@ -7384,7 +7334,7 @@
       <c r="BA20" s="5"/>
       <c r="BB20" s="6"/>
     </row>
-    <row r="21" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="124" t="s">
         <v>112</v>
       </c>
@@ -7419,18 +7369,18 @@
         <v>45</v>
       </c>
       <c r="X21" s="130"/>
-      <c r="Y21" s="131" t="s">
+      <c r="Y21" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
-      <c r="AC21" s="132"/>
-      <c r="AD21" s="133"/>
-      <c r="AE21" s="122">
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="131">
         <v>10</v>
       </c>
-      <c r="AF21" s="123"/>
+      <c r="AF21" s="133"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
@@ -7454,7 +7404,7 @@
       <c r="BA21" s="5"/>
       <c r="BB21" s="6"/>
     </row>
-    <row r="22" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="124" t="s">
         <v>113</v>
       </c>
@@ -7489,18 +7439,18 @@
         <v>45</v>
       </c>
       <c r="X22" s="130"/>
-      <c r="Y22" s="131" t="s">
+      <c r="Y22" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="133"/>
-      <c r="AE22" s="122">
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="136"/>
+      <c r="AE22" s="131">
         <v>10</v>
       </c>
-      <c r="AF22" s="123"/>
+      <c r="AF22" s="133"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -7524,7 +7474,7 @@
       <c r="BA22" s="5"/>
       <c r="BB22" s="6"/>
     </row>
-    <row r="23" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="124" t="s">
         <v>114</v>
       </c>
@@ -7559,18 +7509,18 @@
         <v>45</v>
       </c>
       <c r="X23" s="130"/>
-      <c r="Y23" s="122" t="s">
+      <c r="Y23" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="134"/>
-      <c r="AD23" s="123"/>
-      <c r="AE23" s="122">
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
+      <c r="AC23" s="132"/>
+      <c r="AD23" s="133"/>
+      <c r="AE23" s="131">
         <v>10</v>
       </c>
-      <c r="AF23" s="123"/>
+      <c r="AF23" s="133"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -7594,7 +7544,7 @@
       <c r="BA23" s="5"/>
       <c r="BB23" s="6"/>
     </row>
-    <row r="24" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="124" t="s">
         <v>65</v>
       </c>
@@ -7629,16 +7579,16 @@
         <v>45</v>
       </c>
       <c r="X24" s="130"/>
-      <c r="Y24" s="122" t="s">
+      <c r="Y24" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="134"/>
-      <c r="AD24" s="123"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="123"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="133"/>
+      <c r="AE24" s="131"/>
+      <c r="AF24" s="133"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -7662,7 +7612,7 @@
       <c r="BA24" s="5"/>
       <c r="BB24" s="6"/>
     </row>
-    <row r="25" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="124"/>
       <c r="B25" s="125"/>
       <c r="C25" s="126"/>
@@ -7683,18 +7633,18 @@
       <c r="R25" s="127"/>
       <c r="S25" s="127"/>
       <c r="T25" s="128"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="134"/>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="134"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="123"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="133"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="133"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="132"/>
+      <c r="AD25" s="133"/>
+      <c r="AE25" s="131"/>
+      <c r="AF25" s="133"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -7718,7 +7668,7 @@
       <c r="BA25" s="5"/>
       <c r="BB25" s="6"/>
     </row>
-    <row r="26" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="124"/>
       <c r="B26" s="125"/>
       <c r="C26" s="126"/>
@@ -7739,18 +7689,18 @@
       <c r="R26" s="127"/>
       <c r="S26" s="127"/>
       <c r="T26" s="128"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="123"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="123"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="134"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="134"/>
-      <c r="AD26" s="123"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="123"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="132"/>
+      <c r="AD26" s="133"/>
+      <c r="AE26" s="131"/>
+      <c r="AF26" s="133"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -7774,7 +7724,7 @@
       <c r="BA26" s="5"/>
       <c r="BB26" s="6"/>
     </row>
-    <row r="27" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="124"/>
       <c r="B27" s="125"/>
       <c r="C27" s="126"/>
@@ -7795,18 +7745,18 @@
       <c r="R27" s="127"/>
       <c r="S27" s="127"/>
       <c r="T27" s="128"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="123"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="123"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="123"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="123"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="133"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="133"/>
+      <c r="AE27" s="131"/>
+      <c r="AF27" s="133"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -7830,21 +7780,171 @@
       <c r="BA27" s="5"/>
       <c r="BB27" s="6"/>
     </row>
-    <row r="28" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="M10:T10"/>
     <mergeCell ref="U10:V10"/>
@@ -7869,156 +7969,6 @@
     <mergeCell ref="W23:X23"/>
     <mergeCell ref="Y23:AD23"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="M25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="M27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="M26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AE11:AF11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2">
@@ -8033,20 +7983,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C40FC-8D04-46C4-8E1C-8FF9B98D5FE5}">
   <dimension ref="A1:CK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS33" sqref="AS33"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="19" width="2.69921875" style="3"/>
-    <col min="20" max="20" width="5.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="53" width="2.69921875" style="3"/>
-    <col min="54" max="54" width="16.8984375" style="3" customWidth="1"/>
-    <col min="55" max="16384" width="2.69921875" style="3"/>
+    <col min="1" max="19" width="2.75" style="3"/>
+    <col min="20" max="20" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="53" width="2.75" style="3"/>
+    <col min="54" max="54" width="16.875" style="3" customWidth="1"/>
+    <col min="55" max="16384" width="2.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="9" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:89" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -8139,77 +8087,77 @@
       <c r="CJ1" s="8"/>
       <c r="CK1" s="8"/>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A2" s="150" t="s">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A2" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="150" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="150" t="s">
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="150" t="s">
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="151"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="151"/>
-      <c r="AO2" s="151"/>
-      <c r="AP2" s="151"/>
-      <c r="AQ2" s="152"/>
-      <c r="AR2" s="151" t="s">
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="153"/>
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="153"/>
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="153"/>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="153"/>
+      <c r="AJ2" s="153"/>
+      <c r="AK2" s="153"/>
+      <c r="AL2" s="153"/>
+      <c r="AM2" s="153"/>
+      <c r="AN2" s="153"/>
+      <c r="AO2" s="153"/>
+      <c r="AP2" s="153"/>
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="151"/>
-      <c r="AT2" s="151"/>
-      <c r="AU2" s="151"/>
-      <c r="AV2" s="151"/>
-      <c r="AW2" s="151"/>
-      <c r="AX2" s="151"/>
-      <c r="AY2" s="151"/>
-      <c r="AZ2" s="151"/>
-      <c r="BA2" s="151"/>
-      <c r="BB2" s="152"/>
-    </row>
-    <row r="3" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="138" t="s">
+      <c r="AS2" s="153"/>
+      <c r="AT2" s="153"/>
+      <c r="AU2" s="153"/>
+      <c r="AV2" s="153"/>
+      <c r="AW2" s="153"/>
+      <c r="AX2" s="153"/>
+      <c r="AY2" s="153"/>
+      <c r="AZ2" s="153"/>
+      <c r="BA2" s="153"/>
+      <c r="BB2" s="154"/>
+    </row>
+    <row r="3" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="140" t="s">
         <v>70</v>
       </c>
@@ -8222,15 +8170,15 @@
       <c r="J3" s="141"/>
       <c r="K3" s="141"/>
       <c r="L3" s="142"/>
-      <c r="M3" s="153" t="s">
+      <c r="M3" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="174"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="157"/>
       <c r="T3" s="126"/>
       <c r="U3" s="127"/>
       <c r="V3" s="127"/>
@@ -8267,26 +8215,26 @@
       <c r="BA3" s="127"/>
       <c r="BB3" s="128"/>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="177"/>
+    <row r="4" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="160"/>
       <c r="T4" s="126" t="s">
         <v>71</v>
       </c>
@@ -8325,52 +8273,52 @@
       <c r="BA4" s="127"/>
       <c r="BB4" s="128"/>
     </row>
-    <row r="5" spans="1:89" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="138"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="147" t="s">
+    <row r="5" spans="1:89" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="149"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="U5" s="148"/>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="148"/>
-      <c r="Y5" s="148"/>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="148"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="148"/>
-      <c r="AE5" s="148"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="148"/>
-      <c r="AH5" s="148"/>
-      <c r="AI5" s="148"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="148"/>
-      <c r="AL5" s="148"/>
-      <c r="AM5" s="148"/>
-      <c r="AN5" s="148"/>
-      <c r="AO5" s="148"/>
-      <c r="AP5" s="148"/>
-      <c r="AQ5" s="149"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="166"/>
       <c r="AR5" s="126"/>
       <c r="AS5" s="127"/>
       <c r="AT5" s="127"/>
@@ -8383,52 +8331,52 @@
       <c r="BA5" s="127"/>
       <c r="BB5" s="128"/>
     </row>
-    <row r="6" spans="1:89" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:89" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="124"/>
       <c r="B6" s="125"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="145" t="s">
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="160"/>
+      <c r="T6" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="U6" s="145"/>
-      <c r="V6" s="145"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
-      <c r="AD6" s="145"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="145"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="145"/>
-      <c r="AO6" s="145"/>
-      <c r="AP6" s="145"/>
-      <c r="AQ6" s="146"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="167"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="167"/>
+      <c r="AH6" s="167"/>
+      <c r="AI6" s="167"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="167"/>
+      <c r="AL6" s="167"/>
+      <c r="AM6" s="167"/>
+      <c r="AN6" s="167"/>
+      <c r="AO6" s="167"/>
+      <c r="AP6" s="167"/>
+      <c r="AQ6" s="168"/>
       <c r="AR6" s="126"/>
       <c r="AS6" s="127"/>
       <c r="AT6" s="127"/>
@@ -8441,26 +8389,26 @@
       <c r="BA6" s="127"/>
       <c r="BB6" s="128"/>
     </row>
-    <row r="7" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="176"/>
-      <c r="S7" s="177"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="160"/>
       <c r="T7" s="4" t="s">
         <v>140</v>
       </c>
@@ -8499,26 +8447,26 @@
       <c r="BA7" s="5"/>
       <c r="BB7" s="6"/>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A8" s="138"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="177"/>
+    <row r="8" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A8" s="149"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="160"/>
       <c r="T8" s="126" t="s">
         <v>72</v>
       </c>
@@ -8557,52 +8505,52 @@
       <c r="BA8" s="127"/>
       <c r="BB8" s="128"/>
     </row>
-    <row r="9" spans="1:89" ht="49.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="177"/>
-      <c r="T9" s="144" t="s">
+    <row r="9" spans="1:89" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="149"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="145"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="145"/>
-      <c r="AJ9" s="145"/>
-      <c r="AK9" s="145"/>
-      <c r="AL9" s="145"/>
-      <c r="AM9" s="145"/>
-      <c r="AN9" s="145"/>
-      <c r="AO9" s="145"/>
-      <c r="AP9" s="145"/>
-      <c r="AQ9" s="146"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="167"/>
+      <c r="AH9" s="167"/>
+      <c r="AI9" s="167"/>
+      <c r="AJ9" s="167"/>
+      <c r="AK9" s="167"/>
+      <c r="AL9" s="167"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="167"/>
+      <c r="AO9" s="167"/>
+      <c r="AP9" s="167"/>
+      <c r="AQ9" s="168"/>
       <c r="AR9" s="126"/>
       <c r="AS9" s="127"/>
       <c r="AT9" s="127"/>
@@ -8615,52 +8563,52 @@
       <c r="BA9" s="127"/>
       <c r="BB9" s="128"/>
     </row>
-    <row r="10" spans="1:89" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:89" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="124"/>
       <c r="B10" s="125"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="145" t="s">
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="U10" s="145"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="145"/>
-      <c r="AL10" s="145"/>
-      <c r="AM10" s="145"/>
-      <c r="AN10" s="145"/>
-      <c r="AO10" s="145"/>
-      <c r="AP10" s="145"/>
-      <c r="AQ10" s="146"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="167"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="167"/>
+      <c r="AH10" s="167"/>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="167"/>
+      <c r="AK10" s="167"/>
+      <c r="AL10" s="167"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="167"/>
+      <c r="AO10" s="167"/>
+      <c r="AP10" s="167"/>
+      <c r="AQ10" s="168"/>
       <c r="AR10" s="126"/>
       <c r="AS10" s="127"/>
       <c r="AT10" s="127"/>
@@ -8673,26 +8621,26 @@
       <c r="BA10" s="127"/>
       <c r="BB10" s="128"/>
     </row>
-    <row r="11" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45"/>
       <c r="B11" s="46"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="179"/>
-      <c r="S11" s="180"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="163"/>
       <c r="T11" s="4" t="s">
         <v>124</v>
       </c>
@@ -8731,11 +8679,11 @@
       <c r="BA11" s="5"/>
       <c r="BB11" s="6"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A12" s="138" t="s">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A12" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="140" t="s">
         <v>76</v>
       </c>
@@ -8797,52 +8745,52 @@
       <c r="BA12" s="127"/>
       <c r="BB12" s="128"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="171"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="172"/>
-      <c r="Z13" s="172"/>
-      <c r="AA13" s="172"/>
-      <c r="AB13" s="172"/>
-      <c r="AC13" s="172"/>
-      <c r="AD13" s="172"/>
-      <c r="AE13" s="172"/>
-      <c r="AF13" s="172"/>
-      <c r="AG13" s="172"/>
-      <c r="AH13" s="172"/>
-      <c r="AI13" s="172"/>
-      <c r="AJ13" s="172"/>
-      <c r="AK13" s="172"/>
-      <c r="AL13" s="172"/>
-      <c r="AM13" s="172"/>
-      <c r="AN13" s="172"/>
-      <c r="AO13" s="172"/>
-      <c r="AP13" s="172"/>
-      <c r="AQ13" s="173"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="146"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
+      <c r="X13" s="147"/>
+      <c r="Y13" s="147"/>
+      <c r="Z13" s="147"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="147"/>
+      <c r="AE13" s="147"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="147"/>
+      <c r="AH13" s="147"/>
+      <c r="AI13" s="147"/>
+      <c r="AJ13" s="147"/>
+      <c r="AK13" s="147"/>
+      <c r="AL13" s="147"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="147"/>
+      <c r="AP13" s="147"/>
+      <c r="AQ13" s="148"/>
       <c r="AR13" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -8855,11 +8803,11 @@
       <c r="BA13" s="5"/>
       <c r="BB13" s="6"/>
     </row>
-    <row r="14" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="138" t="s">
+    <row r="14" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="139"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="140" t="s">
         <v>105</v>
       </c>
@@ -8921,52 +8869,52 @@
       <c r="BA14" s="127"/>
       <c r="BB14" s="128"/>
     </row>
-    <row r="15" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="168"/>
-      <c r="U15" s="169"/>
-      <c r="V15" s="169"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="169"/>
-      <c r="Y15" s="169"/>
-      <c r="Z15" s="169"/>
-      <c r="AA15" s="169"/>
-      <c r="AB15" s="169"/>
-      <c r="AC15" s="169"/>
-      <c r="AD15" s="169"/>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="169"/>
-      <c r="AG15" s="169"/>
-      <c r="AH15" s="169"/>
-      <c r="AI15" s="169"/>
-      <c r="AJ15" s="169"/>
-      <c r="AK15" s="169"/>
-      <c r="AL15" s="169"/>
-      <c r="AM15" s="169"/>
-      <c r="AN15" s="169"/>
-      <c r="AO15" s="169"/>
-      <c r="AP15" s="169"/>
-      <c r="AQ15" s="170"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="144"/>
+      <c r="V15" s="144"/>
+      <c r="W15" s="144"/>
+      <c r="X15" s="144"/>
+      <c r="Y15" s="144"/>
+      <c r="Z15" s="144"/>
+      <c r="AA15" s="144"/>
+      <c r="AB15" s="144"/>
+      <c r="AC15" s="144"/>
+      <c r="AD15" s="144"/>
+      <c r="AE15" s="144"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="144"/>
+      <c r="AH15" s="144"/>
+      <c r="AI15" s="144"/>
+      <c r="AJ15" s="144"/>
+      <c r="AK15" s="144"/>
+      <c r="AL15" s="144"/>
+      <c r="AM15" s="144"/>
+      <c r="AN15" s="144"/>
+      <c r="AO15" s="144"/>
+      <c r="AP15" s="144"/>
+      <c r="AQ15" s="145"/>
       <c r="AR15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -8979,52 +8927,52 @@
       <c r="BA15" s="5"/>
       <c r="BB15" s="6"/>
     </row>
-    <row r="16" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="171"/>
-      <c r="U16" s="172"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="172"/>
-      <c r="AA16" s="172"/>
-      <c r="AB16" s="172"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="172"/>
-      <c r="AF16" s="172"/>
-      <c r="AG16" s="172"/>
-      <c r="AH16" s="172"/>
-      <c r="AI16" s="172"/>
-      <c r="AJ16" s="172"/>
-      <c r="AK16" s="172"/>
-      <c r="AL16" s="172"/>
-      <c r="AM16" s="172"/>
-      <c r="AN16" s="172"/>
-      <c r="AO16" s="172"/>
-      <c r="AP16" s="172"/>
-      <c r="AQ16" s="173"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="146"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="146"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="147"/>
+      <c r="AF16" s="147"/>
+      <c r="AG16" s="147"/>
+      <c r="AH16" s="147"/>
+      <c r="AI16" s="147"/>
+      <c r="AJ16" s="147"/>
+      <c r="AK16" s="147"/>
+      <c r="AL16" s="147"/>
+      <c r="AM16" s="147"/>
+      <c r="AN16" s="147"/>
+      <c r="AO16" s="147"/>
+      <c r="AP16" s="147"/>
+      <c r="AQ16" s="148"/>
       <c r="AR16" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
@@ -9037,7 +8985,7 @@
       <c r="BA16" s="5"/>
       <c r="BB16" s="6"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A17" s="124" t="s">
         <v>102</v>
       </c>
@@ -9101,26 +9049,26 @@
       <c r="BA17" s="5"/>
       <c r="BB17" s="6"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="173"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="148"/>
       <c r="T18" s="4" t="s">
         <v>108</v>
       </c>
@@ -9159,7 +9107,7 @@
       <c r="BA18" s="5"/>
       <c r="BB18" s="6"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A19" s="124" t="s">
         <v>134</v>
       </c>
@@ -9176,15 +9124,15 @@
       <c r="J19" s="127"/>
       <c r="K19" s="127"/>
       <c r="L19" s="128"/>
-      <c r="M19" s="143" t="s">
+      <c r="M19" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
       <c r="T19" s="127" t="s">
         <v>137</v>
       </c>
@@ -9223,7 +9171,7 @@
       <c r="BA19" s="127"/>
       <c r="BB19" s="128"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A20" s="124" t="s">
         <v>135</v>
       </c>
@@ -9240,15 +9188,15 @@
       <c r="J20" s="127"/>
       <c r="K20" s="127"/>
       <c r="L20" s="128"/>
-      <c r="M20" s="143" t="s">
+      <c r="M20" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
       <c r="T20" s="127" t="s">
         <v>138</v>
       </c>
@@ -9287,11 +9235,11 @@
       <c r="BA20" s="127"/>
       <c r="BB20" s="128"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A21" s="138" t="s">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A21" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="139"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="140" t="s">
         <v>81</v>
       </c>
@@ -9351,11 +9299,11 @@
       <c r="BA21" s="127"/>
       <c r="BB21" s="128"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A22" s="138" t="s">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A22" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="139"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="140" t="s">
         <v>80</v>
       </c>
@@ -9417,52 +9365,52 @@
       <c r="BA22" s="127"/>
       <c r="BB22" s="128"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="171"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="172"/>
-      <c r="R23" s="172"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="171"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="172"/>
-      <c r="W23" s="172"/>
-      <c r="X23" s="172"/>
-      <c r="Y23" s="172"/>
-      <c r="Z23" s="172"/>
-      <c r="AA23" s="172"/>
-      <c r="AB23" s="172"/>
-      <c r="AC23" s="172"/>
-      <c r="AD23" s="172"/>
-      <c r="AE23" s="172"/>
-      <c r="AF23" s="172"/>
-      <c r="AG23" s="172"/>
-      <c r="AH23" s="172"/>
-      <c r="AI23" s="172"/>
-      <c r="AJ23" s="172"/>
-      <c r="AK23" s="172"/>
-      <c r="AL23" s="172"/>
-      <c r="AM23" s="172"/>
-      <c r="AN23" s="172"/>
-      <c r="AO23" s="172"/>
-      <c r="AP23" s="172"/>
-      <c r="AQ23" s="173"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="147"/>
+      <c r="AF23" s="147"/>
+      <c r="AG23" s="147"/>
+      <c r="AH23" s="147"/>
+      <c r="AI23" s="147"/>
+      <c r="AJ23" s="147"/>
+      <c r="AK23" s="147"/>
+      <c r="AL23" s="147"/>
+      <c r="AM23" s="147"/>
+      <c r="AN23" s="147"/>
+      <c r="AO23" s="147"/>
+      <c r="AP23" s="147"/>
+      <c r="AQ23" s="148"/>
       <c r="AR23" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AS23" s="5"/>
       <c r="AT23" s="5"/>
@@ -9475,50 +9423,15 @@
       <c r="BA23" s="5"/>
       <c r="BB23" s="6"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="182"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="181"/>
-      <c r="U24" s="182"/>
-      <c r="V24" s="182"/>
-      <c r="W24" s="182"/>
-      <c r="X24" s="182"/>
-      <c r="Y24" s="182"/>
-      <c r="Z24" s="182"/>
-      <c r="AA24" s="182"/>
-      <c r="AB24" s="182"/>
-      <c r="AC24" s="182"/>
-      <c r="AD24" s="182"/>
-      <c r="AE24" s="182"/>
-      <c r="AF24" s="182"/>
-      <c r="AG24" s="182"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="182"/>
-      <c r="AJ24" s="182"/>
-      <c r="AK24" s="182"/>
-      <c r="AL24" s="182"/>
-      <c r="AM24" s="182"/>
-      <c r="AN24" s="182"/>
-      <c r="AO24" s="182"/>
-      <c r="AP24" s="182"/>
-      <c r="AQ24" s="183"/>
+      <c r="C24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="52"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="52"/>
+      <c r="AQ24" s="53"/>
       <c r="AR24" s="4"/>
       <c r="AS24" s="5"/>
       <c r="AT24" s="5"/>
@@ -9531,11 +9444,11 @@
       <c r="BA24" s="5"/>
       <c r="BB24" s="6"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A25" s="138" t="s">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A25" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="139"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="140" t="s">
         <v>78</v>
       </c>
@@ -9597,50 +9510,50 @@
       <c r="BA25" s="127"/>
       <c r="BB25" s="128"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="169"/>
-      <c r="P26" s="169"/>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="168"/>
-      <c r="U26" s="169"/>
-      <c r="V26" s="169"/>
-      <c r="W26" s="169"/>
-      <c r="X26" s="169"/>
-      <c r="Y26" s="169"/>
-      <c r="Z26" s="169"/>
-      <c r="AA26" s="169"/>
-      <c r="AB26" s="169"/>
-      <c r="AC26" s="169"/>
-      <c r="AD26" s="169"/>
-      <c r="AE26" s="169"/>
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169"/>
-      <c r="AI26" s="169"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="169"/>
-      <c r="AL26" s="169"/>
-      <c r="AM26" s="169"/>
-      <c r="AN26" s="169"/>
-      <c r="AO26" s="169"/>
-      <c r="AP26" s="169"/>
-      <c r="AQ26" s="170"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
+      <c r="Y26" s="144"/>
+      <c r="Z26" s="144"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="144"/>
+      <c r="AC26" s="144"/>
+      <c r="AD26" s="144"/>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="144"/>
+      <c r="AJ26" s="144"/>
+      <c r="AK26" s="144"/>
+      <c r="AL26" s="144"/>
+      <c r="AM26" s="144"/>
+      <c r="AN26" s="144"/>
+      <c r="AO26" s="144"/>
+      <c r="AP26" s="144"/>
+      <c r="AQ26" s="145"/>
       <c r="AR26" s="4" t="s">
         <v>148</v>
       </c>
@@ -9655,50 +9568,50 @@
       <c r="BA26" s="5"/>
       <c r="BB26" s="6"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="173"/>
-      <c r="T27" s="171"/>
-      <c r="U27" s="172"/>
-      <c r="V27" s="172"/>
-      <c r="W27" s="172"/>
-      <c r="X27" s="172"/>
-      <c r="Y27" s="172"/>
-      <c r="Z27" s="172"/>
-      <c r="AA27" s="172"/>
-      <c r="AB27" s="172"/>
-      <c r="AC27" s="172"/>
-      <c r="AD27" s="172"/>
-      <c r="AE27" s="172"/>
-      <c r="AF27" s="172"/>
-      <c r="AG27" s="172"/>
-      <c r="AH27" s="172"/>
-      <c r="AI27" s="172"/>
-      <c r="AJ27" s="172"/>
-      <c r="AK27" s="172"/>
-      <c r="AL27" s="172"/>
-      <c r="AM27" s="172"/>
-      <c r="AN27" s="172"/>
-      <c r="AO27" s="172"/>
-      <c r="AP27" s="172"/>
-      <c r="AQ27" s="173"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="146"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="147"/>
+      <c r="AF27" s="147"/>
+      <c r="AG27" s="147"/>
+      <c r="AH27" s="147"/>
+      <c r="AI27" s="147"/>
+      <c r="AJ27" s="147"/>
+      <c r="AK27" s="147"/>
+      <c r="AL27" s="147"/>
+      <c r="AM27" s="147"/>
+      <c r="AN27" s="147"/>
+      <c r="AO27" s="147"/>
+      <c r="AP27" s="147"/>
+      <c r="AQ27" s="148"/>
       <c r="AR27" s="4" t="s">
         <v>150</v>
       </c>
@@ -9713,7 +9626,7 @@
       <c r="BA27" s="5"/>
       <c r="BB27" s="6"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A28" s="124" t="s">
         <v>117</v>
       </c>
@@ -9777,7 +9690,7 @@
       <c r="BA28" s="127"/>
       <c r="BB28" s="128"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A29" s="124" t="s">
         <v>118</v>
       </c>
@@ -9841,11 +9754,11 @@
       <c r="BA29" s="127"/>
       <c r="BB29" s="128"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A30" s="138" t="s">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A30" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="139"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="140" t="s">
         <v>81</v>
       </c>
@@ -9905,9 +9818,9 @@
       <c r="BA30" s="127"/>
       <c r="BB30" s="128"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A31" s="138"/>
-      <c r="B31" s="139"/>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A31" s="149"/>
+      <c r="B31" s="150"/>
       <c r="C31" s="140"/>
       <c r="D31" s="141"/>
       <c r="E31" s="141"/>
@@ -9961,7 +9874,7 @@
       <c r="BA31" s="127"/>
       <c r="BB31" s="128"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A32" s="124"/>
       <c r="B32" s="125"/>
       <c r="C32" s="126"/>
@@ -10019,25 +9932,61 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C14:L16"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="C17:L18"/>
-    <mergeCell ref="M17:S18"/>
-    <mergeCell ref="T22:AQ23"/>
-    <mergeCell ref="M22:S23"/>
-    <mergeCell ref="C22:L23"/>
-    <mergeCell ref="C25:L27"/>
-    <mergeCell ref="M25:S27"/>
-    <mergeCell ref="T25:AQ27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="AR19:BB19"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:S21"/>
+    <mergeCell ref="T21:AQ21"/>
+    <mergeCell ref="AR21:BB21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:AQ20"/>
+    <mergeCell ref="AR20:BB20"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="T29:AQ29"/>
+    <mergeCell ref="AR29:BB29"/>
+    <mergeCell ref="AR22:BB22"/>
+    <mergeCell ref="AR25:BB25"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="T30:AQ30"/>
+    <mergeCell ref="AR30:BB30"/>
+    <mergeCell ref="T28:AQ28"/>
+    <mergeCell ref="AR28:BB28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="M31:S31"/>
+    <mergeCell ref="T31:AQ31"/>
+    <mergeCell ref="AR31:BB31"/>
+    <mergeCell ref="M32:S32"/>
+    <mergeCell ref="T32:AQ32"/>
+    <mergeCell ref="AR32:BB32"/>
+    <mergeCell ref="T9:AQ9"/>
+    <mergeCell ref="AR9:BB9"/>
+    <mergeCell ref="AR12:BB12"/>
+    <mergeCell ref="AR14:BB14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="T10:AQ10"/>
+    <mergeCell ref="AR10:BB10"/>
+    <mergeCell ref="T12:AQ13"/>
+    <mergeCell ref="T14:AQ16"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="M14:S16"/>
+    <mergeCell ref="AR5:BB5"/>
+    <mergeCell ref="T8:AQ8"/>
+    <mergeCell ref="AR8:BB8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="T6:AQ6"/>
+    <mergeCell ref="AR6:BB6"/>
     <mergeCell ref="T2:AQ2"/>
     <mergeCell ref="AR2:BB2"/>
     <mergeCell ref="A4:B4"/>
@@ -10054,62 +10003,26 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="T5:AQ5"/>
-    <mergeCell ref="AR5:BB5"/>
-    <mergeCell ref="T8:AQ8"/>
-    <mergeCell ref="AR8:BB8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="T6:AQ6"/>
-    <mergeCell ref="AR6:BB6"/>
-    <mergeCell ref="T9:AQ9"/>
-    <mergeCell ref="AR9:BB9"/>
-    <mergeCell ref="AR12:BB12"/>
-    <mergeCell ref="AR14:BB14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="T10:AQ10"/>
-    <mergeCell ref="AR10:BB10"/>
-    <mergeCell ref="T12:AQ13"/>
-    <mergeCell ref="T14:AQ16"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="M14:S16"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="T31:AQ31"/>
-    <mergeCell ref="AR31:BB31"/>
-    <mergeCell ref="M32:S32"/>
-    <mergeCell ref="T32:AQ32"/>
-    <mergeCell ref="AR32:BB32"/>
-    <mergeCell ref="AR22:BB22"/>
-    <mergeCell ref="AR25:BB25"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:AQ30"/>
-    <mergeCell ref="AR30:BB30"/>
-    <mergeCell ref="T28:AQ28"/>
-    <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="T29:AQ29"/>
-    <mergeCell ref="AR29:BB29"/>
+    <mergeCell ref="C25:L27"/>
+    <mergeCell ref="M25:S27"/>
+    <mergeCell ref="T25:AQ27"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:S19"/>
     <mergeCell ref="T19:AQ19"/>
-    <mergeCell ref="AR19:BB19"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:S21"/>
-    <mergeCell ref="T21:AQ21"/>
-    <mergeCell ref="AR21:BB21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:AQ20"/>
-    <mergeCell ref="AR20:BB20"/>
+    <mergeCell ref="C14:L16"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="C17:L18"/>
+    <mergeCell ref="M17:S18"/>
+    <mergeCell ref="T22:AQ23"/>
+    <mergeCell ref="M22:S23"/>
+    <mergeCell ref="C22:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AT1:AT2">
@@ -10124,16 +10037,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63029EA3-83F6-4D40-BBC5-9474A2FBF5DA}">
   <dimension ref="A1:CC18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.69921875" style="7"/>
+    <col min="1" max="16384" width="2.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -10217,109 +10128,109 @@
       <c r="CB1" s="1"/>
       <c r="CC1" s="1"/>
     </row>
-    <row r="2" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="135" t="s">
+    <row r="2" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="137" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="150" t="s">
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="151"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="151"/>
-      <c r="AN2" s="150" t="s">
+      <c r="AF2" s="153"/>
+      <c r="AG2" s="153"/>
+      <c r="AH2" s="153"/>
+      <c r="AI2" s="153"/>
+      <c r="AJ2" s="153"/>
+      <c r="AK2" s="153"/>
+      <c r="AL2" s="153"/>
+      <c r="AM2" s="153"/>
+      <c r="AN2" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="151"/>
-      <c r="AP2" s="151"/>
-      <c r="AQ2" s="151"/>
-      <c r="AR2" s="151"/>
-      <c r="AS2" s="151"/>
-      <c r="AT2" s="151"/>
-      <c r="AU2" s="151"/>
-      <c r="AV2" s="151"/>
-      <c r="AW2" s="151"/>
-      <c r="AX2" s="151"/>
-      <c r="AY2" s="151"/>
-      <c r="AZ2" s="151"/>
-      <c r="BA2" s="151"/>
-      <c r="BB2" s="152"/>
-    </row>
-    <row r="3" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="135" t="s">
+      <c r="AO2" s="153"/>
+      <c r="AP2" s="153"/>
+      <c r="AQ2" s="153"/>
+      <c r="AR2" s="153"/>
+      <c r="AS2" s="153"/>
+      <c r="AT2" s="153"/>
+      <c r="AU2" s="153"/>
+      <c r="AV2" s="153"/>
+      <c r="AW2" s="153"/>
+      <c r="AX2" s="153"/>
+      <c r="AY2" s="153"/>
+      <c r="AZ2" s="153"/>
+      <c r="BA2" s="153"/>
+      <c r="BB2" s="154"/>
+    </row>
+    <row r="3" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="135" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="137" t="s">
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="U3" s="135" t="s">
+      <c r="T3" s="138"/>
+      <c r="U3" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="136"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="138"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
@@ -10345,7 +10256,7 @@
       <c r="BA3" s="11"/>
       <c r="BB3" s="12"/>
     </row>
-    <row r="4" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -10401,7 +10312,7 @@
       <c r="BA4" s="26"/>
       <c r="BB4" s="28"/>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -10420,7 +10331,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="155"/>
+      <c r="S5" s="170"/>
       <c r="T5" s="125"/>
       <c r="U5" s="126"/>
       <c r="V5" s="127"/>
@@ -10457,7 +10368,7 @@
       <c r="BA5" s="127"/>
       <c r="BB5" s="128"/>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -10476,7 +10387,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="155"/>
+      <c r="S6" s="170"/>
       <c r="T6" s="125"/>
       <c r="U6" s="126"/>
       <c r="V6" s="127"/>
@@ -10513,7 +10424,7 @@
       <c r="BA6" s="127"/>
       <c r="BB6" s="128"/>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10532,7 +10443,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="155"/>
+      <c r="S7" s="170"/>
       <c r="T7" s="125"/>
       <c r="U7" s="126"/>
       <c r="V7" s="127"/>
@@ -10569,7 +10480,7 @@
       <c r="BA7" s="127"/>
       <c r="BB7" s="128"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10588,7 +10499,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="155"/>
+      <c r="S8" s="170"/>
       <c r="T8" s="125"/>
       <c r="U8" s="126"/>
       <c r="V8" s="127"/>
@@ -10625,7 +10536,7 @@
       <c r="BA8" s="127"/>
       <c r="BB8" s="128"/>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -10644,7 +10555,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="155"/>
+      <c r="S9" s="170"/>
       <c r="T9" s="125"/>
       <c r="U9" s="126"/>
       <c r="V9" s="127"/>
@@ -10681,7 +10592,7 @@
       <c r="BA9" s="127"/>
       <c r="BB9" s="128"/>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10700,7 +10611,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="155"/>
+      <c r="S10" s="170"/>
       <c r="T10" s="125"/>
       <c r="U10" s="126"/>
       <c r="V10" s="127"/>
@@ -10737,7 +10648,7 @@
       <c r="BA10" s="127"/>
       <c r="BB10" s="128"/>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10756,7 +10667,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="155"/>
+      <c r="S11" s="170"/>
       <c r="T11" s="125"/>
       <c r="U11" s="126"/>
       <c r="V11" s="127"/>
@@ -10793,7 +10704,7 @@
       <c r="BA11" s="127"/>
       <c r="BB11" s="128"/>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10812,7 +10723,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="155"/>
+      <c r="S12" s="170"/>
       <c r="T12" s="125"/>
       <c r="U12" s="126"/>
       <c r="V12" s="127"/>
@@ -10849,7 +10760,7 @@
       <c r="BA12" s="127"/>
       <c r="BB12" s="128"/>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10868,7 +10779,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="155"/>
+      <c r="S13" s="170"/>
       <c r="T13" s="125"/>
       <c r="U13" s="126"/>
       <c r="V13" s="127"/>
@@ -10905,7 +10816,7 @@
       <c r="BA13" s="127"/>
       <c r="BB13" s="128"/>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10924,7 +10835,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="155"/>
+      <c r="S14" s="170"/>
       <c r="T14" s="125"/>
       <c r="U14" s="126"/>
       <c r="V14" s="127"/>
@@ -10961,7 +10872,7 @@
       <c r="BA14" s="127"/>
       <c r="BB14" s="128"/>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10980,7 +10891,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="155"/>
+      <c r="S15" s="170"/>
       <c r="T15" s="125"/>
       <c r="U15" s="126"/>
       <c r="V15" s="127"/>
@@ -11017,7 +10928,7 @@
       <c r="BA15" s="127"/>
       <c r="BB15" s="128"/>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -11036,7 +10947,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="155"/>
+      <c r="S16" s="170"/>
       <c r="T16" s="125"/>
       <c r="U16" s="126"/>
       <c r="V16" s="127"/>
@@ -11073,7 +10984,7 @@
       <c r="BA16" s="127"/>
       <c r="BB16" s="128"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11092,7 +11003,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="155"/>
+      <c r="S17" s="170"/>
       <c r="T17" s="125"/>
       <c r="U17" s="126"/>
       <c r="V17" s="127"/>
@@ -11129,7 +11040,7 @@
       <c r="BA17" s="127"/>
       <c r="BB17" s="128"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11148,7 +11059,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="155"/>
+      <c r="S18" s="170"/>
       <c r="T18" s="125"/>
       <c r="U18" s="126"/>
       <c r="V18" s="127"/>
@@ -11187,58 +11098,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AM10"/>
-    <mergeCell ref="AN10:BB10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BB15"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:AD18"/>
     <mergeCell ref="AE18:AM18"/>
@@ -11251,6 +11110,58 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BB15"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AM10"/>
+    <mergeCell ref="AN10:BB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11266,12 +11177,12 @@
       <selection activeCell="AA7" sqref="AA7:BB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.69921875" style="2"/>
+    <col min="1" max="16384" width="2.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:54" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>90</v>
       </c>
@@ -11329,1350 +11240,1260 @@
       <c r="BA1" s="24"/>
       <c r="BB1" s="24"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="165" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="165" t="s">
+      <c r="B2" s="172"/>
+      <c r="C2" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="165" t="s">
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="165" t="s">
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="165" t="s">
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" s="167"/>
-      <c r="AC2" s="167"/>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="167"/>
-      <c r="AH2" s="167"/>
-      <c r="AI2" s="167"/>
-      <c r="AJ2" s="167"/>
-      <c r="AK2" s="167"/>
-      <c r="AL2" s="167"/>
-      <c r="AM2" s="167"/>
-      <c r="AN2" s="167"/>
-      <c r="AO2" s="167"/>
-      <c r="AP2" s="167"/>
-      <c r="AQ2" s="167"/>
-      <c r="AR2" s="167"/>
-      <c r="AS2" s="167"/>
-      <c r="AT2" s="167"/>
-      <c r="AU2" s="167"/>
-      <c r="AV2" s="167"/>
-      <c r="AW2" s="167"/>
-      <c r="AX2" s="167"/>
-      <c r="AY2" s="167"/>
-      <c r="AZ2" s="167"/>
-      <c r="BA2" s="167"/>
-      <c r="BB2" s="166"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="156">
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="173"/>
+      <c r="AJ2" s="173"/>
+      <c r="AK2" s="173"/>
+      <c r="AL2" s="173"/>
+      <c r="AM2" s="173"/>
+      <c r="AN2" s="173"/>
+      <c r="AO2" s="173"/>
+      <c r="AP2" s="173"/>
+      <c r="AQ2" s="173"/>
+      <c r="AR2" s="173"/>
+      <c r="AS2" s="173"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="173"/>
+      <c r="AV2" s="173"/>
+      <c r="AW2" s="173"/>
+      <c r="AX2" s="173"/>
+      <c r="AY2" s="173"/>
+      <c r="AZ2" s="173"/>
+      <c r="BA2" s="173"/>
+      <c r="BB2" s="172"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="174">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="158">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176">
         <v>45442</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="161" t="s">
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="156" t="s">
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="164"/>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="164"/>
-      <c r="AP3" s="164"/>
-      <c r="AQ3" s="164"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="164"/>
-      <c r="AT3" s="164"/>
-      <c r="AU3" s="164"/>
-      <c r="AV3" s="164"/>
-      <c r="AW3" s="164"/>
-      <c r="AX3" s="164"/>
-      <c r="AY3" s="164"/>
-      <c r="AZ3" s="164"/>
-      <c r="BA3" s="164"/>
-      <c r="BB3" s="157"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="156">
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="182"/>
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="182"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="182"/>
+      <c r="AL3" s="182"/>
+      <c r="AM3" s="182"/>
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="182"/>
+      <c r="AP3" s="182"/>
+      <c r="AQ3" s="182"/>
+      <c r="AR3" s="182"/>
+      <c r="AS3" s="182"/>
+      <c r="AT3" s="182"/>
+      <c r="AU3" s="182"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="182"/>
+      <c r="AX3" s="182"/>
+      <c r="AY3" s="182"/>
+      <c r="AZ3" s="182"/>
+      <c r="BA3" s="182"/>
+      <c r="BB3" s="175"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="174">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="164"/>
-      <c r="W4" s="164"/>
-      <c r="X4" s="164"/>
-      <c r="Y4" s="164"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="164"/>
-      <c r="AC4" s="164"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="164"/>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="164"/>
-      <c r="AI4" s="164"/>
-      <c r="AJ4" s="164"/>
-      <c r="AK4" s="164"/>
-      <c r="AL4" s="164"/>
-      <c r="AM4" s="164"/>
-      <c r="AN4" s="164"/>
-      <c r="AO4" s="164"/>
-      <c r="AP4" s="164"/>
-      <c r="AQ4" s="164"/>
-      <c r="AR4" s="164"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="164"/>
-      <c r="AU4" s="164"/>
-      <c r="AV4" s="164"/>
-      <c r="AW4" s="164"/>
-      <c r="AX4" s="164"/>
-      <c r="AY4" s="164"/>
-      <c r="AZ4" s="164"/>
-      <c r="BA4" s="164"/>
-      <c r="BB4" s="157"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="156">
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="182"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="182"/>
+      <c r="V4" s="182"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="182"/>
+      <c r="Y4" s="182"/>
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="182"/>
+      <c r="AC4" s="182"/>
+      <c r="AD4" s="182"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="182"/>
+      <c r="AG4" s="182"/>
+      <c r="AH4" s="182"/>
+      <c r="AI4" s="182"/>
+      <c r="AJ4" s="182"/>
+      <c r="AK4" s="182"/>
+      <c r="AL4" s="182"/>
+      <c r="AM4" s="182"/>
+      <c r="AN4" s="182"/>
+      <c r="AO4" s="182"/>
+      <c r="AP4" s="182"/>
+      <c r="AQ4" s="182"/>
+      <c r="AR4" s="182"/>
+      <c r="AS4" s="182"/>
+      <c r="AT4" s="182"/>
+      <c r="AU4" s="182"/>
+      <c r="AV4" s="182"/>
+      <c r="AW4" s="182"/>
+      <c r="AX4" s="182"/>
+      <c r="AY4" s="182"/>
+      <c r="AZ4" s="182"/>
+      <c r="BA4" s="182"/>
+      <c r="BB4" s="175"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="174">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="156"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="164"/>
-      <c r="AR5" s="164"/>
-      <c r="AS5" s="164"/>
-      <c r="AT5" s="164"/>
-      <c r="AU5" s="164"/>
-      <c r="AV5" s="164"/>
-      <c r="AW5" s="164"/>
-      <c r="AX5" s="164"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="164"/>
-      <c r="BA5" s="164"/>
-      <c r="BB5" s="157"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="156">
+      <c r="B5" s="175"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="182"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="182"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="182"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="182"/>
+      <c r="AH5" s="182"/>
+      <c r="AI5" s="182"/>
+      <c r="AJ5" s="182"/>
+      <c r="AK5" s="182"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="182"/>
+      <c r="AN5" s="182"/>
+      <c r="AO5" s="182"/>
+      <c r="AP5" s="182"/>
+      <c r="AQ5" s="182"/>
+      <c r="AR5" s="182"/>
+      <c r="AS5" s="182"/>
+      <c r="AT5" s="182"/>
+      <c r="AU5" s="182"/>
+      <c r="AV5" s="182"/>
+      <c r="AW5" s="182"/>
+      <c r="AX5" s="182"/>
+      <c r="AY5" s="182"/>
+      <c r="AZ5" s="182"/>
+      <c r="BA5" s="182"/>
+      <c r="BB5" s="175"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="174">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="157"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="164"/>
-      <c r="AC6" s="164"/>
-      <c r="AD6" s="164"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="164"/>
-      <c r="AG6" s="164"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="164"/>
-      <c r="AJ6" s="164"/>
-      <c r="AK6" s="164"/>
-      <c r="AL6" s="164"/>
-      <c r="AM6" s="164"/>
-      <c r="AN6" s="164"/>
-      <c r="AO6" s="164"/>
-      <c r="AP6" s="164"/>
-      <c r="AQ6" s="164"/>
-      <c r="AR6" s="164"/>
-      <c r="AS6" s="164"/>
-      <c r="AT6" s="164"/>
-      <c r="AU6" s="164"/>
-      <c r="AV6" s="164"/>
-      <c r="AW6" s="164"/>
-      <c r="AX6" s="164"/>
-      <c r="AY6" s="164"/>
-      <c r="AZ6" s="164"/>
-      <c r="BA6" s="164"/>
-      <c r="BB6" s="157"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="156">
+      <c r="B6" s="175"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="182"/>
+      <c r="X6" s="182"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="174"/>
+      <c r="AB6" s="182"/>
+      <c r="AC6" s="182"/>
+      <c r="AD6" s="182"/>
+      <c r="AE6" s="182"/>
+      <c r="AF6" s="182"/>
+      <c r="AG6" s="182"/>
+      <c r="AH6" s="182"/>
+      <c r="AI6" s="182"/>
+      <c r="AJ6" s="182"/>
+      <c r="AK6" s="182"/>
+      <c r="AL6" s="182"/>
+      <c r="AM6" s="182"/>
+      <c r="AN6" s="182"/>
+      <c r="AO6" s="182"/>
+      <c r="AP6" s="182"/>
+      <c r="AQ6" s="182"/>
+      <c r="AR6" s="182"/>
+      <c r="AS6" s="182"/>
+      <c r="AT6" s="182"/>
+      <c r="AU6" s="182"/>
+      <c r="AV6" s="182"/>
+      <c r="AW6" s="182"/>
+      <c r="AX6" s="182"/>
+      <c r="AY6" s="182"/>
+      <c r="AZ6" s="182"/>
+      <c r="BA6" s="182"/>
+      <c r="BB6" s="175"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="174">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="157"/>
-      <c r="AA7" s="156"/>
-      <c r="AB7" s="164"/>
-      <c r="AC7" s="164"/>
-      <c r="AD7" s="164"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="164"/>
-      <c r="AG7" s="164"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="164"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="164"/>
-      <c r="AL7" s="164"/>
-      <c r="AM7" s="164"/>
-      <c r="AN7" s="164"/>
-      <c r="AO7" s="164"/>
-      <c r="AP7" s="164"/>
-      <c r="AQ7" s="164"/>
-      <c r="AR7" s="164"/>
-      <c r="AS7" s="164"/>
-      <c r="AT7" s="164"/>
-      <c r="AU7" s="164"/>
-      <c r="AV7" s="164"/>
-      <c r="AW7" s="164"/>
-      <c r="AX7" s="164"/>
-      <c r="AY7" s="164"/>
-      <c r="AZ7" s="164"/>
-      <c r="BA7" s="164"/>
-      <c r="BB7" s="157"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="156">
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="175"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="182"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="182"/>
+      <c r="AJ7" s="182"/>
+      <c r="AK7" s="182"/>
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
+      <c r="AN7" s="182"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="182"/>
+      <c r="AT7" s="182"/>
+      <c r="AU7" s="182"/>
+      <c r="AV7" s="182"/>
+      <c r="AW7" s="182"/>
+      <c r="AX7" s="182"/>
+      <c r="AY7" s="182"/>
+      <c r="AZ7" s="182"/>
+      <c r="BA7" s="182"/>
+      <c r="BB7" s="175"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="174">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="164"/>
-      <c r="AD8" s="164"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="164"/>
-      <c r="AH8" s="164"/>
-      <c r="AI8" s="164"/>
-      <c r="AJ8" s="164"/>
-      <c r="AK8" s="164"/>
-      <c r="AL8" s="164"/>
-      <c r="AM8" s="164"/>
-      <c r="AN8" s="164"/>
-      <c r="AO8" s="164"/>
-      <c r="AP8" s="164"/>
-      <c r="AQ8" s="164"/>
-      <c r="AR8" s="164"/>
-      <c r="AS8" s="164"/>
-      <c r="AT8" s="164"/>
-      <c r="AU8" s="164"/>
-      <c r="AV8" s="164"/>
-      <c r="AW8" s="164"/>
-      <c r="AX8" s="164"/>
-      <c r="AY8" s="164"/>
-      <c r="AZ8" s="164"/>
-      <c r="BA8" s="164"/>
-      <c r="BB8" s="157"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="156">
+      <c r="B8" s="175"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="182"/>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="182"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="182"/>
+      <c r="AC8" s="182"/>
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="182"/>
+      <c r="AF8" s="182"/>
+      <c r="AG8" s="182"/>
+      <c r="AH8" s="182"/>
+      <c r="AI8" s="182"/>
+      <c r="AJ8" s="182"/>
+      <c r="AK8" s="182"/>
+      <c r="AL8" s="182"/>
+      <c r="AM8" s="182"/>
+      <c r="AN8" s="182"/>
+      <c r="AO8" s="182"/>
+      <c r="AP8" s="182"/>
+      <c r="AQ8" s="182"/>
+      <c r="AR8" s="182"/>
+      <c r="AS8" s="182"/>
+      <c r="AT8" s="182"/>
+      <c r="AU8" s="182"/>
+      <c r="AV8" s="182"/>
+      <c r="AW8" s="182"/>
+      <c r="AX8" s="182"/>
+      <c r="AY8" s="182"/>
+      <c r="AZ8" s="182"/>
+      <c r="BA8" s="182"/>
+      <c r="BB8" s="175"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="174">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="157"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="164"/>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164"/>
-      <c r="AE9" s="164"/>
-      <c r="AF9" s="164"/>
-      <c r="AG9" s="164"/>
-      <c r="AH9" s="164"/>
-      <c r="AI9" s="164"/>
-      <c r="AJ9" s="164"/>
-      <c r="AK9" s="164"/>
-      <c r="AL9" s="164"/>
-      <c r="AM9" s="164"/>
-      <c r="AN9" s="164"/>
-      <c r="AO9" s="164"/>
-      <c r="AP9" s="164"/>
-      <c r="AQ9" s="164"/>
-      <c r="AR9" s="164"/>
-      <c r="AS9" s="164"/>
-      <c r="AT9" s="164"/>
-      <c r="AU9" s="164"/>
-      <c r="AV9" s="164"/>
-      <c r="AW9" s="164"/>
-      <c r="AX9" s="164"/>
-      <c r="AY9" s="164"/>
-      <c r="AZ9" s="164"/>
-      <c r="BA9" s="164"/>
-      <c r="BB9" s="157"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="156">
+      <c r="B9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="182"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="182"/>
+      <c r="S9" s="182"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="182"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="182"/>
+      <c r="AD9" s="182"/>
+      <c r="AE9" s="182"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="182"/>
+      <c r="AH9" s="182"/>
+      <c r="AI9" s="182"/>
+      <c r="AJ9" s="182"/>
+      <c r="AK9" s="182"/>
+      <c r="AL9" s="182"/>
+      <c r="AM9" s="182"/>
+      <c r="AN9" s="182"/>
+      <c r="AO9" s="182"/>
+      <c r="AP9" s="182"/>
+      <c r="AQ9" s="182"/>
+      <c r="AR9" s="182"/>
+      <c r="AS9" s="182"/>
+      <c r="AT9" s="182"/>
+      <c r="AU9" s="182"/>
+      <c r="AV9" s="182"/>
+      <c r="AW9" s="182"/>
+      <c r="AX9" s="182"/>
+      <c r="AY9" s="182"/>
+      <c r="AZ9" s="182"/>
+      <c r="BA9" s="182"/>
+      <c r="BB9" s="175"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="174">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="157"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="164"/>
-      <c r="AH10" s="164"/>
-      <c r="AI10" s="164"/>
-      <c r="AJ10" s="164"/>
-      <c r="AK10" s="164"/>
-      <c r="AL10" s="164"/>
-      <c r="AM10" s="164"/>
-      <c r="AN10" s="164"/>
-      <c r="AO10" s="164"/>
-      <c r="AP10" s="164"/>
-      <c r="AQ10" s="164"/>
-      <c r="AR10" s="164"/>
-      <c r="AS10" s="164"/>
-      <c r="AT10" s="164"/>
-      <c r="AU10" s="164"/>
-      <c r="AV10" s="164"/>
-      <c r="AW10" s="164"/>
-      <c r="AX10" s="164"/>
-      <c r="AY10" s="164"/>
-      <c r="AZ10" s="164"/>
-      <c r="BA10" s="164"/>
-      <c r="BB10" s="157"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="156">
+      <c r="B10" s="175"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="182"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="182"/>
+      <c r="U10" s="182"/>
+      <c r="V10" s="182"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="182"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="182"/>
+      <c r="AC10" s="182"/>
+      <c r="AD10" s="182"/>
+      <c r="AE10" s="182"/>
+      <c r="AF10" s="182"/>
+      <c r="AG10" s="182"/>
+      <c r="AH10" s="182"/>
+      <c r="AI10" s="182"/>
+      <c r="AJ10" s="182"/>
+      <c r="AK10" s="182"/>
+      <c r="AL10" s="182"/>
+      <c r="AM10" s="182"/>
+      <c r="AN10" s="182"/>
+      <c r="AO10" s="182"/>
+      <c r="AP10" s="182"/>
+      <c r="AQ10" s="182"/>
+      <c r="AR10" s="182"/>
+      <c r="AS10" s="182"/>
+      <c r="AT10" s="182"/>
+      <c r="AU10" s="182"/>
+      <c r="AV10" s="182"/>
+      <c r="AW10" s="182"/>
+      <c r="AX10" s="182"/>
+      <c r="AY10" s="182"/>
+      <c r="AZ10" s="182"/>
+      <c r="BA10" s="182"/>
+      <c r="BB10" s="175"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="174">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="157"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="157"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="164"/>
-      <c r="AH11" s="164"/>
-      <c r="AI11" s="164"/>
-      <c r="AJ11" s="164"/>
-      <c r="AK11" s="164"/>
-      <c r="AL11" s="164"/>
-      <c r="AM11" s="164"/>
-      <c r="AN11" s="164"/>
-      <c r="AO11" s="164"/>
-      <c r="AP11" s="164"/>
-      <c r="AQ11" s="164"/>
-      <c r="AR11" s="164"/>
-      <c r="AS11" s="164"/>
-      <c r="AT11" s="164"/>
-      <c r="AU11" s="164"/>
-      <c r="AV11" s="164"/>
-      <c r="AW11" s="164"/>
-      <c r="AX11" s="164"/>
-      <c r="AY11" s="164"/>
-      <c r="AZ11" s="164"/>
-      <c r="BA11" s="164"/>
-      <c r="BB11" s="157"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="156">
+      <c r="B11" s="175"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="182"/>
+      <c r="R11" s="182"/>
+      <c r="S11" s="182"/>
+      <c r="T11" s="182"/>
+      <c r="U11" s="182"/>
+      <c r="V11" s="182"/>
+      <c r="W11" s="182"/>
+      <c r="X11" s="182"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="174"/>
+      <c r="AB11" s="182"/>
+      <c r="AC11" s="182"/>
+      <c r="AD11" s="182"/>
+      <c r="AE11" s="182"/>
+      <c r="AF11" s="182"/>
+      <c r="AG11" s="182"/>
+      <c r="AH11" s="182"/>
+      <c r="AI11" s="182"/>
+      <c r="AJ11" s="182"/>
+      <c r="AK11" s="182"/>
+      <c r="AL11" s="182"/>
+      <c r="AM11" s="182"/>
+      <c r="AN11" s="182"/>
+      <c r="AO11" s="182"/>
+      <c r="AP11" s="182"/>
+      <c r="AQ11" s="182"/>
+      <c r="AR11" s="182"/>
+      <c r="AS11" s="182"/>
+      <c r="AT11" s="182"/>
+      <c r="AU11" s="182"/>
+      <c r="AV11" s="182"/>
+      <c r="AW11" s="182"/>
+      <c r="AX11" s="182"/>
+      <c r="AY11" s="182"/>
+      <c r="AZ11" s="182"/>
+      <c r="BA11" s="182"/>
+      <c r="BB11" s="175"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="174">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="164"/>
-      <c r="AI12" s="164"/>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="164"/>
-      <c r="AL12" s="164"/>
-      <c r="AM12" s="164"/>
-      <c r="AN12" s="164"/>
-      <c r="AO12" s="164"/>
-      <c r="AP12" s="164"/>
-      <c r="AQ12" s="164"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="164"/>
-      <c r="AT12" s="164"/>
-      <c r="AU12" s="164"/>
-      <c r="AV12" s="164"/>
-      <c r="AW12" s="164"/>
-      <c r="AX12" s="164"/>
-      <c r="AY12" s="164"/>
-      <c r="AZ12" s="164"/>
-      <c r="BA12" s="164"/>
-      <c r="BB12" s="157"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="156">
+      <c r="B12" s="175"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="182"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="182"/>
+      <c r="S12" s="182"/>
+      <c r="T12" s="182"/>
+      <c r="U12" s="182"/>
+      <c r="V12" s="182"/>
+      <c r="W12" s="182"/>
+      <c r="X12" s="182"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="174"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="182"/>
+      <c r="AI12" s="182"/>
+      <c r="AJ12" s="182"/>
+      <c r="AK12" s="182"/>
+      <c r="AL12" s="182"/>
+      <c r="AM12" s="182"/>
+      <c r="AN12" s="182"/>
+      <c r="AO12" s="182"/>
+      <c r="AP12" s="182"/>
+      <c r="AQ12" s="182"/>
+      <c r="AR12" s="182"/>
+      <c r="AS12" s="182"/>
+      <c r="AT12" s="182"/>
+      <c r="AU12" s="182"/>
+      <c r="AV12" s="182"/>
+      <c r="AW12" s="182"/>
+      <c r="AX12" s="182"/>
+      <c r="AY12" s="182"/>
+      <c r="AZ12" s="182"/>
+      <c r="BA12" s="182"/>
+      <c r="BB12" s="175"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="174">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="164"/>
-      <c r="AC13" s="164"/>
-      <c r="AD13" s="164"/>
-      <c r="AE13" s="164"/>
-      <c r="AF13" s="164"/>
-      <c r="AG13" s="164"/>
-      <c r="AH13" s="164"/>
-      <c r="AI13" s="164"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="164"/>
-      <c r="AL13" s="164"/>
-      <c r="AM13" s="164"/>
-      <c r="AN13" s="164"/>
-      <c r="AO13" s="164"/>
-      <c r="AP13" s="164"/>
-      <c r="AQ13" s="164"/>
-      <c r="AR13" s="164"/>
-      <c r="AS13" s="164"/>
-      <c r="AT13" s="164"/>
-      <c r="AU13" s="164"/>
-      <c r="AV13" s="164"/>
-      <c r="AW13" s="164"/>
-      <c r="AX13" s="164"/>
-      <c r="AY13" s="164"/>
-      <c r="AZ13" s="164"/>
-      <c r="BA13" s="164"/>
-      <c r="BB13" s="157"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="156">
+      <c r="B13" s="175"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="182"/>
+      <c r="S13" s="182"/>
+      <c r="T13" s="182"/>
+      <c r="U13" s="182"/>
+      <c r="V13" s="182"/>
+      <c r="W13" s="182"/>
+      <c r="X13" s="182"/>
+      <c r="Y13" s="182"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="182"/>
+      <c r="AC13" s="182"/>
+      <c r="AD13" s="182"/>
+      <c r="AE13" s="182"/>
+      <c r="AF13" s="182"/>
+      <c r="AG13" s="182"/>
+      <c r="AH13" s="182"/>
+      <c r="AI13" s="182"/>
+      <c r="AJ13" s="182"/>
+      <c r="AK13" s="182"/>
+      <c r="AL13" s="182"/>
+      <c r="AM13" s="182"/>
+      <c r="AN13" s="182"/>
+      <c r="AO13" s="182"/>
+      <c r="AP13" s="182"/>
+      <c r="AQ13" s="182"/>
+      <c r="AR13" s="182"/>
+      <c r="AS13" s="182"/>
+      <c r="AT13" s="182"/>
+      <c r="AU13" s="182"/>
+      <c r="AV13" s="182"/>
+      <c r="AW13" s="182"/>
+      <c r="AX13" s="182"/>
+      <c r="AY13" s="182"/>
+      <c r="AZ13" s="182"/>
+      <c r="BA13" s="182"/>
+      <c r="BB13" s="175"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="174">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="164"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="164"/>
-      <c r="X14" s="164"/>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="157"/>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="164"/>
-      <c r="AC14" s="164"/>
-      <c r="AD14" s="164"/>
-      <c r="AE14" s="164"/>
-      <c r="AF14" s="164"/>
-      <c r="AG14" s="164"/>
-      <c r="AH14" s="164"/>
-      <c r="AI14" s="164"/>
-      <c r="AJ14" s="164"/>
-      <c r="AK14" s="164"/>
-      <c r="AL14" s="164"/>
-      <c r="AM14" s="164"/>
-      <c r="AN14" s="164"/>
-      <c r="AO14" s="164"/>
-      <c r="AP14" s="164"/>
-      <c r="AQ14" s="164"/>
-      <c r="AR14" s="164"/>
-      <c r="AS14" s="164"/>
-      <c r="AT14" s="164"/>
-      <c r="AU14" s="164"/>
-      <c r="AV14" s="164"/>
-      <c r="AW14" s="164"/>
-      <c r="AX14" s="164"/>
-      <c r="AY14" s="164"/>
-      <c r="AZ14" s="164"/>
-      <c r="BA14" s="164"/>
-      <c r="BB14" s="157"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="156">
+      <c r="B14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="182"/>
+      <c r="S14" s="182"/>
+      <c r="T14" s="182"/>
+      <c r="U14" s="182"/>
+      <c r="V14" s="182"/>
+      <c r="W14" s="182"/>
+      <c r="X14" s="182"/>
+      <c r="Y14" s="182"/>
+      <c r="Z14" s="175"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="182"/>
+      <c r="AC14" s="182"/>
+      <c r="AD14" s="182"/>
+      <c r="AE14" s="182"/>
+      <c r="AF14" s="182"/>
+      <c r="AG14" s="182"/>
+      <c r="AH14" s="182"/>
+      <c r="AI14" s="182"/>
+      <c r="AJ14" s="182"/>
+      <c r="AK14" s="182"/>
+      <c r="AL14" s="182"/>
+      <c r="AM14" s="182"/>
+      <c r="AN14" s="182"/>
+      <c r="AO14" s="182"/>
+      <c r="AP14" s="182"/>
+      <c r="AQ14" s="182"/>
+      <c r="AR14" s="182"/>
+      <c r="AS14" s="182"/>
+      <c r="AT14" s="182"/>
+      <c r="AU14" s="182"/>
+      <c r="AV14" s="182"/>
+      <c r="AW14" s="182"/>
+      <c r="AX14" s="182"/>
+      <c r="AY14" s="182"/>
+      <c r="AZ14" s="182"/>
+      <c r="BA14" s="182"/>
+      <c r="BB14" s="175"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="174">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="164"/>
-      <c r="X15" s="164"/>
-      <c r="Y15" s="164"/>
-      <c r="Z15" s="157"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="164"/>
-      <c r="AC15" s="164"/>
-      <c r="AD15" s="164"/>
-      <c r="AE15" s="164"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="164"/>
-      <c r="AH15" s="164"/>
-      <c r="AI15" s="164"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="164"/>
-      <c r="AL15" s="164"/>
-      <c r="AM15" s="164"/>
-      <c r="AN15" s="164"/>
-      <c r="AO15" s="164"/>
-      <c r="AP15" s="164"/>
-      <c r="AQ15" s="164"/>
-      <c r="AR15" s="164"/>
-      <c r="AS15" s="164"/>
-      <c r="AT15" s="164"/>
-      <c r="AU15" s="164"/>
-      <c r="AV15" s="164"/>
-      <c r="AW15" s="164"/>
-      <c r="AX15" s="164"/>
-      <c r="AY15" s="164"/>
-      <c r="AZ15" s="164"/>
-      <c r="BA15" s="164"/>
-      <c r="BB15" s="157"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="156">
+      <c r="B15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="182"/>
+      <c r="R15" s="182"/>
+      <c r="S15" s="182"/>
+      <c r="T15" s="182"/>
+      <c r="U15" s="182"/>
+      <c r="V15" s="182"/>
+      <c r="W15" s="182"/>
+      <c r="X15" s="182"/>
+      <c r="Y15" s="182"/>
+      <c r="Z15" s="175"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="182"/>
+      <c r="AC15" s="182"/>
+      <c r="AD15" s="182"/>
+      <c r="AE15" s="182"/>
+      <c r="AF15" s="182"/>
+      <c r="AG15" s="182"/>
+      <c r="AH15" s="182"/>
+      <c r="AI15" s="182"/>
+      <c r="AJ15" s="182"/>
+      <c r="AK15" s="182"/>
+      <c r="AL15" s="182"/>
+      <c r="AM15" s="182"/>
+      <c r="AN15" s="182"/>
+      <c r="AO15" s="182"/>
+      <c r="AP15" s="182"/>
+      <c r="AQ15" s="182"/>
+      <c r="AR15" s="182"/>
+      <c r="AS15" s="182"/>
+      <c r="AT15" s="182"/>
+      <c r="AU15" s="182"/>
+      <c r="AV15" s="182"/>
+      <c r="AW15" s="182"/>
+      <c r="AX15" s="182"/>
+      <c r="AY15" s="182"/>
+      <c r="AZ15" s="182"/>
+      <c r="BA15" s="182"/>
+      <c r="BB15" s="175"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="174">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="157"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="164"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164"/>
-      <c r="AE16" s="164"/>
-      <c r="AF16" s="164"/>
-      <c r="AG16" s="164"/>
-      <c r="AH16" s="164"/>
-      <c r="AI16" s="164"/>
-      <c r="AJ16" s="164"/>
-      <c r="AK16" s="164"/>
-      <c r="AL16" s="164"/>
-      <c r="AM16" s="164"/>
-      <c r="AN16" s="164"/>
-      <c r="AO16" s="164"/>
-      <c r="AP16" s="164"/>
-      <c r="AQ16" s="164"/>
-      <c r="AR16" s="164"/>
-      <c r="AS16" s="164"/>
-      <c r="AT16" s="164"/>
-      <c r="AU16" s="164"/>
-      <c r="AV16" s="164"/>
-      <c r="AW16" s="164"/>
-      <c r="AX16" s="164"/>
-      <c r="AY16" s="164"/>
-      <c r="AZ16" s="164"/>
-      <c r="BA16" s="164"/>
-      <c r="BB16" s="157"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="156">
+      <c r="B16" s="175"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="182"/>
+      <c r="R16" s="182"/>
+      <c r="S16" s="182"/>
+      <c r="T16" s="182"/>
+      <c r="U16" s="182"/>
+      <c r="V16" s="182"/>
+      <c r="W16" s="182"/>
+      <c r="X16" s="182"/>
+      <c r="Y16" s="182"/>
+      <c r="Z16" s="175"/>
+      <c r="AA16" s="174"/>
+      <c r="AB16" s="182"/>
+      <c r="AC16" s="182"/>
+      <c r="AD16" s="182"/>
+      <c r="AE16" s="182"/>
+      <c r="AF16" s="182"/>
+      <c r="AG16" s="182"/>
+      <c r="AH16" s="182"/>
+      <c r="AI16" s="182"/>
+      <c r="AJ16" s="182"/>
+      <c r="AK16" s="182"/>
+      <c r="AL16" s="182"/>
+      <c r="AM16" s="182"/>
+      <c r="AN16" s="182"/>
+      <c r="AO16" s="182"/>
+      <c r="AP16" s="182"/>
+      <c r="AQ16" s="182"/>
+      <c r="AR16" s="182"/>
+      <c r="AS16" s="182"/>
+      <c r="AT16" s="182"/>
+      <c r="AU16" s="182"/>
+      <c r="AV16" s="182"/>
+      <c r="AW16" s="182"/>
+      <c r="AX16" s="182"/>
+      <c r="AY16" s="182"/>
+      <c r="AZ16" s="182"/>
+      <c r="BA16" s="182"/>
+      <c r="BB16" s="175"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="174">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="164"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="164"/>
-      <c r="AD17" s="164"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="164"/>
-      <c r="AG17" s="164"/>
-      <c r="AH17" s="164"/>
-      <c r="AI17" s="164"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="164"/>
-      <c r="AL17" s="164"/>
-      <c r="AM17" s="164"/>
-      <c r="AN17" s="164"/>
-      <c r="AO17" s="164"/>
-      <c r="AP17" s="164"/>
-      <c r="AQ17" s="164"/>
-      <c r="AR17" s="164"/>
-      <c r="AS17" s="164"/>
-      <c r="AT17" s="164"/>
-      <c r="AU17" s="164"/>
-      <c r="AV17" s="164"/>
-      <c r="AW17" s="164"/>
-      <c r="AX17" s="164"/>
-      <c r="AY17" s="164"/>
-      <c r="AZ17" s="164"/>
-      <c r="BA17" s="164"/>
-      <c r="BB17" s="157"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="156">
+      <c r="B17" s="175"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="182"/>
+      <c r="Q17" s="182"/>
+      <c r="R17" s="182"/>
+      <c r="S17" s="182"/>
+      <c r="T17" s="182"/>
+      <c r="U17" s="182"/>
+      <c r="V17" s="182"/>
+      <c r="W17" s="182"/>
+      <c r="X17" s="182"/>
+      <c r="Y17" s="182"/>
+      <c r="Z17" s="175"/>
+      <c r="AA17" s="174"/>
+      <c r="AB17" s="182"/>
+      <c r="AC17" s="182"/>
+      <c r="AD17" s="182"/>
+      <c r="AE17" s="182"/>
+      <c r="AF17" s="182"/>
+      <c r="AG17" s="182"/>
+      <c r="AH17" s="182"/>
+      <c r="AI17" s="182"/>
+      <c r="AJ17" s="182"/>
+      <c r="AK17" s="182"/>
+      <c r="AL17" s="182"/>
+      <c r="AM17" s="182"/>
+      <c r="AN17" s="182"/>
+      <c r="AO17" s="182"/>
+      <c r="AP17" s="182"/>
+      <c r="AQ17" s="182"/>
+      <c r="AR17" s="182"/>
+      <c r="AS17" s="182"/>
+      <c r="AT17" s="182"/>
+      <c r="AU17" s="182"/>
+      <c r="AV17" s="182"/>
+      <c r="AW17" s="182"/>
+      <c r="AX17" s="182"/>
+      <c r="AY17" s="182"/>
+      <c r="AZ17" s="182"/>
+      <c r="BA17" s="182"/>
+      <c r="BB17" s="175"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="174">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="164"/>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="164"/>
-      <c r="AE18" s="164"/>
-      <c r="AF18" s="164"/>
-      <c r="AG18" s="164"/>
-      <c r="AH18" s="164"/>
-      <c r="AI18" s="164"/>
-      <c r="AJ18" s="164"/>
-      <c r="AK18" s="164"/>
-      <c r="AL18" s="164"/>
-      <c r="AM18" s="164"/>
-      <c r="AN18" s="164"/>
-      <c r="AO18" s="164"/>
-      <c r="AP18" s="164"/>
-      <c r="AQ18" s="164"/>
-      <c r="AR18" s="164"/>
-      <c r="AS18" s="164"/>
-      <c r="AT18" s="164"/>
-      <c r="AU18" s="164"/>
-      <c r="AV18" s="164"/>
-      <c r="AW18" s="164"/>
-      <c r="AX18" s="164"/>
-      <c r="AY18" s="164"/>
-      <c r="AZ18" s="164"/>
-      <c r="BA18" s="164"/>
-      <c r="BB18" s="157"/>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="156">
+      <c r="B18" s="175"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="182"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="182"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="182"/>
+      <c r="V18" s="182"/>
+      <c r="W18" s="182"/>
+      <c r="X18" s="182"/>
+      <c r="Y18" s="182"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="182"/>
+      <c r="AC18" s="182"/>
+      <c r="AD18" s="182"/>
+      <c r="AE18" s="182"/>
+      <c r="AF18" s="182"/>
+      <c r="AG18" s="182"/>
+      <c r="AH18" s="182"/>
+      <c r="AI18" s="182"/>
+      <c r="AJ18" s="182"/>
+      <c r="AK18" s="182"/>
+      <c r="AL18" s="182"/>
+      <c r="AM18" s="182"/>
+      <c r="AN18" s="182"/>
+      <c r="AO18" s="182"/>
+      <c r="AP18" s="182"/>
+      <c r="AQ18" s="182"/>
+      <c r="AR18" s="182"/>
+      <c r="AS18" s="182"/>
+      <c r="AT18" s="182"/>
+      <c r="AU18" s="182"/>
+      <c r="AV18" s="182"/>
+      <c r="AW18" s="182"/>
+      <c r="AX18" s="182"/>
+      <c r="AY18" s="182"/>
+      <c r="AZ18" s="182"/>
+      <c r="BA18" s="182"/>
+      <c r="BB18" s="175"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="174">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="164"/>
-      <c r="U19" s="164"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="164"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="164"/>
-      <c r="Z19" s="157"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="164"/>
-      <c r="AC19" s="164"/>
-      <c r="AD19" s="164"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="164"/>
-      <c r="AG19" s="164"/>
-      <c r="AH19" s="164"/>
-      <c r="AI19" s="164"/>
-      <c r="AJ19" s="164"/>
-      <c r="AK19" s="164"/>
-      <c r="AL19" s="164"/>
-      <c r="AM19" s="164"/>
-      <c r="AN19" s="164"/>
-      <c r="AO19" s="164"/>
-      <c r="AP19" s="164"/>
-      <c r="AQ19" s="164"/>
-      <c r="AR19" s="164"/>
-      <c r="AS19" s="164"/>
-      <c r="AT19" s="164"/>
-      <c r="AU19" s="164"/>
-      <c r="AV19" s="164"/>
-      <c r="AW19" s="164"/>
-      <c r="AX19" s="164"/>
-      <c r="AY19" s="164"/>
-      <c r="AZ19" s="164"/>
-      <c r="BA19" s="164"/>
-      <c r="BB19" s="157"/>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="156">
+      <c r="B19" s="175"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="182"/>
+      <c r="S19" s="182"/>
+      <c r="T19" s="182"/>
+      <c r="U19" s="182"/>
+      <c r="V19" s="182"/>
+      <c r="W19" s="182"/>
+      <c r="X19" s="182"/>
+      <c r="Y19" s="182"/>
+      <c r="Z19" s="175"/>
+      <c r="AA19" s="174"/>
+      <c r="AB19" s="182"/>
+      <c r="AC19" s="182"/>
+      <c r="AD19" s="182"/>
+      <c r="AE19" s="182"/>
+      <c r="AF19" s="182"/>
+      <c r="AG19" s="182"/>
+      <c r="AH19" s="182"/>
+      <c r="AI19" s="182"/>
+      <c r="AJ19" s="182"/>
+      <c r="AK19" s="182"/>
+      <c r="AL19" s="182"/>
+      <c r="AM19" s="182"/>
+      <c r="AN19" s="182"/>
+      <c r="AO19" s="182"/>
+      <c r="AP19" s="182"/>
+      <c r="AQ19" s="182"/>
+      <c r="AR19" s="182"/>
+      <c r="AS19" s="182"/>
+      <c r="AT19" s="182"/>
+      <c r="AU19" s="182"/>
+      <c r="AV19" s="182"/>
+      <c r="AW19" s="182"/>
+      <c r="AX19" s="182"/>
+      <c r="AY19" s="182"/>
+      <c r="AZ19" s="182"/>
+      <c r="BA19" s="182"/>
+      <c r="BB19" s="175"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" s="174">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="164"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="164"/>
-      <c r="W20" s="164"/>
-      <c r="X20" s="164"/>
-      <c r="Y20" s="164"/>
-      <c r="Z20" s="157"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="164"/>
-      <c r="AC20" s="164"/>
-      <c r="AD20" s="164"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="164"/>
-      <c r="AG20" s="164"/>
-      <c r="AH20" s="164"/>
-      <c r="AI20" s="164"/>
-      <c r="AJ20" s="164"/>
-      <c r="AK20" s="164"/>
-      <c r="AL20" s="164"/>
-      <c r="AM20" s="164"/>
-      <c r="AN20" s="164"/>
-      <c r="AO20" s="164"/>
-      <c r="AP20" s="164"/>
-      <c r="AQ20" s="164"/>
-      <c r="AR20" s="164"/>
-      <c r="AS20" s="164"/>
-      <c r="AT20" s="164"/>
-      <c r="AU20" s="164"/>
-      <c r="AV20" s="164"/>
-      <c r="AW20" s="164"/>
-      <c r="AX20" s="164"/>
-      <c r="AY20" s="164"/>
-      <c r="AZ20" s="164"/>
-      <c r="BA20" s="164"/>
-      <c r="BB20" s="157"/>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="156">
+      <c r="B20" s="175"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="182"/>
+      <c r="S20" s="182"/>
+      <c r="T20" s="182"/>
+      <c r="U20" s="182"/>
+      <c r="V20" s="182"/>
+      <c r="W20" s="182"/>
+      <c r="X20" s="182"/>
+      <c r="Y20" s="182"/>
+      <c r="Z20" s="175"/>
+      <c r="AA20" s="174"/>
+      <c r="AB20" s="182"/>
+      <c r="AC20" s="182"/>
+      <c r="AD20" s="182"/>
+      <c r="AE20" s="182"/>
+      <c r="AF20" s="182"/>
+      <c r="AG20" s="182"/>
+      <c r="AH20" s="182"/>
+      <c r="AI20" s="182"/>
+      <c r="AJ20" s="182"/>
+      <c r="AK20" s="182"/>
+      <c r="AL20" s="182"/>
+      <c r="AM20" s="182"/>
+      <c r="AN20" s="182"/>
+      <c r="AO20" s="182"/>
+      <c r="AP20" s="182"/>
+      <c r="AQ20" s="182"/>
+      <c r="AR20" s="182"/>
+      <c r="AS20" s="182"/>
+      <c r="AT20" s="182"/>
+      <c r="AU20" s="182"/>
+      <c r="AV20" s="182"/>
+      <c r="AW20" s="182"/>
+      <c r="AX20" s="182"/>
+      <c r="AY20" s="182"/>
+      <c r="AZ20" s="182"/>
+      <c r="BA20" s="182"/>
+      <c r="BB20" s="175"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="174">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
-      <c r="U21" s="164"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="164"/>
-      <c r="Z21" s="157"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="164"/>
-      <c r="AD21" s="164"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="164"/>
-      <c r="AH21" s="164"/>
-      <c r="AI21" s="164"/>
-      <c r="AJ21" s="164"/>
-      <c r="AK21" s="164"/>
-      <c r="AL21" s="164"/>
-      <c r="AM21" s="164"/>
-      <c r="AN21" s="164"/>
-      <c r="AO21" s="164"/>
-      <c r="AP21" s="164"/>
-      <c r="AQ21" s="164"/>
-      <c r="AR21" s="164"/>
-      <c r="AS21" s="164"/>
-      <c r="AT21" s="164"/>
-      <c r="AU21" s="164"/>
-      <c r="AV21" s="164"/>
-      <c r="AW21" s="164"/>
-      <c r="AX21" s="164"/>
-      <c r="AY21" s="164"/>
-      <c r="AZ21" s="164"/>
-      <c r="BA21" s="164"/>
-      <c r="BB21" s="157"/>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="156">
+      <c r="B21" s="175"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="182"/>
+      <c r="T21" s="182"/>
+      <c r="U21" s="182"/>
+      <c r="V21" s="182"/>
+      <c r="W21" s="182"/>
+      <c r="X21" s="182"/>
+      <c r="Y21" s="182"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="174"/>
+      <c r="AB21" s="182"/>
+      <c r="AC21" s="182"/>
+      <c r="AD21" s="182"/>
+      <c r="AE21" s="182"/>
+      <c r="AF21" s="182"/>
+      <c r="AG21" s="182"/>
+      <c r="AH21" s="182"/>
+      <c r="AI21" s="182"/>
+      <c r="AJ21" s="182"/>
+      <c r="AK21" s="182"/>
+      <c r="AL21" s="182"/>
+      <c r="AM21" s="182"/>
+      <c r="AN21" s="182"/>
+      <c r="AO21" s="182"/>
+      <c r="AP21" s="182"/>
+      <c r="AQ21" s="182"/>
+      <c r="AR21" s="182"/>
+      <c r="AS21" s="182"/>
+      <c r="AT21" s="182"/>
+      <c r="AU21" s="182"/>
+      <c r="AV21" s="182"/>
+      <c r="AW21" s="182"/>
+      <c r="AX21" s="182"/>
+      <c r="AY21" s="182"/>
+      <c r="AZ21" s="182"/>
+      <c r="BA21" s="182"/>
+      <c r="BB21" s="175"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="174">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="164"/>
-      <c r="Z22" s="157"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="164"/>
-      <c r="AD22" s="164"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="164"/>
-      <c r="AG22" s="164"/>
-      <c r="AH22" s="164"/>
-      <c r="AI22" s="164"/>
-      <c r="AJ22" s="164"/>
-      <c r="AK22" s="164"/>
-      <c r="AL22" s="164"/>
-      <c r="AM22" s="164"/>
-      <c r="AN22" s="164"/>
-      <c r="AO22" s="164"/>
-      <c r="AP22" s="164"/>
-      <c r="AQ22" s="164"/>
-      <c r="AR22" s="164"/>
-      <c r="AS22" s="164"/>
-      <c r="AT22" s="164"/>
-      <c r="AU22" s="164"/>
-      <c r="AV22" s="164"/>
-      <c r="AW22" s="164"/>
-      <c r="AX22" s="164"/>
-      <c r="AY22" s="164"/>
-      <c r="AZ22" s="164"/>
-      <c r="BA22" s="164"/>
-      <c r="BB22" s="157"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="182"/>
+      <c r="S22" s="182"/>
+      <c r="T22" s="182"/>
+      <c r="U22" s="182"/>
+      <c r="V22" s="182"/>
+      <c r="W22" s="182"/>
+      <c r="X22" s="182"/>
+      <c r="Y22" s="182"/>
+      <c r="Z22" s="175"/>
+      <c r="AA22" s="174"/>
+      <c r="AB22" s="182"/>
+      <c r="AC22" s="182"/>
+      <c r="AD22" s="182"/>
+      <c r="AE22" s="182"/>
+      <c r="AF22" s="182"/>
+      <c r="AG22" s="182"/>
+      <c r="AH22" s="182"/>
+      <c r="AI22" s="182"/>
+      <c r="AJ22" s="182"/>
+      <c r="AK22" s="182"/>
+      <c r="AL22" s="182"/>
+      <c r="AM22" s="182"/>
+      <c r="AN22" s="182"/>
+      <c r="AO22" s="182"/>
+      <c r="AP22" s="182"/>
+      <c r="AQ22" s="182"/>
+      <c r="AR22" s="182"/>
+      <c r="AS22" s="182"/>
+      <c r="AT22" s="182"/>
+      <c r="AU22" s="182"/>
+      <c r="AV22" s="182"/>
+      <c r="AW22" s="182"/>
+      <c r="AX22" s="182"/>
+      <c r="AY22" s="182"/>
+      <c r="AZ22" s="182"/>
+      <c r="BA22" s="182"/>
+      <c r="BB22" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -12688,6 +12509,96 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12696,6 +12607,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
@@ -12704,15 +12624,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12911,6 +12822,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFC5B2C-A899-4023-AE21-9EAB1300A355}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -12922,18 +12841,26 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC6226D0-DB63-4106-8E81-1F23F70C8727}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC6226D0-DB63-4106-8E81-1F23F70C8727}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（R100）申請一覧画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（R100）申請一覧画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubSample\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6402EBB-3979-4F9C-B9A5-538E5513609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582CF8E-A5DD-422C-B5E3-D38D0091D5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FFFAB72E-45D2-41BB-8725-BDB5F683A970}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="151">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -687,22 +687,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>承認済みの履歴は必要</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>承認待ち</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
@@ -1163,24 +1147,40 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・対象日時</t>
-    <rPh sb="3" eb="5">
-      <t>ニチジ</t>
-    </rPh>
+    <t>・対象打刻修正申請ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・対象日時</t>
+    <t>・対象月末申請ID</t>
+    <rPh sb="3" eb="7">
+      <t>ゲツマツシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・対象月末申請ID</t>
     <rPh sb="1" eb="3">
       <t>タイショウ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ニチジ</t>
+      <t>ゲツマツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・対象打刻修正申請ID</t>
+    <t>・対象打刻申請ID</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1191,7 +1191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1310,13 @@
       <color theme="4"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1569,7 +1576,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1726,306 +1733,309 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2071,26 +2081,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
@@ -2113,6 +2105,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2712,13 +2734,13 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>107579</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>112544</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>64477</xdr:rowOff>
+      <xdr:rowOff>91371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2733,7 +2755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5468473" y="2689413"/>
+          <a:off x="5468473" y="2716307"/>
           <a:ext cx="417342" cy="163088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4080,14 +4102,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32BC060-26D0-4541-967C-77B6A4F31875}">
   <dimension ref="A1:BY32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20:AE20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="16" max="16" width="2.75" customWidth="1"/>
+    <col min="16" max="16" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:77" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4168,59 +4192,59 @@
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
     </row>
-    <row r="2" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="113" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="91" t="s">
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="93"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="82"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
@@ -4257,57 +4281,57 @@
       <c r="BX2" s="2"/>
       <c r="BY2" s="2"/>
     </row>
-    <row r="3" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+    <row r="3" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="94" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="95">
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="84">
         <v>45442</v>
       </c>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="97"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="86"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
@@ -4344,53 +4368,53 @@
       <c r="BX3" s="2"/>
       <c r="BY3" s="2"/>
     </row>
-    <row r="4" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+    <row r="4" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="102"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="91"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
@@ -4427,53 +4451,53 @@
       <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
     </row>
-    <row r="5" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
+    <row r="5" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="100"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="89"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
@@ -4510,7 +4534,7 @@
       <c r="BX5" s="2"/>
       <c r="BY5" s="2"/>
     </row>
-    <row r="6" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
@@ -4579,7 +4603,7 @@
       <c r="BQ6" s="49"/>
       <c r="BR6" s="49"/>
     </row>
-    <row r="7" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19"/>
       <c r="AP7" s="20"/>
       <c r="AW7" s="1"/>
@@ -4598,7 +4622,7 @@
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
     </row>
-    <row r="8" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
@@ -4657,7 +4681,7 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
     </row>
-    <row r="9" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="B9" s="35"/>
       <c r="C9" s="36"/>
@@ -4716,7 +4740,7 @@
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
     </row>
-    <row r="10" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
@@ -4746,7 +4770,7 @@
       <c r="Y10" s="36"/>
       <c r="Z10" s="36"/>
       <c r="AA10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB10" s="36"/>
       <c r="AC10" s="36"/>
@@ -4779,41 +4803,41 @@
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="B11" s="35"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="116" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="120" t="s">
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="116" t="s">
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="118"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="64"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="36"/>
       <c r="AC11" s="36"/>
@@ -4831,46 +4855,46 @@
       <c r="AO11" s="37"/>
       <c r="AP11" s="20"/>
     </row>
-    <row r="12" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="35"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="90" t="s">
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="104" t="s">
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="105"/>
-      <c r="Z12" s="105"/>
-      <c r="AA12" s="75" t="s">
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="76"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="95"/>
       <c r="AD12" s="44"/>
       <c r="AE12" s="39"/>
       <c r="AF12" s="36"/>
@@ -4885,52 +4909,52 @@
       <c r="AO12" s="37"/>
       <c r="AP12" s="20"/>
     </row>
-    <row r="13" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="B13" s="35"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="81" t="s">
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="123" t="s">
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="81" t="s">
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="58" t="s">
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58" t="s">
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AE13" s="103"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
       <c r="AH13" s="36"/>
       <c r="AJ13" s="36"/>
       <c r="AK13" s="36"/>
@@ -4940,50 +4964,50 @@
       <c r="AO13" s="37"/>
       <c r="AP13" s="20"/>
     </row>
-    <row r="14" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="88" t="s">
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
       <c r="AC14" s="36"/>
-      <c r="AD14" s="58" t="s">
+      <c r="AD14" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
       <c r="AH14" s="36"/>
       <c r="AI14" s="36"/>
       <c r="AJ14" s="36"/>
@@ -4994,16 +5018,16 @@
       <c r="AO14" s="37"/>
       <c r="AP14" s="20"/>
     </row>
-    <row r="15" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
+      <c r="D15" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -5013,7 +5037,7 @@
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
@@ -5021,12 +5045,12 @@
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
-      <c r="W15" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
+      <c r="W15" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
       <c r="AA15" s="36"/>
       <c r="AB15" s="36"/>
       <c r="AC15" s="36"/>
@@ -5044,7 +5068,7 @@
       <c r="AO15" s="37"/>
       <c r="AP15" s="20"/>
     </row>
-    <row r="16" spans="1:77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:77" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -5088,7 +5112,7 @@
       <c r="AO16" s="37"/>
       <c r="AP16" s="20"/>
     </row>
-    <row r="17" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -5118,7 +5142,7 @@
       <c r="Y17" s="36"/>
       <c r="Z17" s="36"/>
       <c r="AA17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB17" s="36"/>
       <c r="AC17" s="36"/>
@@ -5136,41 +5160,41 @@
       <c r="AO17" s="37"/>
       <c r="AP17" s="20"/>
     </row>
-    <row r="18" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88" t="s">
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="89" t="s">
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="88" t="s">
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
       <c r="AA18" s="36"/>
       <c r="AB18" s="36"/>
       <c r="AC18" s="36"/>
@@ -5188,48 +5212,48 @@
       <c r="AO18" s="37"/>
       <c r="AP18" s="20"/>
     </row>
-    <row r="19" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="84" t="s">
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="87" t="s">
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="68" t="s">
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
       <c r="AF19" s="36"/>
       <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
@@ -5241,102 +5265,102 @@
       <c r="AO19" s="37"/>
       <c r="AP19" s="20"/>
     </row>
-    <row r="20" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="81" t="s">
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="84" t="s">
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="87" t="s">
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="68" t="s">
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="96"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="36"/>
       <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
-      <c r="AK20" s="80"/>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="80"/>
+      <c r="AK20" s="106"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="106"/>
       <c r="AN20" s="36"/>
       <c r="AO20" s="37"/>
       <c r="AP20" s="20"/>
     </row>
-    <row r="21" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="69" t="s">
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="72" t="s">
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="68" t="s">
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="96"/>
       <c r="AF21" s="36"/>
       <c r="AG21" s="36"/>
       <c r="AH21" s="36"/>
@@ -5349,48 +5373,48 @@
       <c r="AO21" s="37"/>
       <c r="AP21" s="20"/>
     </row>
-    <row r="22" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="69" t="s">
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="72" t="s">
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="69" t="s">
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="68" t="s">
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
       <c r="AF22" s="36"/>
       <c r="AG22" s="36"/>
       <c r="AH22" s="36"/>
@@ -5403,48 +5427,48 @@
       <c r="AO22" s="37"/>
       <c r="AP22" s="20"/>
     </row>
-    <row r="23" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="69" t="s">
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="72" t="s">
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="69" t="s">
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="68" t="s">
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
       <c r="AF23" s="36"/>
       <c r="AG23" s="36"/>
       <c r="AH23" s="36"/>
@@ -5456,52 +5480,49 @@
       <c r="AN23" s="36"/>
       <c r="AO23" s="37"/>
       <c r="AP23" s="20"/>
-      <c r="AR23" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="24" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="55" t="s">
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58" t="s">
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
       <c r="AF24" s="36"/>
       <c r="AG24" s="36"/>
       <c r="AH24" s="36"/>
@@ -5514,48 +5535,48 @@
       <c r="AO24" s="37"/>
       <c r="AP24" s="20"/>
     </row>
-    <row r="25" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63" t="s">
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="55" t="s">
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58" t="s">
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="67"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="121"/>
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="121"/>
       <c r="AF25" s="36"/>
       <c r="AG25" s="36"/>
       <c r="AH25" s="36"/>
@@ -5568,16 +5589,16 @@
       <c r="AO25" s="37"/>
       <c r="AP25" s="20"/>
     </row>
-    <row r="26" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="D26" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -5587,7 +5608,7 @@
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
       <c r="P26" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="36"/>
       <c r="R26" s="36"/>
@@ -5599,12 +5620,12 @@
       <c r="Y26" s="36"/>
       <c r="Z26" s="36"/>
       <c r="AA26" s="36"/>
-      <c r="AB26" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
+      <c r="AB26" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
       <c r="AF26" s="36"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
@@ -5617,7 +5638,7 @@
       <c r="AO26" s="37"/>
       <c r="AP26" s="20"/>
     </row>
-    <row r="27" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
@@ -5661,7 +5682,7 @@
       <c r="AO27" s="37"/>
       <c r="AP27" s="20"/>
     </row>
-    <row r="28" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
@@ -5705,14 +5726,14 @@
       <c r="AO28" s="37"/>
       <c r="AP28" s="20"/>
     </row>
-    <row r="29" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="19"/>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="76"/>
+      <c r="E29" s="95"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
@@ -5750,7 +5771,7 @@
       <c r="AO29" s="37"/>
       <c r="AP29" s="20"/>
     </row>
-    <row r="30" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="19"/>
       <c r="B30" s="38"/>
       <c r="C30" s="39"/>
@@ -5794,7 +5815,7 @@
       <c r="AO30" s="40"/>
       <c r="AP30" s="20"/>
     </row>
-    <row r="31" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -5838,9 +5859,67 @@
       <c r="AO31" s="22"/>
       <c r="AP31" s="23"/>
     </row>
-    <row r="32" spans="1:44" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:42" ht="19.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AI3:AP3"/>
+    <mergeCell ref="I5:AP5"/>
+    <mergeCell ref="I2:AC2"/>
+    <mergeCell ref="I3:AC3"/>
+    <mergeCell ref="I4:AP4"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AA12:AC12"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="W15:Z15"/>
     <mergeCell ref="A2:D5"/>
@@ -5857,64 +5936,6 @@
     <mergeCell ref="M14:Q14"/>
     <mergeCell ref="R11:V11"/>
     <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AI3:AP3"/>
-    <mergeCell ref="I5:AP5"/>
-    <mergeCell ref="I2:AC2"/>
-    <mergeCell ref="I3:AC3"/>
-    <mergeCell ref="I4:AP4"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA21:AE21"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AA25:AE25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5928,18 +5949,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="2.75" style="7"/>
-    <col min="3" max="3" width="5.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="2.75" style="7"/>
-    <col min="30" max="30" width="5.75" style="7" customWidth="1"/>
-    <col min="31" max="32" width="2.75" style="7"/>
+    <col min="1" max="2" width="2.69921875" style="7"/>
+    <col min="3" max="3" width="5.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="29" width="2.69921875" style="7"/>
+    <col min="30" max="30" width="5.69921875" style="7" customWidth="1"/>
+    <col min="31" max="32" width="2.69921875" style="7"/>
     <col min="33" max="33" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="2.75" style="7"/>
+    <col min="34" max="16384" width="2.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -6020,79 +6041,79 @@
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
     </row>
-    <row r="2" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="137" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="137" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="137" t="s">
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="138"/>
-      <c r="W2" s="137" t="s">
+      <c r="V2" s="136"/>
+      <c r="W2" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="137" t="s">
+      <c r="X2" s="136"/>
+      <c r="Y2" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="137" t="s">
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="139" t="s">
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="139"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="139"/>
-      <c r="AV2" s="139"/>
-      <c r="AW2" s="139"/>
-      <c r="AX2" s="139"/>
-      <c r="AY2" s="139"/>
-      <c r="AZ2" s="139"/>
-      <c r="BA2" s="139"/>
-      <c r="BB2" s="138"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="137"/>
+      <c r="AO2" s="137"/>
+      <c r="AP2" s="137"/>
+      <c r="AQ2" s="137"/>
+      <c r="AR2" s="137"/>
+      <c r="AS2" s="137"/>
+      <c r="AT2" s="137"/>
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="137"/>
+      <c r="AW2" s="137"/>
+      <c r="AX2" s="137"/>
+      <c r="AY2" s="137"/>
+      <c r="AZ2" s="137"/>
+      <c r="BA2" s="137"/>
+      <c r="BB2" s="136"/>
     </row>
-    <row r="3" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="124" t="s">
         <v>43</v>
       </c>
@@ -6125,16 +6146,16 @@
         <v>45</v>
       </c>
       <c r="X3" s="130"/>
-      <c r="Y3" s="131" t="s">
+      <c r="Y3" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="133"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="123"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
@@ -6158,7 +6179,7 @@
       <c r="BA3" s="5"/>
       <c r="BB3" s="6"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A4" s="124" t="s">
         <v>46</v>
       </c>
@@ -6193,18 +6214,18 @@
         <v>45</v>
       </c>
       <c r="X4" s="130"/>
-      <c r="Y4" s="134" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="134">
+      <c r="Y4" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="131">
         <v>20</v>
       </c>
-      <c r="AF4" s="136"/>
+      <c r="AF4" s="133"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
@@ -6228,7 +6249,7 @@
       <c r="BA4" s="5"/>
       <c r="BB4" s="6"/>
     </row>
-    <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="124" t="s">
         <v>48</v>
       </c>
@@ -6263,18 +6284,18 @@
         <v>45</v>
       </c>
       <c r="X5" s="130"/>
-      <c r="Y5" s="134" t="s">
+      <c r="Y5" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="136"/>
-      <c r="AE5" s="134">
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="131">
         <v>20</v>
       </c>
-      <c r="AF5" s="136"/>
+      <c r="AF5" s="133"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
@@ -6298,7 +6319,7 @@
       <c r="BA5" s="5"/>
       <c r="BB5" s="6"/>
     </row>
-    <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="124" t="s">
         <v>51</v>
       </c>
@@ -6333,18 +6354,18 @@
         <v>45</v>
       </c>
       <c r="X6" s="130"/>
-      <c r="Y6" s="134" t="s">
+      <c r="Y6" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="134">
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="131">
         <v>20</v>
       </c>
-      <c r="AF6" s="136"/>
+      <c r="AF6" s="133"/>
       <c r="AG6" s="51"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
@@ -6368,7 +6389,7 @@
       <c r="BA6" s="5"/>
       <c r="BB6" s="6"/>
     </row>
-    <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="124" t="s">
         <v>52</v>
       </c>
@@ -6403,18 +6424,18 @@
         <v>45</v>
       </c>
       <c r="X7" s="130"/>
-      <c r="Y7" s="134" t="s">
+      <c r="Y7" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z7" s="135"/>
-      <c r="AA7" s="135"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="135"/>
-      <c r="AD7" s="136"/>
-      <c r="AE7" s="134">
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="132"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="131">
         <v>20</v>
       </c>
-      <c r="AF7" s="136"/>
+      <c r="AF7" s="133"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -6438,7 +6459,7 @@
       <c r="BA7" s="5"/>
       <c r="BB7" s="6"/>
     </row>
-    <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="124" t="s">
         <v>53</v>
       </c>
@@ -6473,16 +6494,16 @@
         <v>45</v>
       </c>
       <c r="X8" s="130"/>
-      <c r="Y8" s="131" t="s">
+      <c r="Y8" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="133"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="123"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
@@ -6506,7 +6527,7 @@
       <c r="BA8" s="5"/>
       <c r="BB8" s="6"/>
     </row>
-    <row r="9" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="124" t="s">
         <v>55</v>
       </c>
@@ -6541,14 +6562,14 @@
         <v>45</v>
       </c>
       <c r="X9" s="130"/>
-      <c r="Y9" s="131" t="s">
+      <c r="Y9" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="133"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="123"/>
       <c r="AE9" s="30"/>
       <c r="AF9" s="31"/>
       <c r="AG9" s="4"/>
@@ -6574,9 +6595,9 @@
       <c r="BA9" s="5"/>
       <c r="BB9" s="6"/>
     </row>
-    <row r="10" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="125"/>
       <c r="C10" s="4" t="s">
@@ -6609,14 +6630,14 @@
         <v>45</v>
       </c>
       <c r="X10" s="130"/>
-      <c r="Y10" s="131" t="s">
+      <c r="Y10" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="133"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="123"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="4"/>
@@ -6642,13 +6663,13 @@
       <c r="BA10" s="5"/>
       <c r="BB10" s="6"/>
     </row>
-    <row r="11" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="125"/>
       <c r="C11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -6660,7 +6681,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N11" s="127"/>
       <c r="O11" s="127"/>
@@ -6677,18 +6698,18 @@
         <v>45</v>
       </c>
       <c r="X11" s="130"/>
-      <c r="Y11" s="134" t="s">
+      <c r="Y11" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="131">
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="122">
         <v>10</v>
       </c>
-      <c r="AF11" s="133"/>
+      <c r="AF11" s="123"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -6712,13 +6733,13 @@
       <c r="BA11" s="5"/>
       <c r="BB11" s="6"/>
     </row>
-    <row r="12" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="125"/>
       <c r="C12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -6730,7 +6751,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
       <c r="M12" s="126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N12" s="127"/>
       <c r="O12" s="127"/>
@@ -6747,18 +6768,18 @@
         <v>45</v>
       </c>
       <c r="X12" s="130"/>
-      <c r="Y12" s="134" t="s">
+      <c r="Y12" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="136"/>
-      <c r="AE12" s="131">
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="133"/>
+      <c r="AE12" s="122">
         <v>10</v>
       </c>
-      <c r="AF12" s="133"/>
+      <c r="AF12" s="123"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -6782,13 +6803,13 @@
       <c r="BA12" s="5"/>
       <c r="BB12" s="6"/>
     </row>
-    <row r="13" spans="1:77" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:77" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="125"/>
       <c r="C13" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -6817,18 +6838,18 @@
         <v>45</v>
       </c>
       <c r="X13" s="130"/>
-      <c r="Y13" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="133"/>
-      <c r="AE13" s="131">
+      <c r="Y13" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="122">
         <v>10</v>
       </c>
-      <c r="AF13" s="133"/>
+      <c r="AF13" s="123"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
@@ -6852,7 +6873,7 @@
       <c r="BA13" s="5"/>
       <c r="BB13" s="6"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A14" s="124" t="s">
         <v>57</v>
       </c>
@@ -6885,16 +6906,16 @@
         <v>45</v>
       </c>
       <c r="X14" s="130"/>
-      <c r="Y14" s="131" t="s">
+      <c r="Y14" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="133"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="123"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
@@ -6918,7 +6939,7 @@
       <c r="BA14" s="5"/>
       <c r="BB14" s="6"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A15" s="124" t="s">
         <v>59</v>
       </c>
@@ -6953,18 +6974,18 @@
         <v>45</v>
       </c>
       <c r="X15" s="130"/>
-      <c r="Y15" s="134" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="134">
+      <c r="Y15" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="131">
         <v>20</v>
       </c>
-      <c r="AF15" s="136"/>
+      <c r="AF15" s="133"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
@@ -6988,7 +7009,7 @@
       <c r="BA15" s="5"/>
       <c r="BB15" s="6"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A16" s="124" t="s">
         <v>60</v>
       </c>
@@ -7023,18 +7044,18 @@
         <v>45</v>
       </c>
       <c r="X16" s="130"/>
-      <c r="Y16" s="134" t="s">
+      <c r="Y16" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="136"/>
-      <c r="AE16" s="134">
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="131">
         <v>20</v>
       </c>
-      <c r="AF16" s="136"/>
+      <c r="AF16" s="133"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
@@ -7058,7 +7079,7 @@
       <c r="BA16" s="5"/>
       <c r="BB16" s="6"/>
     </row>
-    <row r="17" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="124" t="s">
         <v>61</v>
       </c>
@@ -7093,18 +7114,18 @@
         <v>45</v>
       </c>
       <c r="X17" s="130"/>
-      <c r="Y17" s="134" t="s">
+      <c r="Y17" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="136"/>
-      <c r="AE17" s="134">
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="133"/>
+      <c r="AE17" s="131">
         <v>20</v>
       </c>
-      <c r="AF17" s="136"/>
+      <c r="AF17" s="133"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
@@ -7128,7 +7149,7 @@
       <c r="BA17" s="5"/>
       <c r="BB17" s="6"/>
     </row>
-    <row r="18" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="124" t="s">
         <v>62</v>
       </c>
@@ -7163,18 +7184,18 @@
         <v>45</v>
       </c>
       <c r="X18" s="130"/>
-      <c r="Y18" s="134" t="s">
+      <c r="Y18" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="134">
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+      <c r="AB18" s="132"/>
+      <c r="AC18" s="132"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="131">
         <v>20</v>
       </c>
-      <c r="AF18" s="136"/>
+      <c r="AF18" s="133"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
@@ -7198,13 +7219,13 @@
       <c r="BA18" s="5"/>
       <c r="BB18" s="6"/>
     </row>
-    <row r="19" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="124" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="125"/>
       <c r="C19" s="126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="127"/>
       <c r="E19" s="127"/>
@@ -7233,16 +7254,16 @@
         <v>45</v>
       </c>
       <c r="X19" s="130"/>
-      <c r="Y19" s="131" t="s">
+      <c r="Y19" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="132"/>
-      <c r="AD19" s="133"/>
-      <c r="AE19" s="131"/>
-      <c r="AF19" s="133"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="123"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
@@ -7266,13 +7287,13 @@
       <c r="BA19" s="5"/>
       <c r="BB19" s="6"/>
     </row>
-    <row r="20" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="124" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="125"/>
       <c r="C20" s="126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="127"/>
       <c r="E20" s="127"/>
@@ -7301,16 +7322,16 @@
         <v>45</v>
       </c>
       <c r="X20" s="130"/>
-      <c r="Y20" s="131" t="s">
+      <c r="Y20" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="132"/>
-      <c r="AD20" s="133"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="133"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="123"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="123"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
@@ -7334,13 +7355,13 @@
       <c r="BA20" s="5"/>
       <c r="BB20" s="6"/>
     </row>
-    <row r="21" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="125"/>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -7352,7 +7373,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
       <c r="M21" s="126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N21" s="127"/>
       <c r="O21" s="127"/>
@@ -7369,18 +7390,18 @@
         <v>45</v>
       </c>
       <c r="X21" s="130"/>
-      <c r="Y21" s="134" t="s">
+      <c r="Y21" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="131">
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
+      <c r="AC21" s="132"/>
+      <c r="AD21" s="133"/>
+      <c r="AE21" s="122">
         <v>10</v>
       </c>
-      <c r="AF21" s="133"/>
+      <c r="AF21" s="123"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
@@ -7404,13 +7425,13 @@
       <c r="BA21" s="5"/>
       <c r="BB21" s="6"/>
     </row>
-    <row r="22" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="125"/>
       <c r="C22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -7422,7 +7443,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
       <c r="M22" s="126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N22" s="127"/>
       <c r="O22" s="127"/>
@@ -7439,18 +7460,18 @@
         <v>45</v>
       </c>
       <c r="X22" s="130"/>
-      <c r="Y22" s="134" t="s">
+      <c r="Y22" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="136"/>
-      <c r="AE22" s="131">
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="122">
         <v>10</v>
       </c>
-      <c r="AF22" s="133"/>
+      <c r="AF22" s="123"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -7474,13 +7495,13 @@
       <c r="BA22" s="5"/>
       <c r="BB22" s="6"/>
     </row>
-    <row r="23" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="125"/>
       <c r="C23" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -7509,18 +7530,18 @@
         <v>45</v>
       </c>
       <c r="X23" s="130"/>
-      <c r="Y23" s="131" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
-      <c r="AC23" s="132"/>
-      <c r="AD23" s="133"/>
-      <c r="AE23" s="131">
+      <c r="Y23" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="134"/>
+      <c r="AB23" s="134"/>
+      <c r="AC23" s="134"/>
+      <c r="AD23" s="123"/>
+      <c r="AE23" s="122">
         <v>10</v>
       </c>
-      <c r="AF23" s="133"/>
+      <c r="AF23" s="123"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -7544,7 +7565,7 @@
       <c r="BA23" s="5"/>
       <c r="BB23" s="6"/>
     </row>
-    <row r="24" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="124" t="s">
         <v>65</v>
       </c>
@@ -7579,16 +7600,16 @@
         <v>45</v>
       </c>
       <c r="X24" s="130"/>
-      <c r="Y24" s="131" t="s">
+      <c r="Y24" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="132"/>
-      <c r="AC24" s="132"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="133"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="122"/>
+      <c r="AF24" s="123"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -7612,7 +7633,7 @@
       <c r="BA24" s="5"/>
       <c r="BB24" s="6"/>
     </row>
-    <row r="25" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="124"/>
       <c r="B25" s="125"/>
       <c r="C25" s="126"/>
@@ -7633,18 +7654,18 @@
       <c r="R25" s="127"/>
       <c r="S25" s="127"/>
       <c r="T25" s="128"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="133"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="133"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="133"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="123"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="123"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="123"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -7668,7 +7689,7 @@
       <c r="BA25" s="5"/>
       <c r="BB25" s="6"/>
     </row>
-    <row r="26" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="124"/>
       <c r="B26" s="125"/>
       <c r="C26" s="126"/>
@@ -7689,18 +7710,18 @@
       <c r="R26" s="127"/>
       <c r="S26" s="127"/>
       <c r="T26" s="128"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="132"/>
-      <c r="AD26" s="133"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="133"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="123"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="123"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="134"/>
+      <c r="AD26" s="123"/>
+      <c r="AE26" s="122"/>
+      <c r="AF26" s="123"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -7724,7 +7745,7 @@
       <c r="BA26" s="5"/>
       <c r="BB26" s="6"/>
     </row>
-    <row r="27" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="124"/>
       <c r="B27" s="125"/>
       <c r="C27" s="126"/>
@@ -7745,18 +7766,18 @@
       <c r="R27" s="127"/>
       <c r="S27" s="127"/>
       <c r="T27" s="128"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
-      <c r="AD27" s="133"/>
-      <c r="AE27" s="131"/>
-      <c r="AF27" s="133"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="123"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="123"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="134"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="123"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="123"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -7780,38 +7801,154 @@
       <c r="BA27" s="5"/>
       <c r="BB27" s="6"/>
     </row>
-    <row r="28" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="M21:T21"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="Y22:AD22"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="M23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="Y9:AD9"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:L9"/>
@@ -7836,139 +7973,23 @@
     <mergeCell ref="AE26:AF26"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="M21:T21"/>
-    <mergeCell ref="M22:T22"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y21:AD21"/>
-    <mergeCell ref="Y22:AD22"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="M23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:AD23"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AE11:AF11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2">
@@ -7981,20 +8002,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866C40FC-8D04-46C4-8E1C-8FF9B98D5FE5}">
-  <dimension ref="A1:CK32"/>
+  <dimension ref="A1:CK29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25:AQ25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="19" width="2.75" style="3"/>
-    <col min="20" max="20" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="53" width="2.75" style="3"/>
-    <col min="54" max="54" width="16.875" style="3" customWidth="1"/>
-    <col min="55" max="16384" width="2.75" style="3"/>
+    <col min="1" max="19" width="2.69921875" style="3"/>
+    <col min="20" max="20" width="5.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="53" width="2.69921875" style="3"/>
+    <col min="54" max="54" width="16.8984375" style="3" customWidth="1"/>
+    <col min="55" max="16384" width="2.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:89" s="9" customFormat="1" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -8087,77 +8110,77 @@
       <c r="CJ1" s="8"/>
       <c r="CK1" s="8"/>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="A2" s="152" t="s">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A2" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="152" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="152" t="s">
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="152" t="s">
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="153"/>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="153"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="153"/>
-      <c r="AK2" s="153"/>
-      <c r="AL2" s="153"/>
-      <c r="AM2" s="153"/>
-      <c r="AN2" s="153"/>
-      <c r="AO2" s="153"/>
-      <c r="AP2" s="153"/>
-      <c r="AQ2" s="154"/>
-      <c r="AR2" s="153" t="s">
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="154"/>
+      <c r="AL2" s="154"/>
+      <c r="AM2" s="154"/>
+      <c r="AN2" s="154"/>
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="154"/>
+      <c r="AQ2" s="155"/>
+      <c r="AR2" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="153"/>
-      <c r="AT2" s="153"/>
-      <c r="AU2" s="153"/>
-      <c r="AV2" s="153"/>
-      <c r="AW2" s="153"/>
-      <c r="AX2" s="153"/>
-      <c r="AY2" s="153"/>
-      <c r="AZ2" s="153"/>
-      <c r="BA2" s="153"/>
-      <c r="BB2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="154"/>
+      <c r="AV2" s="154"/>
+      <c r="AW2" s="154"/>
+      <c r="AX2" s="154"/>
+      <c r="AY2" s="154"/>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="154"/>
+      <c r="BB2" s="155"/>
     </row>
-    <row r="3" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="149" t="s">
+    <row r="3" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="150"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="140" t="s">
         <v>70</v>
       </c>
@@ -8170,15 +8193,15 @@
       <c r="J3" s="141"/>
       <c r="K3" s="141"/>
       <c r="L3" s="142"/>
-      <c r="M3" s="155" t="s">
+      <c r="M3" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="158"/>
       <c r="T3" s="126"/>
       <c r="U3" s="127"/>
       <c r="V3" s="127"/>
@@ -8215,26 +8238,26 @@
       <c r="BA3" s="127"/>
       <c r="BB3" s="128"/>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="A4" s="149"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="160"/>
+    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="161"/>
       <c r="T4" s="126" t="s">
         <v>71</v>
       </c>
@@ -8273,52 +8296,52 @@
       <c r="BA4" s="127"/>
       <c r="BB4" s="128"/>
     </row>
-    <row r="5" spans="1:89" ht="31.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="149"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="164" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="166"/>
+    <row r="5" spans="1:89" ht="31.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="138"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="165" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="167"/>
       <c r="AR5" s="126"/>
       <c r="AS5" s="127"/>
       <c r="AT5" s="127"/>
@@ -8331,52 +8354,52 @@
       <c r="BA5" s="127"/>
       <c r="BB5" s="128"/>
     </row>
-    <row r="6" spans="1:89" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:89" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="124"/>
       <c r="B6" s="125"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="167" t="s">
-        <v>139</v>
-      </c>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="167"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="167"/>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="167"/>
-      <c r="AI6" s="167"/>
-      <c r="AJ6" s="167"/>
-      <c r="AK6" s="167"/>
-      <c r="AL6" s="167"/>
-      <c r="AM6" s="167"/>
-      <c r="AN6" s="167"/>
-      <c r="AO6" s="167"/>
-      <c r="AP6" s="167"/>
-      <c r="AQ6" s="168"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="145"/>
+      <c r="AG6" s="145"/>
+      <c r="AH6" s="145"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="145"/>
+      <c r="AK6" s="145"/>
+      <c r="AL6" s="145"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="145"/>
+      <c r="AO6" s="145"/>
+      <c r="AP6" s="145"/>
+      <c r="AQ6" s="146"/>
       <c r="AR6" s="126"/>
       <c r="AS6" s="127"/>
       <c r="AT6" s="127"/>
@@ -8389,28 +8412,28 @@
       <c r="BA6" s="127"/>
       <c r="BB6" s="128"/>
     </row>
-    <row r="7" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="45"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="160"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="160"/>
+      <c r="S7" s="161"/>
       <c r="T7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U7" s="47"/>
       <c r="V7" s="47"/>
@@ -8447,26 +8470,26 @@
       <c r="BA7" s="5"/>
       <c r="BB7" s="6"/>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="A8" s="149"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="160"/>
+    <row r="8" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="161"/>
       <c r="T8" s="126" t="s">
         <v>72</v>
       </c>
@@ -8505,52 +8528,52 @@
       <c r="BA8" s="127"/>
       <c r="BB8" s="128"/>
     </row>
-    <row r="9" spans="1:89" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="U9" s="167"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="167"/>
-      <c r="AL9" s="167"/>
-      <c r="AM9" s="167"/>
-      <c r="AN9" s="167"/>
-      <c r="AO9" s="167"/>
-      <c r="AP9" s="167"/>
-      <c r="AQ9" s="168"/>
+    <row r="9" spans="1:89" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="138"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="145"/>
+      <c r="AE9" s="145"/>
+      <c r="AF9" s="145"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="145"/>
+      <c r="AK9" s="145"/>
+      <c r="AL9" s="145"/>
+      <c r="AM9" s="145"/>
+      <c r="AN9" s="145"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="146"/>
       <c r="AR9" s="126"/>
       <c r="AS9" s="127"/>
       <c r="AT9" s="127"/>
@@ -8563,52 +8586,52 @@
       <c r="BA9" s="127"/>
       <c r="BB9" s="128"/>
     </row>
-    <row r="10" spans="1:89" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:89" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="124"/>
       <c r="B10" s="125"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="167" t="s">
-        <v>125</v>
-      </c>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="167"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="167"/>
-      <c r="AG10" s="167"/>
-      <c r="AH10" s="167"/>
-      <c r="AI10" s="167"/>
-      <c r="AJ10" s="167"/>
-      <c r="AK10" s="167"/>
-      <c r="AL10" s="167"/>
-      <c r="AM10" s="167"/>
-      <c r="AN10" s="167"/>
-      <c r="AO10" s="167"/>
-      <c r="AP10" s="167"/>
-      <c r="AQ10" s="168"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="145" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="145"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="145"/>
+      <c r="AK10" s="145"/>
+      <c r="AL10" s="145"/>
+      <c r="AM10" s="145"/>
+      <c r="AN10" s="145"/>
+      <c r="AO10" s="145"/>
+      <c r="AP10" s="145"/>
+      <c r="AQ10" s="146"/>
       <c r="AR10" s="126"/>
       <c r="AS10" s="127"/>
       <c r="AT10" s="127"/>
@@ -8621,28 +8644,28 @@
       <c r="BA10" s="127"/>
       <c r="BB10" s="128"/>
     </row>
-    <row r="11" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="45"/>
       <c r="B11" s="46"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="163"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="164"/>
       <c r="T11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U11" s="47"/>
       <c r="V11" s="47"/>
@@ -8679,11 +8702,11 @@
       <c r="BA11" s="5"/>
       <c r="BB11" s="6"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.4">
-      <c r="A12" s="149" t="s">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A12" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="150"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="140" t="s">
         <v>76</v>
       </c>
@@ -8706,7 +8729,7 @@
       <c r="R12" s="141"/>
       <c r="S12" s="142"/>
       <c r="T12" s="140" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U12" s="141"/>
       <c r="V12" s="141"/>
@@ -8732,7 +8755,7 @@
       <c r="AP12" s="141"/>
       <c r="AQ12" s="142"/>
       <c r="AR12" s="126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS12" s="127"/>
       <c r="AT12" s="127"/>
@@ -8745,52 +8768,52 @@
       <c r="BA12" s="127"/>
       <c r="BB12" s="128"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="147"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="147"/>
-      <c r="AH13" s="147"/>
-      <c r="AI13" s="147"/>
-      <c r="AJ13" s="147"/>
-      <c r="AK13" s="147"/>
-      <c r="AL13" s="147"/>
-      <c r="AM13" s="147"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="147"/>
-      <c r="AP13" s="147"/>
-      <c r="AQ13" s="148"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="148"/>
+      <c r="AF13" s="148"/>
+      <c r="AG13" s="148"/>
+      <c r="AH13" s="148"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="148"/>
+      <c r="AK13" s="148"/>
+      <c r="AL13" s="148"/>
+      <c r="AM13" s="148"/>
+      <c r="AN13" s="148"/>
+      <c r="AO13" s="148"/>
+      <c r="AP13" s="148"/>
+      <c r="AQ13" s="149"/>
       <c r="AR13" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS13" s="5"/>
       <c r="AT13" s="5"/>
@@ -8803,13 +8826,13 @@
       <c r="BA13" s="5"/>
       <c r="BB13" s="6"/>
     </row>
-    <row r="14" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="149" t="s">
+    <row r="14" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="150"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="140" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="141"/>
       <c r="E14" s="141"/>
@@ -8856,7 +8879,7 @@
       <c r="AP14" s="141"/>
       <c r="AQ14" s="142"/>
       <c r="AR14" s="126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS14" s="127"/>
       <c r="AT14" s="127"/>
@@ -8869,52 +8892,52 @@
       <c r="BA14" s="127"/>
       <c r="BB14" s="128"/>
     </row>
-    <row r="15" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
-      <c r="Z15" s="144"/>
-      <c r="AA15" s="144"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="144"/>
-      <c r="AD15" s="144"/>
-      <c r="AE15" s="144"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="144"/>
-      <c r="AH15" s="144"/>
-      <c r="AI15" s="144"/>
-      <c r="AJ15" s="144"/>
-      <c r="AK15" s="144"/>
-      <c r="AL15" s="144"/>
-      <c r="AM15" s="144"/>
-      <c r="AN15" s="144"/>
-      <c r="AO15" s="144"/>
-      <c r="AP15" s="144"/>
-      <c r="AQ15" s="145"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="148"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="148"/>
+      <c r="AF15" s="148"/>
+      <c r="AG15" s="148"/>
+      <c r="AH15" s="148"/>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="148"/>
+      <c r="AL15" s="148"/>
+      <c r="AM15" s="148"/>
+      <c r="AN15" s="148"/>
+      <c r="AO15" s="148"/>
+      <c r="AP15" s="148"/>
+      <c r="AQ15" s="149"/>
       <c r="AR15" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AS15" s="5"/>
       <c r="AT15" s="5"/>
@@ -8927,53 +8950,59 @@
       <c r="BA15" s="5"/>
       <c r="BB15" s="6"/>
     </row>
-    <row r="16" spans="1:89" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="146"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="147"/>
-      <c r="AC16" s="147"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="147"/>
-      <c r="AF16" s="147"/>
-      <c r="AG16" s="147"/>
-      <c r="AH16" s="147"/>
-      <c r="AI16" s="147"/>
-      <c r="AJ16" s="147"/>
-      <c r="AK16" s="147"/>
-      <c r="AL16" s="147"/>
-      <c r="AM16" s="147"/>
-      <c r="AN16" s="147"/>
-      <c r="AO16" s="147"/>
-      <c r="AP16" s="147"/>
-      <c r="AQ16" s="148"/>
-      <c r="AR16" s="4" t="s">
-        <v>150</v>
-      </c>
+    <row r="16" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A16" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="125"/>
+      <c r="C16" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="140" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="4"/>
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5"/>
@@ -8985,34 +9014,28 @@
       <c r="BA16" s="5"/>
       <c r="BB16" s="6"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A17" s="124" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="140" t="s">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -9049,65 +9072,71 @@
       <c r="BA17" s="5"/>
       <c r="BB17" s="6"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5"/>
-      <c r="AZ18" s="5"/>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="6"/>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A18" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127"/>
+      <c r="AI18" s="127"/>
+      <c r="AJ18" s="127"/>
+      <c r="AK18" s="127"/>
+      <c r="AL18" s="127"/>
+      <c r="AM18" s="127"/>
+      <c r="AN18" s="127"/>
+      <c r="AO18" s="127"/>
+      <c r="AP18" s="127"/>
+      <c r="AQ18" s="128"/>
+      <c r="AR18" s="126"/>
+      <c r="AS18" s="127"/>
+      <c r="AT18" s="127"/>
+      <c r="AU18" s="127"/>
+      <c r="AV18" s="127"/>
+      <c r="AW18" s="127"/>
+      <c r="AX18" s="127"/>
+      <c r="AY18" s="127"/>
+      <c r="AZ18" s="127"/>
+      <c r="BA18" s="127"/>
+      <c r="BB18" s="128"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A19" s="124" t="s">
         <v>134</v>
       </c>
@@ -9124,15 +9153,15 @@
       <c r="J19" s="127"/>
       <c r="K19" s="127"/>
       <c r="L19" s="128"/>
-      <c r="M19" s="151" t="s">
-        <v>107</v>
-      </c>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
+      <c r="M19" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
       <c r="T19" s="127" t="s">
         <v>137</v>
       </c>
@@ -9171,34 +9200,34 @@
       <c r="BA19" s="127"/>
       <c r="BB19" s="128"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A20" s="124" t="s">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A20" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="125"/>
-      <c r="C20" s="126" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="151" t="s">
-        <v>107</v>
-      </c>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="127" t="s">
-        <v>138</v>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="126" t="s">
+        <v>82</v>
       </c>
       <c r="U20" s="127"/>
       <c r="V20" s="127"/>
@@ -9235,13 +9264,13 @@
       <c r="BA20" s="127"/>
       <c r="BB20" s="128"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A21" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="150"/>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A21" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="139"/>
       <c r="C21" s="140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="141"/>
       <c r="E21" s="141"/>
@@ -9260,34 +9289,36 @@
       <c r="P21" s="141"/>
       <c r="Q21" s="141"/>
       <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="126" t="s">
-        <v>82</v>
-      </c>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="127"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="127"/>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="127"/>
-      <c r="AH21" s="127"/>
-      <c r="AI21" s="127"/>
-      <c r="AJ21" s="127"/>
-      <c r="AK21" s="127"/>
-      <c r="AL21" s="127"/>
-      <c r="AM21" s="127"/>
-      <c r="AN21" s="127"/>
-      <c r="AO21" s="127"/>
-      <c r="AP21" s="127"/>
-      <c r="AQ21" s="128"/>
-      <c r="AR21" s="126"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="141"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="141"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="141"/>
+      <c r="AC21" s="141"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="141"/>
+      <c r="AF21" s="141"/>
+      <c r="AG21" s="141"/>
+      <c r="AH21" s="141"/>
+      <c r="AI21" s="141"/>
+      <c r="AJ21" s="141"/>
+      <c r="AK21" s="141"/>
+      <c r="AL21" s="141"/>
+      <c r="AM21" s="141"/>
+      <c r="AN21" s="141"/>
+      <c r="AO21" s="141"/>
+      <c r="AP21" s="141"/>
+      <c r="AQ21" s="142"/>
+      <c r="AR21" s="126" t="s">
+        <v>146</v>
+      </c>
       <c r="AS21" s="127"/>
       <c r="AT21" s="127"/>
       <c r="AU21" s="127"/>
@@ -9299,206 +9330,241 @@
       <c r="BA21" s="127"/>
       <c r="BB21" s="128"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A22" s="149" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="140" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="140" t="s">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="148"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="148"/>
+      <c r="AF22" s="148"/>
+      <c r="AG22" s="148"/>
+      <c r="AH22" s="148"/>
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="148"/>
+      <c r="AK22" s="148"/>
+      <c r="AL22" s="148"/>
+      <c r="AM22" s="148"/>
+      <c r="AN22" s="148"/>
+      <c r="AO22" s="148"/>
+      <c r="AP22" s="148"/>
+      <c r="AQ22" s="149"/>
+      <c r="AR22" s="181" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS22" s="182"/>
+      <c r="AT22" s="182"/>
+      <c r="AU22" s="182"/>
+      <c r="AV22" s="182"/>
+      <c r="AW22" s="182"/>
+      <c r="AX22" s="182"/>
+      <c r="AY22" s="182"/>
+      <c r="AZ22" s="182"/>
+      <c r="BA22" s="182"/>
+      <c r="BB22" s="183"/>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A23" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="139"/>
+      <c r="C23" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
-      <c r="W22" s="141"/>
-      <c r="X22" s="141"/>
-      <c r="Y22" s="141"/>
-      <c r="Z22" s="141"/>
-      <c r="AA22" s="141"/>
-      <c r="AB22" s="141"/>
-      <c r="AC22" s="141"/>
-      <c r="AD22" s="141"/>
-      <c r="AE22" s="141"/>
-      <c r="AF22" s="141"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="141"/>
-      <c r="AI22" s="141"/>
-      <c r="AJ22" s="141"/>
-      <c r="AK22" s="141"/>
-      <c r="AL22" s="141"/>
-      <c r="AM22" s="141"/>
-      <c r="AN22" s="141"/>
-      <c r="AO22" s="141"/>
-      <c r="AP22" s="141"/>
-      <c r="AQ22" s="142"/>
-      <c r="AR22" s="126" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS22" s="127"/>
-      <c r="AT22" s="127"/>
-      <c r="AU22" s="127"/>
-      <c r="AV22" s="127"/>
-      <c r="AW22" s="127"/>
-      <c r="AX22" s="127"/>
-      <c r="AY22" s="127"/>
-      <c r="AZ22" s="127"/>
-      <c r="BA22" s="127"/>
-      <c r="BB22" s="128"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
+      <c r="Y23" s="141"/>
+      <c r="Z23" s="141"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="141"/>
+      <c r="AC23" s="141"/>
+      <c r="AD23" s="141"/>
+      <c r="AE23" s="141"/>
+      <c r="AF23" s="141"/>
+      <c r="AG23" s="141"/>
+      <c r="AH23" s="141"/>
+      <c r="AI23" s="141"/>
+      <c r="AJ23" s="141"/>
+      <c r="AK23" s="141"/>
+      <c r="AL23" s="141"/>
+      <c r="AM23" s="141"/>
+      <c r="AN23" s="141"/>
+      <c r="AO23" s="141"/>
+      <c r="AP23" s="141"/>
+      <c r="AQ23" s="142"/>
+      <c r="AR23" s="184" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS23" s="185"/>
+      <c r="AT23" s="185"/>
+      <c r="AU23" s="185"/>
+      <c r="AV23" s="185"/>
+      <c r="AW23" s="185"/>
+      <c r="AX23" s="185"/>
+      <c r="AY23" s="185"/>
+      <c r="AZ23" s="185"/>
+      <c r="BA23" s="185"/>
+      <c r="BB23" s="186"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="146"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="147"/>
-      <c r="Z23" s="147"/>
-      <c r="AA23" s="147"/>
-      <c r="AB23" s="147"/>
-      <c r="AC23" s="147"/>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="147"/>
-      <c r="AF23" s="147"/>
-      <c r="AG23" s="147"/>
-      <c r="AH23" s="147"/>
-      <c r="AI23" s="147"/>
-      <c r="AJ23" s="147"/>
-      <c r="AK23" s="147"/>
-      <c r="AL23" s="147"/>
-      <c r="AM23" s="147"/>
-      <c r="AN23" s="147"/>
-      <c r="AO23" s="147"/>
-      <c r="AP23" s="147"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="6"/>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
-      <c r="C24" s="52"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="52"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="52"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="6"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="148"/>
+      <c r="AC24" s="148"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="148"/>
+      <c r="AG24" s="148"/>
+      <c r="AH24" s="148"/>
+      <c r="AI24" s="148"/>
+      <c r="AJ24" s="148"/>
+      <c r="AK24" s="148"/>
+      <c r="AL24" s="148"/>
+      <c r="AM24" s="148"/>
+      <c r="AN24" s="148"/>
+      <c r="AO24" s="148"/>
+      <c r="AP24" s="148"/>
+      <c r="AQ24" s="149"/>
+      <c r="AR24" s="181" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS24" s="182"/>
+      <c r="AT24" s="182"/>
+      <c r="AU24" s="182"/>
+      <c r="AV24" s="182"/>
+      <c r="AW24" s="182"/>
+      <c r="AX24" s="182"/>
+      <c r="AY24" s="187"/>
+      <c r="AZ24" s="182"/>
+      <c r="BA24" s="182"/>
+      <c r="BB24" s="183"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A25" s="149" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="141"/>
-      <c r="AA25" s="141"/>
-      <c r="AB25" s="141"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="141"/>
-      <c r="AJ25" s="141"/>
-      <c r="AK25" s="141"/>
-      <c r="AL25" s="141"/>
-      <c r="AM25" s="141"/>
-      <c r="AN25" s="141"/>
-      <c r="AO25" s="141"/>
-      <c r="AP25" s="141"/>
-      <c r="AQ25" s="142"/>
-      <c r="AR25" s="126" t="s">
-        <v>147</v>
-      </c>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A25" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="125"/>
+      <c r="C25" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
+      <c r="AD25" s="127"/>
+      <c r="AE25" s="127"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="127"/>
+      <c r="AH25" s="127"/>
+      <c r="AI25" s="127"/>
+      <c r="AJ25" s="127"/>
+      <c r="AK25" s="127"/>
+      <c r="AL25" s="127"/>
+      <c r="AM25" s="127"/>
+      <c r="AN25" s="127"/>
+      <c r="AO25" s="127"/>
+      <c r="AP25" s="127"/>
+      <c r="AQ25" s="128"/>
+      <c r="AR25" s="126"/>
       <c r="AS25" s="127"/>
       <c r="AT25" s="127"/>
       <c r="AU25" s="127"/>
@@ -9510,151 +9576,155 @@
       <c r="BA25" s="127"/>
       <c r="BB25" s="128"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
-      <c r="S26" s="145"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="144"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="144"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="144"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="144"/>
-      <c r="AJ26" s="144"/>
-      <c r="AK26" s="144"/>
-      <c r="AL26" s="144"/>
-      <c r="AM26" s="144"/>
-      <c r="AN26" s="144"/>
-      <c r="AO26" s="144"/>
-      <c r="AP26" s="144"/>
-      <c r="AQ26" s="145"/>
-      <c r="AR26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
-      <c r="AW26" s="5"/>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="5"/>
-      <c r="AZ26" s="5"/>
-      <c r="BA26" s="5"/>
-      <c r="BB26" s="6"/>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A26" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="125"/>
+      <c r="C26" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="U26" s="127"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="127"/>
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="127"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="127"/>
+      <c r="AH26" s="127"/>
+      <c r="AI26" s="127"/>
+      <c r="AJ26" s="127"/>
+      <c r="AK26" s="127"/>
+      <c r="AL26" s="127"/>
+      <c r="AM26" s="127"/>
+      <c r="AN26" s="127"/>
+      <c r="AO26" s="127"/>
+      <c r="AP26" s="127"/>
+      <c r="AQ26" s="128"/>
+      <c r="AR26" s="126"/>
+      <c r="AS26" s="127"/>
+      <c r="AT26" s="127"/>
+      <c r="AU26" s="127"/>
+      <c r="AV26" s="127"/>
+      <c r="AW26" s="127"/>
+      <c r="AX26" s="127"/>
+      <c r="AY26" s="127"/>
+      <c r="AZ26" s="127"/>
+      <c r="BA26" s="127"/>
+      <c r="BB26" s="128"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="146"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="147"/>
-      <c r="AF27" s="147"/>
-      <c r="AG27" s="147"/>
-      <c r="AH27" s="147"/>
-      <c r="AI27" s="147"/>
-      <c r="AJ27" s="147"/>
-      <c r="AK27" s="147"/>
-      <c r="AL27" s="147"/>
-      <c r="AM27" s="147"/>
-      <c r="AN27" s="147"/>
-      <c r="AO27" s="147"/>
-      <c r="AP27" s="147"/>
-      <c r="AQ27" s="148"/>
-      <c r="AR27" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="6"/>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A27" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="139"/>
+      <c r="C27" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127"/>
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="127"/>
+      <c r="AF27" s="127"/>
+      <c r="AG27" s="127"/>
+      <c r="AH27" s="127"/>
+      <c r="AI27" s="127"/>
+      <c r="AJ27" s="127"/>
+      <c r="AK27" s="127"/>
+      <c r="AL27" s="127"/>
+      <c r="AM27" s="127"/>
+      <c r="AN27" s="127"/>
+      <c r="AO27" s="127"/>
+      <c r="AP27" s="127"/>
+      <c r="AQ27" s="128"/>
+      <c r="AR27" s="126"/>
+      <c r="AS27" s="127"/>
+      <c r="AT27" s="127"/>
+      <c r="AU27" s="127"/>
+      <c r="AV27" s="127"/>
+      <c r="AW27" s="127"/>
+      <c r="AX27" s="127"/>
+      <c r="AY27" s="127"/>
+      <c r="AZ27" s="127"/>
+      <c r="BA27" s="127"/>
+      <c r="BB27" s="128"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A28" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="125"/>
-      <c r="C28" s="126" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="126" t="s">
-        <v>107</v>
-      </c>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="127" t="s">
-        <v>126</v>
-      </c>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A28" s="138"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="126"/>
       <c r="U28" s="127"/>
       <c r="V28" s="127"/>
       <c r="W28" s="127"/>
@@ -9690,14 +9760,10 @@
       <c r="BA28" s="127"/>
       <c r="BB28" s="128"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A29" s="124" t="s">
-        <v>118</v>
-      </c>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="A29" s="124"/>
       <c r="B29" s="125"/>
-      <c r="C29" s="126" t="s">
-        <v>143</v>
-      </c>
+      <c r="C29" s="126"/>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
       <c r="F29" s="127"/>
@@ -9707,18 +9773,14 @@
       <c r="J29" s="127"/>
       <c r="K29" s="127"/>
       <c r="L29" s="128"/>
-      <c r="M29" s="126" t="s">
-        <v>107</v>
-      </c>
+      <c r="M29" s="126"/>
       <c r="N29" s="127"/>
       <c r="O29" s="127"/>
       <c r="P29" s="127"/>
       <c r="Q29" s="127"/>
       <c r="R29" s="127"/>
       <c r="S29" s="128"/>
-      <c r="T29" s="127" t="s">
-        <v>127</v>
-      </c>
+      <c r="T29" s="127"/>
       <c r="U29" s="127"/>
       <c r="V29" s="127"/>
       <c r="W29" s="127"/>
@@ -9754,239 +9816,24 @@
       <c r="BA29" s="127"/>
       <c r="BB29" s="128"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A30" s="149" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="126" t="s">
-        <v>82</v>
-      </c>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="127"/>
-      <c r="AH30" s="127"/>
-      <c r="AI30" s="127"/>
-      <c r="AJ30" s="127"/>
-      <c r="AK30" s="127"/>
-      <c r="AL30" s="127"/>
-      <c r="AM30" s="127"/>
-      <c r="AN30" s="127"/>
-      <c r="AO30" s="127"/>
-      <c r="AP30" s="127"/>
-      <c r="AQ30" s="128"/>
-      <c r="AR30" s="126"/>
-      <c r="AS30" s="127"/>
-      <c r="AT30" s="127"/>
-      <c r="AU30" s="127"/>
-      <c r="AV30" s="127"/>
-      <c r="AW30" s="127"/>
-      <c r="AX30" s="127"/>
-      <c r="AY30" s="127"/>
-      <c r="AZ30" s="127"/>
-      <c r="BA30" s="127"/>
-      <c r="BB30" s="128"/>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A31" s="149"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="127"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="127"/>
-      <c r="AI31" s="127"/>
-      <c r="AJ31" s="127"/>
-      <c r="AK31" s="127"/>
-      <c r="AL31" s="127"/>
-      <c r="AM31" s="127"/>
-      <c r="AN31" s="127"/>
-      <c r="AO31" s="127"/>
-      <c r="AP31" s="127"/>
-      <c r="AQ31" s="128"/>
-      <c r="AR31" s="126"/>
-      <c r="AS31" s="127"/>
-      <c r="AT31" s="127"/>
-      <c r="AU31" s="127"/>
-      <c r="AV31" s="127"/>
-      <c r="AW31" s="127"/>
-      <c r="AX31" s="127"/>
-      <c r="AY31" s="127"/>
-      <c r="AZ31" s="127"/>
-      <c r="BA31" s="127"/>
-      <c r="BB31" s="128"/>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.4">
-      <c r="A32" s="124"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="127"/>
-      <c r="AC32" s="127"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="127"/>
-      <c r="AJ32" s="127"/>
-      <c r="AK32" s="127"/>
-      <c r="AL32" s="127"/>
-      <c r="AM32" s="127"/>
-      <c r="AN32" s="127"/>
-      <c r="AO32" s="127"/>
-      <c r="AP32" s="127"/>
-      <c r="AQ32" s="128"/>
-      <c r="AR32" s="126"/>
-      <c r="AS32" s="127"/>
-      <c r="AT32" s="127"/>
-      <c r="AU32" s="127"/>
-      <c r="AV32" s="127"/>
-      <c r="AW32" s="127"/>
-      <c r="AX32" s="127"/>
-      <c r="AY32" s="127"/>
-      <c r="AZ32" s="127"/>
-      <c r="BA32" s="127"/>
-      <c r="BB32" s="128"/>
-    </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="AR19:BB19"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="T18:AQ18"/>
+    <mergeCell ref="C14:L15"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="C16:L17"/>
+    <mergeCell ref="M16:S17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:S25"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:S21"/>
-    <mergeCell ref="T21:AQ21"/>
-    <mergeCell ref="AR21:BB21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:AQ20"/>
-    <mergeCell ref="AR20:BB20"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="T29:AQ29"/>
-    <mergeCell ref="AR29:BB29"/>
-    <mergeCell ref="AR22:BB22"/>
-    <mergeCell ref="AR25:BB25"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:AQ30"/>
-    <mergeCell ref="AR30:BB30"/>
-    <mergeCell ref="T28:AQ28"/>
-    <mergeCell ref="AR28:BB28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="T31:AQ31"/>
-    <mergeCell ref="AR31:BB31"/>
-    <mergeCell ref="M32:S32"/>
-    <mergeCell ref="T32:AQ32"/>
-    <mergeCell ref="AR32:BB32"/>
-    <mergeCell ref="T9:AQ9"/>
-    <mergeCell ref="AR9:BB9"/>
-    <mergeCell ref="AR12:BB12"/>
-    <mergeCell ref="AR14:BB14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="T10:AQ10"/>
-    <mergeCell ref="AR10:BB10"/>
-    <mergeCell ref="T12:AQ13"/>
-    <mergeCell ref="T14:AQ16"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="M14:S16"/>
-    <mergeCell ref="AR5:BB5"/>
-    <mergeCell ref="T8:AQ8"/>
-    <mergeCell ref="AR8:BB8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="T6:AQ6"/>
-    <mergeCell ref="AR6:BB6"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="M21:S22"/>
+    <mergeCell ref="C21:L22"/>
     <mergeCell ref="T2:AQ2"/>
     <mergeCell ref="AR2:BB2"/>
     <mergeCell ref="A4:B4"/>
@@ -10003,26 +9850,65 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="T5:AQ5"/>
-    <mergeCell ref="C25:L27"/>
-    <mergeCell ref="M25:S27"/>
-    <mergeCell ref="T25:AQ27"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="AR5:BB5"/>
+    <mergeCell ref="T8:AQ8"/>
+    <mergeCell ref="AR8:BB8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="T6:AQ6"/>
+    <mergeCell ref="AR6:BB6"/>
+    <mergeCell ref="T9:AQ9"/>
+    <mergeCell ref="AR9:BB9"/>
+    <mergeCell ref="AR12:BB12"/>
+    <mergeCell ref="AR14:BB14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="T10:AQ10"/>
+    <mergeCell ref="AR10:BB10"/>
+    <mergeCell ref="T12:AQ13"/>
+    <mergeCell ref="T14:AQ15"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="T28:AQ28"/>
+    <mergeCell ref="AR28:BB28"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="T29:AQ29"/>
+    <mergeCell ref="AR29:BB29"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="T27:AQ27"/>
+    <mergeCell ref="AR27:BB27"/>
+    <mergeCell ref="T25:AQ25"/>
+    <mergeCell ref="AR25:BB25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:AQ26"/>
+    <mergeCell ref="AR26:BB26"/>
+    <mergeCell ref="AR21:BB21"/>
+    <mergeCell ref="AR23:BB23"/>
+    <mergeCell ref="C23:L24"/>
+    <mergeCell ref="M23:S24"/>
+    <mergeCell ref="T23:AQ24"/>
+    <mergeCell ref="T21:AQ22"/>
+    <mergeCell ref="AR18:BB18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:L28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:AQ20"/>
+    <mergeCell ref="AR20:BB20"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="M19:S19"/>
     <mergeCell ref="T19:AQ19"/>
-    <mergeCell ref="C14:L16"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="C17:L18"/>
-    <mergeCell ref="M17:S18"/>
-    <mergeCell ref="T22:AQ23"/>
-    <mergeCell ref="M22:S23"/>
-    <mergeCell ref="C22:L23"/>
+    <mergeCell ref="AR19:BB19"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AT1:AT2">
@@ -10039,12 +9925,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="7"/>
+    <col min="1" max="16384" width="2.69921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -10128,109 +10014,109 @@
       <c r="CB1" s="1"/>
       <c r="CC1" s="1"/>
     </row>
-    <row r="2" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="139" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="152" t="s">
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="153"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="153"/>
-      <c r="AK2" s="153"/>
-      <c r="AL2" s="153"/>
-      <c r="AM2" s="153"/>
-      <c r="AN2" s="152" t="s">
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="154"/>
+      <c r="AL2" s="154"/>
+      <c r="AM2" s="154"/>
+      <c r="AN2" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="153"/>
-      <c r="AP2" s="153"/>
-      <c r="AQ2" s="153"/>
-      <c r="AR2" s="153"/>
-      <c r="AS2" s="153"/>
-      <c r="AT2" s="153"/>
-      <c r="AU2" s="153"/>
-      <c r="AV2" s="153"/>
-      <c r="AW2" s="153"/>
-      <c r="AX2" s="153"/>
-      <c r="AY2" s="153"/>
-      <c r="AZ2" s="153"/>
-      <c r="BA2" s="153"/>
-      <c r="BB2" s="154"/>
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="154"/>
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="154"/>
+      <c r="AV2" s="154"/>
+      <c r="AW2" s="154"/>
+      <c r="AX2" s="154"/>
+      <c r="AY2" s="154"/>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="154"/>
+      <c r="BB2" s="155"/>
     </row>
-    <row r="3" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+    <row r="3" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="137" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="139" t="s">
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="138"/>
-      <c r="U3" s="137" t="s">
+      <c r="T3" s="136"/>
+      <c r="U3" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="138"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="136"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
@@ -10256,7 +10142,7 @@
       <c r="BA3" s="11"/>
       <c r="BB3" s="12"/>
     </row>
-    <row r="4" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -10312,7 +10198,7 @@
       <c r="BA4" s="26"/>
       <c r="BB4" s="28"/>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -10331,7 +10217,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="170"/>
+      <c r="S5" s="168"/>
       <c r="T5" s="125"/>
       <c r="U5" s="126"/>
       <c r="V5" s="127"/>
@@ -10368,7 +10254,7 @@
       <c r="BA5" s="127"/>
       <c r="BB5" s="128"/>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -10387,7 +10273,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="170"/>
+      <c r="S6" s="168"/>
       <c r="T6" s="125"/>
       <c r="U6" s="126"/>
       <c r="V6" s="127"/>
@@ -10424,7 +10310,7 @@
       <c r="BA6" s="127"/>
       <c r="BB6" s="128"/>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -10443,7 +10329,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="170"/>
+      <c r="S7" s="168"/>
       <c r="T7" s="125"/>
       <c r="U7" s="126"/>
       <c r="V7" s="127"/>
@@ -10480,7 +10366,7 @@
       <c r="BA7" s="127"/>
       <c r="BB7" s="128"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -10499,7 +10385,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="170"/>
+      <c r="S8" s="168"/>
       <c r="T8" s="125"/>
       <c r="U8" s="126"/>
       <c r="V8" s="127"/>
@@ -10536,7 +10422,7 @@
       <c r="BA8" s="127"/>
       <c r="BB8" s="128"/>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -10555,7 +10441,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="170"/>
+      <c r="S9" s="168"/>
       <c r="T9" s="125"/>
       <c r="U9" s="126"/>
       <c r="V9" s="127"/>
@@ -10592,7 +10478,7 @@
       <c r="BA9" s="127"/>
       <c r="BB9" s="128"/>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -10611,7 +10497,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="170"/>
+      <c r="S10" s="168"/>
       <c r="T10" s="125"/>
       <c r="U10" s="126"/>
       <c r="V10" s="127"/>
@@ -10648,7 +10534,7 @@
       <c r="BA10" s="127"/>
       <c r="BB10" s="128"/>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -10667,7 +10553,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="170"/>
+      <c r="S11" s="168"/>
       <c r="T11" s="125"/>
       <c r="U11" s="126"/>
       <c r="V11" s="127"/>
@@ -10704,7 +10590,7 @@
       <c r="BA11" s="127"/>
       <c r="BB11" s="128"/>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -10723,7 +10609,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="170"/>
+      <c r="S12" s="168"/>
       <c r="T12" s="125"/>
       <c r="U12" s="126"/>
       <c r="V12" s="127"/>
@@ -10760,7 +10646,7 @@
       <c r="BA12" s="127"/>
       <c r="BB12" s="128"/>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -10779,7 +10665,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="170"/>
+      <c r="S13" s="168"/>
       <c r="T13" s="125"/>
       <c r="U13" s="126"/>
       <c r="V13" s="127"/>
@@ -10816,7 +10702,7 @@
       <c r="BA13" s="127"/>
       <c r="BB13" s="128"/>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -10835,7 +10721,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="170"/>
+      <c r="S14" s="168"/>
       <c r="T14" s="125"/>
       <c r="U14" s="126"/>
       <c r="V14" s="127"/>
@@ -10872,7 +10758,7 @@
       <c r="BA14" s="127"/>
       <c r="BB14" s="128"/>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -10891,7 +10777,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="170"/>
+      <c r="S15" s="168"/>
       <c r="T15" s="125"/>
       <c r="U15" s="126"/>
       <c r="V15" s="127"/>
@@ -10928,7 +10814,7 @@
       <c r="BA15" s="127"/>
       <c r="BB15" s="128"/>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10947,7 +10833,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="170"/>
+      <c r="S16" s="168"/>
       <c r="T16" s="125"/>
       <c r="U16" s="126"/>
       <c r="V16" s="127"/>
@@ -10984,7 +10870,7 @@
       <c r="BA16" s="127"/>
       <c r="BB16" s="128"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -11003,7 +10889,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="170"/>
+      <c r="S17" s="168"/>
       <c r="T17" s="125"/>
       <c r="U17" s="126"/>
       <c r="V17" s="127"/>
@@ -11040,7 +10926,7 @@
       <c r="BA17" s="127"/>
       <c r="BB17" s="128"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -11059,7 +10945,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="170"/>
+      <c r="S18" s="168"/>
       <c r="T18" s="125"/>
       <c r="U18" s="126"/>
       <c r="V18" s="127"/>
@@ -11098,6 +10984,58 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AM10"/>
+    <mergeCell ref="AN10:BB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BB15"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:AD18"/>
     <mergeCell ref="AE18:AM18"/>
@@ -11110,58 +11048,6 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BB15"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AM10"/>
-    <mergeCell ref="AN10:BB10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11177,12 +11063,12 @@
       <selection activeCell="AA7" sqref="AA7:BB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="2"/>
+    <col min="1" max="16384" width="2.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>90</v>
       </c>
@@ -11240,1260 +11126,1350 @@
       <c r="BA1" s="24"/>
       <c r="BB1" s="24"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A2" s="178" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="171" t="s">
+      <c r="B2" s="179"/>
+      <c r="C2" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="171" t="s">
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="171" t="s">
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="171" t="s">
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="178" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="173"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="173"/>
-      <c r="AP2" s="173"/>
-      <c r="AQ2" s="173"/>
-      <c r="AR2" s="173"/>
-      <c r="AS2" s="173"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="173"/>
-      <c r="AV2" s="173"/>
-      <c r="AW2" s="173"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="173"/>
-      <c r="AZ2" s="173"/>
-      <c r="BA2" s="173"/>
-      <c r="BB2" s="172"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="180"/>
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="180"/>
+      <c r="AJ2" s="180"/>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="180"/>
+      <c r="AN2" s="180"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="180"/>
+      <c r="AV2" s="180"/>
+      <c r="AW2" s="180"/>
+      <c r="AX2" s="180"/>
+      <c r="AY2" s="180"/>
+      <c r="AZ2" s="180"/>
+      <c r="BA2" s="180"/>
+      <c r="BB2" s="179"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="174">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A3" s="169">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176">
+      <c r="B3" s="170"/>
+      <c r="C3" s="171">
         <v>45442</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="179" t="s">
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="174" t="s">
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="169" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="182"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="182"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="182"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="182"/>
-      <c r="AH3" s="182"/>
-      <c r="AI3" s="182"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="182"/>
-      <c r="AL3" s="182"/>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="182"/>
-      <c r="AP3" s="182"/>
-      <c r="AQ3" s="182"/>
-      <c r="AR3" s="182"/>
-      <c r="AS3" s="182"/>
-      <c r="AT3" s="182"/>
-      <c r="AU3" s="182"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="182"/>
-      <c r="AX3" s="182"/>
-      <c r="AY3" s="182"/>
-      <c r="AZ3" s="182"/>
-      <c r="BA3" s="182"/>
-      <c r="BB3" s="175"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="177"/>
+      <c r="AJ3" s="177"/>
+      <c r="AK3" s="177"/>
+      <c r="AL3" s="177"/>
+      <c r="AM3" s="177"/>
+      <c r="AN3" s="177"/>
+      <c r="AO3" s="177"/>
+      <c r="AP3" s="177"/>
+      <c r="AQ3" s="177"/>
+      <c r="AR3" s="177"/>
+      <c r="AS3" s="177"/>
+      <c r="AT3" s="177"/>
+      <c r="AU3" s="177"/>
+      <c r="AV3" s="177"/>
+      <c r="AW3" s="177"/>
+      <c r="AX3" s="177"/>
+      <c r="AY3" s="177"/>
+      <c r="AZ3" s="177"/>
+      <c r="BA3" s="177"/>
+      <c r="BB3" s="170"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" s="174">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A4" s="169">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="182"/>
-      <c r="Q4" s="182"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="182"/>
-      <c r="T4" s="182"/>
-      <c r="U4" s="182"/>
-      <c r="V4" s="182"/>
-      <c r="W4" s="182"/>
-      <c r="X4" s="182"/>
-      <c r="Y4" s="182"/>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="182"/>
-      <c r="AC4" s="182"/>
-      <c r="AD4" s="182"/>
-      <c r="AE4" s="182"/>
-      <c r="AF4" s="182"/>
-      <c r="AG4" s="182"/>
-      <c r="AH4" s="182"/>
-      <c r="AI4" s="182"/>
-      <c r="AJ4" s="182"/>
-      <c r="AK4" s="182"/>
-      <c r="AL4" s="182"/>
-      <c r="AM4" s="182"/>
-      <c r="AN4" s="182"/>
-      <c r="AO4" s="182"/>
-      <c r="AP4" s="182"/>
-      <c r="AQ4" s="182"/>
-      <c r="AR4" s="182"/>
-      <c r="AS4" s="182"/>
-      <c r="AT4" s="182"/>
-      <c r="AU4" s="182"/>
-      <c r="AV4" s="182"/>
-      <c r="AW4" s="182"/>
-      <c r="AX4" s="182"/>
-      <c r="AY4" s="182"/>
-      <c r="AZ4" s="182"/>
-      <c r="BA4" s="182"/>
-      <c r="BB4" s="175"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="177"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="177"/>
+      <c r="U4" s="177"/>
+      <c r="V4" s="177"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="177"/>
+      <c r="Y4" s="177"/>
+      <c r="Z4" s="170"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="177"/>
+      <c r="AC4" s="177"/>
+      <c r="AD4" s="177"/>
+      <c r="AE4" s="177"/>
+      <c r="AF4" s="177"/>
+      <c r="AG4" s="177"/>
+      <c r="AH4" s="177"/>
+      <c r="AI4" s="177"/>
+      <c r="AJ4" s="177"/>
+      <c r="AK4" s="177"/>
+      <c r="AL4" s="177"/>
+      <c r="AM4" s="177"/>
+      <c r="AN4" s="177"/>
+      <c r="AO4" s="177"/>
+      <c r="AP4" s="177"/>
+      <c r="AQ4" s="177"/>
+      <c r="AR4" s="177"/>
+      <c r="AS4" s="177"/>
+      <c r="AT4" s="177"/>
+      <c r="AU4" s="177"/>
+      <c r="AV4" s="177"/>
+      <c r="AW4" s="177"/>
+      <c r="AX4" s="177"/>
+      <c r="AY4" s="177"/>
+      <c r="AZ4" s="177"/>
+      <c r="BA4" s="177"/>
+      <c r="BB4" s="170"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="174">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A5" s="169">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="182"/>
-      <c r="U5" s="182"/>
-      <c r="V5" s="182"/>
-      <c r="W5" s="182"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="182"/>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="182"/>
-      <c r="AC5" s="182"/>
-      <c r="AD5" s="182"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="182"/>
-      <c r="AG5" s="182"/>
-      <c r="AH5" s="182"/>
-      <c r="AI5" s="182"/>
-      <c r="AJ5" s="182"/>
-      <c r="AK5" s="182"/>
-      <c r="AL5" s="182"/>
-      <c r="AM5" s="182"/>
-      <c r="AN5" s="182"/>
-      <c r="AO5" s="182"/>
-      <c r="AP5" s="182"/>
-      <c r="AQ5" s="182"/>
-      <c r="AR5" s="182"/>
-      <c r="AS5" s="182"/>
-      <c r="AT5" s="182"/>
-      <c r="AU5" s="182"/>
-      <c r="AV5" s="182"/>
-      <c r="AW5" s="182"/>
-      <c r="AX5" s="182"/>
-      <c r="AY5" s="182"/>
-      <c r="AZ5" s="182"/>
-      <c r="BA5" s="182"/>
-      <c r="BB5" s="175"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="177"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="177"/>
+      <c r="Y5" s="177"/>
+      <c r="Z5" s="170"/>
+      <c r="AA5" s="169"/>
+      <c r="AB5" s="177"/>
+      <c r="AC5" s="177"/>
+      <c r="AD5" s="177"/>
+      <c r="AE5" s="177"/>
+      <c r="AF5" s="177"/>
+      <c r="AG5" s="177"/>
+      <c r="AH5" s="177"/>
+      <c r="AI5" s="177"/>
+      <c r="AJ5" s="177"/>
+      <c r="AK5" s="177"/>
+      <c r="AL5" s="177"/>
+      <c r="AM5" s="177"/>
+      <c r="AN5" s="177"/>
+      <c r="AO5" s="177"/>
+      <c r="AP5" s="177"/>
+      <c r="AQ5" s="177"/>
+      <c r="AR5" s="177"/>
+      <c r="AS5" s="177"/>
+      <c r="AT5" s="177"/>
+      <c r="AU5" s="177"/>
+      <c r="AV5" s="177"/>
+      <c r="AW5" s="177"/>
+      <c r="AX5" s="177"/>
+      <c r="AY5" s="177"/>
+      <c r="AZ5" s="177"/>
+      <c r="BA5" s="177"/>
+      <c r="BB5" s="170"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="174">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A6" s="169">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="175"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="174"/>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="182"/>
-      <c r="AG6" s="182"/>
-      <c r="AH6" s="182"/>
-      <c r="AI6" s="182"/>
-      <c r="AJ6" s="182"/>
-      <c r="AK6" s="182"/>
-      <c r="AL6" s="182"/>
-      <c r="AM6" s="182"/>
-      <c r="AN6" s="182"/>
-      <c r="AO6" s="182"/>
-      <c r="AP6" s="182"/>
-      <c r="AQ6" s="182"/>
-      <c r="AR6" s="182"/>
-      <c r="AS6" s="182"/>
-      <c r="AT6" s="182"/>
-      <c r="AU6" s="182"/>
-      <c r="AV6" s="182"/>
-      <c r="AW6" s="182"/>
-      <c r="AX6" s="182"/>
-      <c r="AY6" s="182"/>
-      <c r="AZ6" s="182"/>
-      <c r="BA6" s="182"/>
-      <c r="BB6" s="175"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="177"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="177"/>
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="170"/>
+      <c r="AA6" s="169"/>
+      <c r="AB6" s="177"/>
+      <c r="AC6" s="177"/>
+      <c r="AD6" s="177"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="177"/>
+      <c r="AG6" s="177"/>
+      <c r="AH6" s="177"/>
+      <c r="AI6" s="177"/>
+      <c r="AJ6" s="177"/>
+      <c r="AK6" s="177"/>
+      <c r="AL6" s="177"/>
+      <c r="AM6" s="177"/>
+      <c r="AN6" s="177"/>
+      <c r="AO6" s="177"/>
+      <c r="AP6" s="177"/>
+      <c r="AQ6" s="177"/>
+      <c r="AR6" s="177"/>
+      <c r="AS6" s="177"/>
+      <c r="AT6" s="177"/>
+      <c r="AU6" s="177"/>
+      <c r="AV6" s="177"/>
+      <c r="AW6" s="177"/>
+      <c r="AX6" s="177"/>
+      <c r="AY6" s="177"/>
+      <c r="AZ6" s="177"/>
+      <c r="BA6" s="177"/>
+      <c r="BB6" s="170"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="174">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A7" s="169">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
-      <c r="T7" s="182"/>
-      <c r="U7" s="182"/>
-      <c r="V7" s="182"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="182"/>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="182"/>
-      <c r="AC7" s="182"/>
-      <c r="AD7" s="182"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="182"/>
-      <c r="AH7" s="182"/>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="182"/>
-      <c r="AK7" s="182"/>
-      <c r="AL7" s="182"/>
-      <c r="AM7" s="182"/>
-      <c r="AN7" s="182"/>
-      <c r="AO7" s="182"/>
-      <c r="AP7" s="182"/>
-      <c r="AQ7" s="182"/>
-      <c r="AR7" s="182"/>
-      <c r="AS7" s="182"/>
-      <c r="AT7" s="182"/>
-      <c r="AU7" s="182"/>
-      <c r="AV7" s="182"/>
-      <c r="AW7" s="182"/>
-      <c r="AX7" s="182"/>
-      <c r="AY7" s="182"/>
-      <c r="AZ7" s="182"/>
-      <c r="BA7" s="182"/>
-      <c r="BB7" s="175"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="177"/>
+      <c r="AR7" s="177"/>
+      <c r="AS7" s="177"/>
+      <c r="AT7" s="177"/>
+      <c r="AU7" s="177"/>
+      <c r="AV7" s="177"/>
+      <c r="AW7" s="177"/>
+      <c r="AX7" s="177"/>
+      <c r="AY7" s="177"/>
+      <c r="AZ7" s="177"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="170"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="174">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A8" s="169">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="182"/>
-      <c r="Q8" s="182"/>
-      <c r="R8" s="182"/>
-      <c r="S8" s="182"/>
-      <c r="T8" s="182"/>
-      <c r="U8" s="182"/>
-      <c r="V8" s="182"/>
-      <c r="W8" s="182"/>
-      <c r="X8" s="182"/>
-      <c r="Y8" s="182"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="182"/>
-      <c r="AC8" s="182"/>
-      <c r="AD8" s="182"/>
-      <c r="AE8" s="182"/>
-      <c r="AF8" s="182"/>
-      <c r="AG8" s="182"/>
-      <c r="AH8" s="182"/>
-      <c r="AI8" s="182"/>
-      <c r="AJ8" s="182"/>
-      <c r="AK8" s="182"/>
-      <c r="AL8" s="182"/>
-      <c r="AM8" s="182"/>
-      <c r="AN8" s="182"/>
-      <c r="AO8" s="182"/>
-      <c r="AP8" s="182"/>
-      <c r="AQ8" s="182"/>
-      <c r="AR8" s="182"/>
-      <c r="AS8" s="182"/>
-      <c r="AT8" s="182"/>
-      <c r="AU8" s="182"/>
-      <c r="AV8" s="182"/>
-      <c r="AW8" s="182"/>
-      <c r="AX8" s="182"/>
-      <c r="AY8" s="182"/>
-      <c r="AZ8" s="182"/>
-      <c r="BA8" s="182"/>
-      <c r="BB8" s="175"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="169"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="177"/>
+      <c r="AG8" s="177"/>
+      <c r="AH8" s="177"/>
+      <c r="AI8" s="177"/>
+      <c r="AJ8" s="177"/>
+      <c r="AK8" s="177"/>
+      <c r="AL8" s="177"/>
+      <c r="AM8" s="177"/>
+      <c r="AN8" s="177"/>
+      <c r="AO8" s="177"/>
+      <c r="AP8" s="177"/>
+      <c r="AQ8" s="177"/>
+      <c r="AR8" s="177"/>
+      <c r="AS8" s="177"/>
+      <c r="AT8" s="177"/>
+      <c r="AU8" s="177"/>
+      <c r="AV8" s="177"/>
+      <c r="AW8" s="177"/>
+      <c r="AX8" s="177"/>
+      <c r="AY8" s="177"/>
+      <c r="AZ8" s="177"/>
+      <c r="BA8" s="177"/>
+      <c r="BB8" s="170"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="174">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A9" s="169">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="182"/>
-      <c r="S9" s="182"/>
-      <c r="T9" s="182"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="174"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="182"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="182"/>
-      <c r="AJ9" s="182"/>
-      <c r="AK9" s="182"/>
-      <c r="AL9" s="182"/>
-      <c r="AM9" s="182"/>
-      <c r="AN9" s="182"/>
-      <c r="AO9" s="182"/>
-      <c r="AP9" s="182"/>
-      <c r="AQ9" s="182"/>
-      <c r="AR9" s="182"/>
-      <c r="AS9" s="182"/>
-      <c r="AT9" s="182"/>
-      <c r="AU9" s="182"/>
-      <c r="AV9" s="182"/>
-      <c r="AW9" s="182"/>
-      <c r="AX9" s="182"/>
-      <c r="AY9" s="182"/>
-      <c r="AZ9" s="182"/>
-      <c r="BA9" s="182"/>
-      <c r="BB9" s="175"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="170"/>
+      <c r="AA9" s="169"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="177"/>
+      <c r="AG9" s="177"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="177"/>
+      <c r="AJ9" s="177"/>
+      <c r="AK9" s="177"/>
+      <c r="AL9" s="177"/>
+      <c r="AM9" s="177"/>
+      <c r="AN9" s="177"/>
+      <c r="AO9" s="177"/>
+      <c r="AP9" s="177"/>
+      <c r="AQ9" s="177"/>
+      <c r="AR9" s="177"/>
+      <c r="AS9" s="177"/>
+      <c r="AT9" s="177"/>
+      <c r="AU9" s="177"/>
+      <c r="AV9" s="177"/>
+      <c r="AW9" s="177"/>
+      <c r="AX9" s="177"/>
+      <c r="AY9" s="177"/>
+      <c r="AZ9" s="177"/>
+      <c r="BA9" s="177"/>
+      <c r="BB9" s="170"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="174">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A10" s="169">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="182"/>
-      <c r="U10" s="182"/>
-      <c r="V10" s="182"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="175"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="182"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="182"/>
-      <c r="AI10" s="182"/>
-      <c r="AJ10" s="182"/>
-      <c r="AK10" s="182"/>
-      <c r="AL10" s="182"/>
-      <c r="AM10" s="182"/>
-      <c r="AN10" s="182"/>
-      <c r="AO10" s="182"/>
-      <c r="AP10" s="182"/>
-      <c r="AQ10" s="182"/>
-      <c r="AR10" s="182"/>
-      <c r="AS10" s="182"/>
-      <c r="AT10" s="182"/>
-      <c r="AU10" s="182"/>
-      <c r="AV10" s="182"/>
-      <c r="AW10" s="182"/>
-      <c r="AX10" s="182"/>
-      <c r="AY10" s="182"/>
-      <c r="AZ10" s="182"/>
-      <c r="BA10" s="182"/>
-      <c r="BB10" s="175"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="170"/>
+      <c r="AA10" s="169"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="177"/>
+      <c r="AF10" s="177"/>
+      <c r="AG10" s="177"/>
+      <c r="AH10" s="177"/>
+      <c r="AI10" s="177"/>
+      <c r="AJ10" s="177"/>
+      <c r="AK10" s="177"/>
+      <c r="AL10" s="177"/>
+      <c r="AM10" s="177"/>
+      <c r="AN10" s="177"/>
+      <c r="AO10" s="177"/>
+      <c r="AP10" s="177"/>
+      <c r="AQ10" s="177"/>
+      <c r="AR10" s="177"/>
+      <c r="AS10" s="177"/>
+      <c r="AT10" s="177"/>
+      <c r="AU10" s="177"/>
+      <c r="AV10" s="177"/>
+      <c r="AW10" s="177"/>
+      <c r="AX10" s="177"/>
+      <c r="AY10" s="177"/>
+      <c r="AZ10" s="177"/>
+      <c r="BA10" s="177"/>
+      <c r="BB10" s="170"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="174">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A11" s="169">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="182"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="182"/>
-      <c r="S11" s="182"/>
-      <c r="T11" s="182"/>
-      <c r="U11" s="182"/>
-      <c r="V11" s="182"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="175"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="182"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="182"/>
-      <c r="AJ11" s="182"/>
-      <c r="AK11" s="182"/>
-      <c r="AL11" s="182"/>
-      <c r="AM11" s="182"/>
-      <c r="AN11" s="182"/>
-      <c r="AO11" s="182"/>
-      <c r="AP11" s="182"/>
-      <c r="AQ11" s="182"/>
-      <c r="AR11" s="182"/>
-      <c r="AS11" s="182"/>
-      <c r="AT11" s="182"/>
-      <c r="AU11" s="182"/>
-      <c r="AV11" s="182"/>
-      <c r="AW11" s="182"/>
-      <c r="AX11" s="182"/>
-      <c r="AY11" s="182"/>
-      <c r="AZ11" s="182"/>
-      <c r="BA11" s="182"/>
-      <c r="BB11" s="175"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="170"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="177"/>
+      <c r="AH11" s="177"/>
+      <c r="AI11" s="177"/>
+      <c r="AJ11" s="177"/>
+      <c r="AK11" s="177"/>
+      <c r="AL11" s="177"/>
+      <c r="AM11" s="177"/>
+      <c r="AN11" s="177"/>
+      <c r="AO11" s="177"/>
+      <c r="AP11" s="177"/>
+      <c r="AQ11" s="177"/>
+      <c r="AR11" s="177"/>
+      <c r="AS11" s="177"/>
+      <c r="AT11" s="177"/>
+      <c r="AU11" s="177"/>
+      <c r="AV11" s="177"/>
+      <c r="AW11" s="177"/>
+      <c r="AX11" s="177"/>
+      <c r="AY11" s="177"/>
+      <c r="AZ11" s="177"/>
+      <c r="BA11" s="177"/>
+      <c r="BB11" s="170"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="174">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A12" s="169">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="182"/>
-      <c r="S12" s="182"/>
-      <c r="T12" s="182"/>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="175"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="182"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="182"/>
-      <c r="AJ12" s="182"/>
-      <c r="AK12" s="182"/>
-      <c r="AL12" s="182"/>
-      <c r="AM12" s="182"/>
-      <c r="AN12" s="182"/>
-      <c r="AO12" s="182"/>
-      <c r="AP12" s="182"/>
-      <c r="AQ12" s="182"/>
-      <c r="AR12" s="182"/>
-      <c r="AS12" s="182"/>
-      <c r="AT12" s="182"/>
-      <c r="AU12" s="182"/>
-      <c r="AV12" s="182"/>
-      <c r="AW12" s="182"/>
-      <c r="AX12" s="182"/>
-      <c r="AY12" s="182"/>
-      <c r="AZ12" s="182"/>
-      <c r="BA12" s="182"/>
-      <c r="BB12" s="175"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="170"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="177"/>
+      <c r="AG12" s="177"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="177"/>
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="177"/>
+      <c r="AL12" s="177"/>
+      <c r="AM12" s="177"/>
+      <c r="AN12" s="177"/>
+      <c r="AO12" s="177"/>
+      <c r="AP12" s="177"/>
+      <c r="AQ12" s="177"/>
+      <c r="AR12" s="177"/>
+      <c r="AS12" s="177"/>
+      <c r="AT12" s="177"/>
+      <c r="AU12" s="177"/>
+      <c r="AV12" s="177"/>
+      <c r="AW12" s="177"/>
+      <c r="AX12" s="177"/>
+      <c r="AY12" s="177"/>
+      <c r="AZ12" s="177"/>
+      <c r="BA12" s="177"/>
+      <c r="BB12" s="170"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="174">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A13" s="169">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="182"/>
-      <c r="R13" s="182"/>
-      <c r="S13" s="182"/>
-      <c r="T13" s="182"/>
-      <c r="U13" s="182"/>
-      <c r="V13" s="182"/>
-      <c r="W13" s="182"/>
-      <c r="X13" s="182"/>
-      <c r="Y13" s="182"/>
-      <c r="Z13" s="175"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="182"/>
-      <c r="AC13" s="182"/>
-      <c r="AD13" s="182"/>
-      <c r="AE13" s="182"/>
-      <c r="AF13" s="182"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="182"/>
-      <c r="AI13" s="182"/>
-      <c r="AJ13" s="182"/>
-      <c r="AK13" s="182"/>
-      <c r="AL13" s="182"/>
-      <c r="AM13" s="182"/>
-      <c r="AN13" s="182"/>
-      <c r="AO13" s="182"/>
-      <c r="AP13" s="182"/>
-      <c r="AQ13" s="182"/>
-      <c r="AR13" s="182"/>
-      <c r="AS13" s="182"/>
-      <c r="AT13" s="182"/>
-      <c r="AU13" s="182"/>
-      <c r="AV13" s="182"/>
-      <c r="AW13" s="182"/>
-      <c r="AX13" s="182"/>
-      <c r="AY13" s="182"/>
-      <c r="AZ13" s="182"/>
-      <c r="BA13" s="182"/>
-      <c r="BB13" s="175"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="170"/>
+      <c r="AA13" s="169"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="177"/>
+      <c r="AG13" s="177"/>
+      <c r="AH13" s="177"/>
+      <c r="AI13" s="177"/>
+      <c r="AJ13" s="177"/>
+      <c r="AK13" s="177"/>
+      <c r="AL13" s="177"/>
+      <c r="AM13" s="177"/>
+      <c r="AN13" s="177"/>
+      <c r="AO13" s="177"/>
+      <c r="AP13" s="177"/>
+      <c r="AQ13" s="177"/>
+      <c r="AR13" s="177"/>
+      <c r="AS13" s="177"/>
+      <c r="AT13" s="177"/>
+      <c r="AU13" s="177"/>
+      <c r="AV13" s="177"/>
+      <c r="AW13" s="177"/>
+      <c r="AX13" s="177"/>
+      <c r="AY13" s="177"/>
+      <c r="AZ13" s="177"/>
+      <c r="BA13" s="177"/>
+      <c r="BB13" s="170"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" s="174">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A14" s="169">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="182"/>
-      <c r="Q14" s="182"/>
-      <c r="R14" s="182"/>
-      <c r="S14" s="182"/>
-      <c r="T14" s="182"/>
-      <c r="U14" s="182"/>
-      <c r="V14" s="182"/>
-      <c r="W14" s="182"/>
-      <c r="X14" s="182"/>
-      <c r="Y14" s="182"/>
-      <c r="Z14" s="175"/>
-      <c r="AA14" s="174"/>
-      <c r="AB14" s="182"/>
-      <c r="AC14" s="182"/>
-      <c r="AD14" s="182"/>
-      <c r="AE14" s="182"/>
-      <c r="AF14" s="182"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="182"/>
-      <c r="AI14" s="182"/>
-      <c r="AJ14" s="182"/>
-      <c r="AK14" s="182"/>
-      <c r="AL14" s="182"/>
-      <c r="AM14" s="182"/>
-      <c r="AN14" s="182"/>
-      <c r="AO14" s="182"/>
-      <c r="AP14" s="182"/>
-      <c r="AQ14" s="182"/>
-      <c r="AR14" s="182"/>
-      <c r="AS14" s="182"/>
-      <c r="AT14" s="182"/>
-      <c r="AU14" s="182"/>
-      <c r="AV14" s="182"/>
-      <c r="AW14" s="182"/>
-      <c r="AX14" s="182"/>
-      <c r="AY14" s="182"/>
-      <c r="AZ14" s="182"/>
-      <c r="BA14" s="182"/>
-      <c r="BB14" s="175"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="177"/>
+      <c r="Z14" s="170"/>
+      <c r="AA14" s="169"/>
+      <c r="AB14" s="177"/>
+      <c r="AC14" s="177"/>
+      <c r="AD14" s="177"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="177"/>
+      <c r="AG14" s="177"/>
+      <c r="AH14" s="177"/>
+      <c r="AI14" s="177"/>
+      <c r="AJ14" s="177"/>
+      <c r="AK14" s="177"/>
+      <c r="AL14" s="177"/>
+      <c r="AM14" s="177"/>
+      <c r="AN14" s="177"/>
+      <c r="AO14" s="177"/>
+      <c r="AP14" s="177"/>
+      <c r="AQ14" s="177"/>
+      <c r="AR14" s="177"/>
+      <c r="AS14" s="177"/>
+      <c r="AT14" s="177"/>
+      <c r="AU14" s="177"/>
+      <c r="AV14" s="177"/>
+      <c r="AW14" s="177"/>
+      <c r="AX14" s="177"/>
+      <c r="AY14" s="177"/>
+      <c r="AZ14" s="177"/>
+      <c r="BA14" s="177"/>
+      <c r="BB14" s="170"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="174">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A15" s="169">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="182"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="182"/>
-      <c r="S15" s="182"/>
-      <c r="T15" s="182"/>
-      <c r="U15" s="182"/>
-      <c r="V15" s="182"/>
-      <c r="W15" s="182"/>
-      <c r="X15" s="182"/>
-      <c r="Y15" s="182"/>
-      <c r="Z15" s="175"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="182"/>
-      <c r="AC15" s="182"/>
-      <c r="AD15" s="182"/>
-      <c r="AE15" s="182"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="182"/>
-      <c r="AJ15" s="182"/>
-      <c r="AK15" s="182"/>
-      <c r="AL15" s="182"/>
-      <c r="AM15" s="182"/>
-      <c r="AN15" s="182"/>
-      <c r="AO15" s="182"/>
-      <c r="AP15" s="182"/>
-      <c r="AQ15" s="182"/>
-      <c r="AR15" s="182"/>
-      <c r="AS15" s="182"/>
-      <c r="AT15" s="182"/>
-      <c r="AU15" s="182"/>
-      <c r="AV15" s="182"/>
-      <c r="AW15" s="182"/>
-      <c r="AX15" s="182"/>
-      <c r="AY15" s="182"/>
-      <c r="AZ15" s="182"/>
-      <c r="BA15" s="182"/>
-      <c r="BB15" s="175"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="170"/>
+      <c r="AA15" s="169"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="177"/>
+      <c r="AF15" s="177"/>
+      <c r="AG15" s="177"/>
+      <c r="AH15" s="177"/>
+      <c r="AI15" s="177"/>
+      <c r="AJ15" s="177"/>
+      <c r="AK15" s="177"/>
+      <c r="AL15" s="177"/>
+      <c r="AM15" s="177"/>
+      <c r="AN15" s="177"/>
+      <c r="AO15" s="177"/>
+      <c r="AP15" s="177"/>
+      <c r="AQ15" s="177"/>
+      <c r="AR15" s="177"/>
+      <c r="AS15" s="177"/>
+      <c r="AT15" s="177"/>
+      <c r="AU15" s="177"/>
+      <c r="AV15" s="177"/>
+      <c r="AW15" s="177"/>
+      <c r="AX15" s="177"/>
+      <c r="AY15" s="177"/>
+      <c r="AZ15" s="177"/>
+      <c r="BA15" s="177"/>
+      <c r="BB15" s="170"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="174">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A16" s="169">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="182"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="182"/>
-      <c r="S16" s="182"/>
-      <c r="T16" s="182"/>
-      <c r="U16" s="182"/>
-      <c r="V16" s="182"/>
-      <c r="W16" s="182"/>
-      <c r="X16" s="182"/>
-      <c r="Y16" s="182"/>
-      <c r="Z16" s="175"/>
-      <c r="AA16" s="174"/>
-      <c r="AB16" s="182"/>
-      <c r="AC16" s="182"/>
-      <c r="AD16" s="182"/>
-      <c r="AE16" s="182"/>
-      <c r="AF16" s="182"/>
-      <c r="AG16" s="182"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="182"/>
-      <c r="AJ16" s="182"/>
-      <c r="AK16" s="182"/>
-      <c r="AL16" s="182"/>
-      <c r="AM16" s="182"/>
-      <c r="AN16" s="182"/>
-      <c r="AO16" s="182"/>
-      <c r="AP16" s="182"/>
-      <c r="AQ16" s="182"/>
-      <c r="AR16" s="182"/>
-      <c r="AS16" s="182"/>
-      <c r="AT16" s="182"/>
-      <c r="AU16" s="182"/>
-      <c r="AV16" s="182"/>
-      <c r="AW16" s="182"/>
-      <c r="AX16" s="182"/>
-      <c r="AY16" s="182"/>
-      <c r="AZ16" s="182"/>
-      <c r="BA16" s="182"/>
-      <c r="BB16" s="175"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="169"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="177"/>
+      <c r="AG16" s="177"/>
+      <c r="AH16" s="177"/>
+      <c r="AI16" s="177"/>
+      <c r="AJ16" s="177"/>
+      <c r="AK16" s="177"/>
+      <c r="AL16" s="177"/>
+      <c r="AM16" s="177"/>
+      <c r="AN16" s="177"/>
+      <c r="AO16" s="177"/>
+      <c r="AP16" s="177"/>
+      <c r="AQ16" s="177"/>
+      <c r="AR16" s="177"/>
+      <c r="AS16" s="177"/>
+      <c r="AT16" s="177"/>
+      <c r="AU16" s="177"/>
+      <c r="AV16" s="177"/>
+      <c r="AW16" s="177"/>
+      <c r="AX16" s="177"/>
+      <c r="AY16" s="177"/>
+      <c r="AZ16" s="177"/>
+      <c r="BA16" s="177"/>
+      <c r="BB16" s="170"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="174">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A17" s="169">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="174"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="182"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-      <c r="V17" s="182"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="175"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="182"/>
-      <c r="AC17" s="182"/>
-      <c r="AD17" s="182"/>
-      <c r="AE17" s="182"/>
-      <c r="AF17" s="182"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="182"/>
-      <c r="AI17" s="182"/>
-      <c r="AJ17" s="182"/>
-      <c r="AK17" s="182"/>
-      <c r="AL17" s="182"/>
-      <c r="AM17" s="182"/>
-      <c r="AN17" s="182"/>
-      <c r="AO17" s="182"/>
-      <c r="AP17" s="182"/>
-      <c r="AQ17" s="182"/>
-      <c r="AR17" s="182"/>
-      <c r="AS17" s="182"/>
-      <c r="AT17" s="182"/>
-      <c r="AU17" s="182"/>
-      <c r="AV17" s="182"/>
-      <c r="AW17" s="182"/>
-      <c r="AX17" s="182"/>
-      <c r="AY17" s="182"/>
-      <c r="AZ17" s="182"/>
-      <c r="BA17" s="182"/>
-      <c r="BB17" s="175"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="170"/>
+      <c r="AA17" s="169"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="177"/>
+      <c r="AG17" s="177"/>
+      <c r="AH17" s="177"/>
+      <c r="AI17" s="177"/>
+      <c r="AJ17" s="177"/>
+      <c r="AK17" s="177"/>
+      <c r="AL17" s="177"/>
+      <c r="AM17" s="177"/>
+      <c r="AN17" s="177"/>
+      <c r="AO17" s="177"/>
+      <c r="AP17" s="177"/>
+      <c r="AQ17" s="177"/>
+      <c r="AR17" s="177"/>
+      <c r="AS17" s="177"/>
+      <c r="AT17" s="177"/>
+      <c r="AU17" s="177"/>
+      <c r="AV17" s="177"/>
+      <c r="AW17" s="177"/>
+      <c r="AX17" s="177"/>
+      <c r="AY17" s="177"/>
+      <c r="AZ17" s="177"/>
+      <c r="BA17" s="177"/>
+      <c r="BB17" s="170"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" s="174">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A18" s="169">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="182"/>
-      <c r="S18" s="182"/>
-      <c r="T18" s="182"/>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="175"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="182"/>
-      <c r="AI18" s="182"/>
-      <c r="AJ18" s="182"/>
-      <c r="AK18" s="182"/>
-      <c r="AL18" s="182"/>
-      <c r="AM18" s="182"/>
-      <c r="AN18" s="182"/>
-      <c r="AO18" s="182"/>
-      <c r="AP18" s="182"/>
-      <c r="AQ18" s="182"/>
-      <c r="AR18" s="182"/>
-      <c r="AS18" s="182"/>
-      <c r="AT18" s="182"/>
-      <c r="AU18" s="182"/>
-      <c r="AV18" s="182"/>
-      <c r="AW18" s="182"/>
-      <c r="AX18" s="182"/>
-      <c r="AY18" s="182"/>
-      <c r="AZ18" s="182"/>
-      <c r="BA18" s="182"/>
-      <c r="BB18" s="175"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="170"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="177"/>
+      <c r="AG18" s="177"/>
+      <c r="AH18" s="177"/>
+      <c r="AI18" s="177"/>
+      <c r="AJ18" s="177"/>
+      <c r="AK18" s="177"/>
+      <c r="AL18" s="177"/>
+      <c r="AM18" s="177"/>
+      <c r="AN18" s="177"/>
+      <c r="AO18" s="177"/>
+      <c r="AP18" s="177"/>
+      <c r="AQ18" s="177"/>
+      <c r="AR18" s="177"/>
+      <c r="AS18" s="177"/>
+      <c r="AT18" s="177"/>
+      <c r="AU18" s="177"/>
+      <c r="AV18" s="177"/>
+      <c r="AW18" s="177"/>
+      <c r="AX18" s="177"/>
+      <c r="AY18" s="177"/>
+      <c r="AZ18" s="177"/>
+      <c r="BA18" s="177"/>
+      <c r="BB18" s="170"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A19" s="174">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A19" s="169">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="182"/>
-      <c r="S19" s="182"/>
-      <c r="T19" s="182"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="182"/>
-      <c r="W19" s="182"/>
-      <c r="X19" s="182"/>
-      <c r="Y19" s="182"/>
-      <c r="Z19" s="175"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="182"/>
-      <c r="AC19" s="182"/>
-      <c r="AD19" s="182"/>
-      <c r="AE19" s="182"/>
-      <c r="AF19" s="182"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
-      <c r="AI19" s="182"/>
-      <c r="AJ19" s="182"/>
-      <c r="AK19" s="182"/>
-      <c r="AL19" s="182"/>
-      <c r="AM19" s="182"/>
-      <c r="AN19" s="182"/>
-      <c r="AO19" s="182"/>
-      <c r="AP19" s="182"/>
-      <c r="AQ19" s="182"/>
-      <c r="AR19" s="182"/>
-      <c r="AS19" s="182"/>
-      <c r="AT19" s="182"/>
-      <c r="AU19" s="182"/>
-      <c r="AV19" s="182"/>
-      <c r="AW19" s="182"/>
-      <c r="AX19" s="182"/>
-      <c r="AY19" s="182"/>
-      <c r="AZ19" s="182"/>
-      <c r="BA19" s="182"/>
-      <c r="BB19" s="175"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="170"/>
+      <c r="AA19" s="169"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="177"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="177"/>
+      <c r="AH19" s="177"/>
+      <c r="AI19" s="177"/>
+      <c r="AJ19" s="177"/>
+      <c r="AK19" s="177"/>
+      <c r="AL19" s="177"/>
+      <c r="AM19" s="177"/>
+      <c r="AN19" s="177"/>
+      <c r="AO19" s="177"/>
+      <c r="AP19" s="177"/>
+      <c r="AQ19" s="177"/>
+      <c r="AR19" s="177"/>
+      <c r="AS19" s="177"/>
+      <c r="AT19" s="177"/>
+      <c r="AU19" s="177"/>
+      <c r="AV19" s="177"/>
+      <c r="AW19" s="177"/>
+      <c r="AX19" s="177"/>
+      <c r="AY19" s="177"/>
+      <c r="AZ19" s="177"/>
+      <c r="BA19" s="177"/>
+      <c r="BB19" s="170"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" s="174">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A20" s="169">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="182"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="182"/>
-      <c r="V20" s="182"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="175"/>
-      <c r="AA20" s="174"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="182"/>
-      <c r="AD20" s="182"/>
-      <c r="AE20" s="182"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="182"/>
-      <c r="AJ20" s="182"/>
-      <c r="AK20" s="182"/>
-      <c r="AL20" s="182"/>
-      <c r="AM20" s="182"/>
-      <c r="AN20" s="182"/>
-      <c r="AO20" s="182"/>
-      <c r="AP20" s="182"/>
-      <c r="AQ20" s="182"/>
-      <c r="AR20" s="182"/>
-      <c r="AS20" s="182"/>
-      <c r="AT20" s="182"/>
-      <c r="AU20" s="182"/>
-      <c r="AV20" s="182"/>
-      <c r="AW20" s="182"/>
-      <c r="AX20" s="182"/>
-      <c r="AY20" s="182"/>
-      <c r="AZ20" s="182"/>
-      <c r="BA20" s="182"/>
-      <c r="BB20" s="175"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="176"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="170"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="177"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="177"/>
+      <c r="AH20" s="177"/>
+      <c r="AI20" s="177"/>
+      <c r="AJ20" s="177"/>
+      <c r="AK20" s="177"/>
+      <c r="AL20" s="177"/>
+      <c r="AM20" s="177"/>
+      <c r="AN20" s="177"/>
+      <c r="AO20" s="177"/>
+      <c r="AP20" s="177"/>
+      <c r="AQ20" s="177"/>
+      <c r="AR20" s="177"/>
+      <c r="AS20" s="177"/>
+      <c r="AT20" s="177"/>
+      <c r="AU20" s="177"/>
+      <c r="AV20" s="177"/>
+      <c r="AW20" s="177"/>
+      <c r="AX20" s="177"/>
+      <c r="AY20" s="177"/>
+      <c r="AZ20" s="177"/>
+      <c r="BA20" s="177"/>
+      <c r="BB20" s="170"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" s="174">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A21" s="169">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="174"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182"/>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="182"/>
-      <c r="W21" s="182"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="175"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="182"/>
-      <c r="AC21" s="182"/>
-      <c r="AD21" s="182"/>
-      <c r="AE21" s="182"/>
-      <c r="AF21" s="182"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="182"/>
-      <c r="AJ21" s="182"/>
-      <c r="AK21" s="182"/>
-      <c r="AL21" s="182"/>
-      <c r="AM21" s="182"/>
-      <c r="AN21" s="182"/>
-      <c r="AO21" s="182"/>
-      <c r="AP21" s="182"/>
-      <c r="AQ21" s="182"/>
-      <c r="AR21" s="182"/>
-      <c r="AS21" s="182"/>
-      <c r="AT21" s="182"/>
-      <c r="AU21" s="182"/>
-      <c r="AV21" s="182"/>
-      <c r="AW21" s="182"/>
-      <c r="AX21" s="182"/>
-      <c r="AY21" s="182"/>
-      <c r="AZ21" s="182"/>
-      <c r="BA21" s="182"/>
-      <c r="BB21" s="175"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="170"/>
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="177"/>
+      <c r="AH21" s="177"/>
+      <c r="AI21" s="177"/>
+      <c r="AJ21" s="177"/>
+      <c r="AK21" s="177"/>
+      <c r="AL21" s="177"/>
+      <c r="AM21" s="177"/>
+      <c r="AN21" s="177"/>
+      <c r="AO21" s="177"/>
+      <c r="AP21" s="177"/>
+      <c r="AQ21" s="177"/>
+      <c r="AR21" s="177"/>
+      <c r="AS21" s="177"/>
+      <c r="AT21" s="177"/>
+      <c r="AU21" s="177"/>
+      <c r="AV21" s="177"/>
+      <c r="AW21" s="177"/>
+      <c r="AX21" s="177"/>
+      <c r="AY21" s="177"/>
+      <c r="AZ21" s="177"/>
+      <c r="BA21" s="177"/>
+      <c r="BB21" s="170"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" s="174">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A22" s="169">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="174"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="182"/>
-      <c r="S22" s="182"/>
-      <c r="T22" s="182"/>
-      <c r="U22" s="182"/>
-      <c r="V22" s="182"/>
-      <c r="W22" s="182"/>
-      <c r="X22" s="182"/>
-      <c r="Y22" s="182"/>
-      <c r="Z22" s="175"/>
-      <c r="AA22" s="174"/>
-      <c r="AB22" s="182"/>
-      <c r="AC22" s="182"/>
-      <c r="AD22" s="182"/>
-      <c r="AE22" s="182"/>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="182"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="182"/>
-      <c r="AJ22" s="182"/>
-      <c r="AK22" s="182"/>
-      <c r="AL22" s="182"/>
-      <c r="AM22" s="182"/>
-      <c r="AN22" s="182"/>
-      <c r="AO22" s="182"/>
-      <c r="AP22" s="182"/>
-      <c r="AQ22" s="182"/>
-      <c r="AR22" s="182"/>
-      <c r="AS22" s="182"/>
-      <c r="AT22" s="182"/>
-      <c r="AU22" s="182"/>
-      <c r="AV22" s="182"/>
-      <c r="AW22" s="182"/>
-      <c r="AX22" s="182"/>
-      <c r="AY22" s="182"/>
-      <c r="AZ22" s="182"/>
-      <c r="BA22" s="182"/>
-      <c r="BB22" s="175"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="177"/>
+      <c r="W22" s="177"/>
+      <c r="X22" s="177"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="170"/>
+      <c r="AA22" s="169"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="177"/>
+      <c r="AF22" s="177"/>
+      <c r="AG22" s="177"/>
+      <c r="AH22" s="177"/>
+      <c r="AI22" s="177"/>
+      <c r="AJ22" s="177"/>
+      <c r="AK22" s="177"/>
+      <c r="AL22" s="177"/>
+      <c r="AM22" s="177"/>
+      <c r="AN22" s="177"/>
+      <c r="AO22" s="177"/>
+      <c r="AP22" s="177"/>
+      <c r="AQ22" s="177"/>
+      <c r="AR22" s="177"/>
+      <c r="AS22" s="177"/>
+      <c r="AT22" s="177"/>
+      <c r="AU22" s="177"/>
+      <c r="AV22" s="177"/>
+      <c r="AW22" s="177"/>
+      <c r="AX22" s="177"/>
+      <c r="AY22" s="177"/>
+      <c r="AZ22" s="177"/>
+      <c r="BA22" s="177"/>
+      <c r="BB22" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -12509,96 +12485,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12607,26 +12493,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -12821,10 +12687,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC6226D0-DB63-4106-8E81-1F23F70C8727}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12847,20 +12744,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC6226D0-DB63-4106-8E81-1F23F70C8727}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10038E6-5231-406B-8CB5-8AF486817164}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>